--- a/data/copas_mr.xlsx
+++ b/data/copas_mr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tales\Documents\GitHub\mrleague_2023_webapp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tales\Documents\GitHub\mrleague_v2_web_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="70">
   <si>
     <t>GOL</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t>Vermelho</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
+  </si>
+  <si>
+    <t>Kiko Portela</t>
+  </si>
+  <si>
+    <t>Random</t>
   </si>
 </sst>
 </file>
@@ -625,8 +634,8 @@
   <dimension ref="A1:W847"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J253" sqref="J253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9270,16 +9279,32 @@
       </c>
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
+      <c r="A194" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C194" s="4">
+        <v>3</v>
+      </c>
+      <c r="D194" s="3">
+        <v>17</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
+      <c r="J194" s="3">
+        <v>1</v>
+      </c>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
       <c r="M194" s="3"/>
@@ -9288,22 +9313,45 @@
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
       <c r="R194" s="3"/>
-      <c r="S194" s="3"/>
-      <c r="T194" s="3"/>
+      <c r="S194" s="3">
+        <v>1</v>
+      </c>
+      <c r="T194" s="3">
+        <v>2</v>
+      </c>
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
+      <c r="W194" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
+      <c r="A195" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C195" s="4">
+        <v>3</v>
+      </c>
+      <c r="D195" s="3">
+        <v>17</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
-      <c r="J195" s="3"/>
+      <c r="J195" s="3">
+        <v>1</v>
+      </c>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
       <c r="M195" s="3"/>
@@ -9316,18 +9364,37 @@
       <c r="T195" s="3"/>
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
+      <c r="W195" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
+      <c r="A196" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C196" s="4">
+        <v>3</v>
+      </c>
+      <c r="D196" s="3">
+        <v>17</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
-      <c r="J196" s="3"/>
+      <c r="J196" s="3">
+        <v>1</v>
+      </c>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
       <c r="M196" s="3"/>
@@ -9340,18 +9407,37 @@
       <c r="T196" s="3"/>
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
+      <c r="W196" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
+      <c r="A197" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C197" s="4">
+        <v>3</v>
+      </c>
+      <c r="D197" s="3">
+        <v>17</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
-      <c r="J197" s="3"/>
+      <c r="J197" s="3">
+        <v>1</v>
+      </c>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
@@ -9364,18 +9450,37 @@
       <c r="T197" s="3"/>
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
+      <c r="W197" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
+      <c r="A198" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C198" s="4">
+        <v>3</v>
+      </c>
+      <c r="D198" s="3">
+        <v>17</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
-      <c r="J198" s="3"/>
+      <c r="J198" s="3">
+        <v>1</v>
+      </c>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
@@ -9388,16 +9493,37 @@
       <c r="T198" s="3"/>
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
+      <c r="W198" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="3"/>
-      <c r="G199" s="3"/>
+      <c r="A199" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C199" s="4">
+        <v>3</v>
+      </c>
+      <c r="D199" s="3">
+        <v>17</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
-      <c r="J199" s="3"/>
+      <c r="J199" s="3">
+        <v>1</v>
+      </c>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
@@ -9410,21 +9536,42 @@
       <c r="T199" s="3"/>
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
+      <c r="W199" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="4"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
+      <c r="A200" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C200" s="4">
+        <v>3</v>
+      </c>
+      <c r="D200" s="3">
+        <v>17</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H200" s="3">
+        <v>1</v>
+      </c>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
-      <c r="M200" s="3"/>
+      <c r="M200" s="3">
+        <v>1</v>
+      </c>
       <c r="N200" s="3"/>
       <c r="O200" s="3"/>
       <c r="P200" s="3"/>
@@ -9434,21 +9581,42 @@
       <c r="T200" s="3"/>
       <c r="U200" s="3"/>
       <c r="V200" s="3"/>
+      <c r="W200" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
+      <c r="A201" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C201" s="4">
+        <v>3</v>
+      </c>
+      <c r="D201" s="3">
+        <v>17</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H201" s="3">
+        <v>1</v>
+      </c>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
-      <c r="M201" s="3"/>
+      <c r="M201" s="3">
+        <v>1</v>
+      </c>
       <c r="N201" s="3"/>
       <c r="O201" s="3"/>
       <c r="P201" s="3"/>
@@ -9458,21 +9626,42 @@
       <c r="T201" s="3"/>
       <c r="U201" s="3"/>
       <c r="V201" s="3"/>
+      <c r="W201" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
+      <c r="A202" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C202" s="4">
+        <v>3</v>
+      </c>
+      <c r="D202" s="3">
+        <v>17</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H202" s="3">
+        <v>1</v>
+      </c>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
-      <c r="M202" s="3"/>
+      <c r="M202" s="3">
+        <v>1</v>
+      </c>
       <c r="N202" s="3"/>
       <c r="O202" s="3"/>
       <c r="P202" s="3"/>
@@ -9482,21 +9671,44 @@
       <c r="T202" s="3"/>
       <c r="U202" s="3"/>
       <c r="V202" s="3"/>
+      <c r="W202" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
+      <c r="A203" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C203" s="4">
+        <v>3</v>
+      </c>
+      <c r="D203" s="3">
+        <v>17</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H203" s="3">
+        <v>1</v>
+      </c>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
-      <c r="L203" s="3"/>
-      <c r="M203" s="3"/>
+      <c r="L203" s="3">
+        <v>1</v>
+      </c>
+      <c r="M203" s="3">
+        <v>1</v>
+      </c>
       <c r="N203" s="3"/>
       <c r="O203" s="3"/>
       <c r="P203" s="3"/>
@@ -9506,21 +9718,42 @@
       <c r="T203" s="3"/>
       <c r="U203" s="3"/>
       <c r="V203" s="3"/>
+      <c r="W203" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
+      <c r="A204" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C204" s="4">
+        <v>3</v>
+      </c>
+      <c r="D204" s="3">
+        <v>17</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H204" s="3">
+        <v>1</v>
+      </c>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
-      <c r="M204" s="3"/>
+      <c r="M204" s="3">
+        <v>1</v>
+      </c>
       <c r="N204" s="3"/>
       <c r="O204" s="3"/>
       <c r="P204" s="3"/>
@@ -9530,21 +9763,44 @@
       <c r="T204" s="3"/>
       <c r="U204" s="3"/>
       <c r="V204" s="3"/>
+      <c r="W204" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
+      <c r="A205" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C205" s="4">
+        <v>3</v>
+      </c>
+      <c r="D205" s="3">
+        <v>17</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H205" s="3">
+        <v>1</v>
+      </c>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="3"/>
+      <c r="K205" s="3">
+        <v>1</v>
+      </c>
       <c r="L205" s="3"/>
-      <c r="M205" s="3"/>
+      <c r="M205" s="3">
+        <v>1</v>
+      </c>
       <c r="N205" s="3"/>
       <c r="O205" s="3"/>
       <c r="P205" s="3"/>
@@ -9554,18 +9810,37 @@
       <c r="T205" s="3"/>
       <c r="U205" s="3"/>
       <c r="V205" s="3"/>
+      <c r="W205" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
+      <c r="A206" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C206" s="4">
+        <v>3</v>
+      </c>
+      <c r="D206" s="3">
+        <v>18</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
-      <c r="J206" s="3"/>
+      <c r="J206" s="3">
+        <v>1</v>
+      </c>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
       <c r="M206" s="3"/>
@@ -9574,22 +9849,45 @@
       <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
       <c r="R206" s="3"/>
-      <c r="S206" s="3"/>
-      <c r="T206" s="3"/>
+      <c r="S206" s="3">
+        <v>1</v>
+      </c>
+      <c r="T206" s="3">
+        <v>1</v>
+      </c>
       <c r="U206" s="3"/>
       <c r="V206" s="3"/>
+      <c r="W206" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="207" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
+      <c r="A207" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C207" s="4">
+        <v>3</v>
+      </c>
+      <c r="D207" s="3">
+        <v>18</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
+      <c r="J207" s="3">
+        <v>1</v>
+      </c>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
       <c r="M207" s="3"/>
@@ -9602,18 +9900,37 @@
       <c r="T207" s="3"/>
       <c r="U207" s="3"/>
       <c r="V207" s="3"/>
+      <c r="W207" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
+      <c r="A208" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C208" s="4">
+        <v>3</v>
+      </c>
+      <c r="D208" s="3">
+        <v>18</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
+      <c r="J208" s="3">
+        <v>1</v>
+      </c>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
@@ -9626,18 +9943,37 @@
       <c r="T208" s="3"/>
       <c r="U208" s="3"/>
       <c r="V208" s="3"/>
-    </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
+      <c r="W208" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C209" s="4">
+        <v>3</v>
+      </c>
+      <c r="D209" s="3">
+        <v>18</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
+      <c r="J209" s="3">
+        <v>1</v>
+      </c>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
@@ -9650,18 +9986,37 @@
       <c r="T209" s="3"/>
       <c r="U209" s="3"/>
       <c r="V209" s="3"/>
-    </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="4"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
+      <c r="W209" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C210" s="4">
+        <v>3</v>
+      </c>
+      <c r="D210" s="3">
+        <v>18</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
+      <c r="J210" s="3">
+        <v>1</v>
+      </c>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
@@ -9674,18 +10029,37 @@
       <c r="T210" s="3"/>
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
-    </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="4"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
+      <c r="W210" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C211" s="4">
+        <v>3</v>
+      </c>
+      <c r="D211" s="3">
+        <v>18</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
+      <c r="J211" s="3">
+        <v>1</v>
+      </c>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
       <c r="M211" s="3"/>
@@ -9698,45 +10072,89 @@
       <c r="T211" s="3"/>
       <c r="U211" s="3"/>
       <c r="V211" s="3"/>
-    </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-      <c r="C212" s="4"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
+      <c r="W211" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C212" s="4">
+        <v>3</v>
+      </c>
+      <c r="D212" s="3">
+        <v>18</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H212" s="3">
+        <v>1</v>
+      </c>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
-      <c r="M212" s="3"/>
+      <c r="M212" s="3">
+        <v>1</v>
+      </c>
       <c r="N212" s="3"/>
       <c r="O212" s="3"/>
       <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
       <c r="R212" s="3"/>
       <c r="S212" s="3"/>
-      <c r="T212" s="3"/>
+      <c r="T212" s="3">
+        <v>1</v>
+      </c>
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
-    </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-      <c r="C213" s="4"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
+      <c r="W212" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C213" s="4">
+        <v>3</v>
+      </c>
+      <c r="D213" s="3">
+        <v>18</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H213" s="3">
+        <v>1</v>
+      </c>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
-      <c r="M213" s="3"/>
+      <c r="M213" s="3">
+        <v>1</v>
+      </c>
       <c r="N213" s="3"/>
       <c r="O213" s="3"/>
       <c r="P213" s="3"/>
@@ -9746,21 +10164,42 @@
       <c r="T213" s="3"/>
       <c r="U213" s="3"/>
       <c r="V213" s="3"/>
-    </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-      <c r="C214" s="4"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
+      <c r="W213" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C214" s="4">
+        <v>3</v>
+      </c>
+      <c r="D214" s="3">
+        <v>18</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H214" s="3">
+        <v>1</v>
+      </c>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
-      <c r="M214" s="3"/>
+      <c r="M214" s="3">
+        <v>1</v>
+      </c>
       <c r="N214" s="3"/>
       <c r="O214" s="3"/>
       <c r="P214" s="3"/>
@@ -9770,21 +10209,44 @@
       <c r="T214" s="3"/>
       <c r="U214" s="3"/>
       <c r="V214" s="3"/>
-    </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
+      <c r="W214" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C215" s="4">
+        <v>3</v>
+      </c>
+      <c r="D215" s="3">
+        <v>18</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H215" s="3">
+        <v>1</v>
+      </c>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
+      <c r="L215" s="3">
+        <v>1</v>
+      </c>
+      <c r="M215" s="3">
+        <v>1</v>
+      </c>
       <c r="N215" s="3"/>
       <c r="O215" s="3"/>
       <c r="P215" s="3"/>
@@ -9794,21 +10256,42 @@
       <c r="T215" s="3"/>
       <c r="U215" s="3"/>
       <c r="V215" s="3"/>
-    </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
+      <c r="W215" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C216" s="4">
+        <v>3</v>
+      </c>
+      <c r="D216" s="3">
+        <v>18</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H216" s="3">
+        <v>1</v>
+      </c>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
-      <c r="M216" s="3"/>
+      <c r="M216" s="3">
+        <v>1</v>
+      </c>
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
       <c r="P216" s="3"/>
@@ -9818,21 +10301,44 @@
       <c r="T216" s="3"/>
       <c r="U216" s="3"/>
       <c r="V216" s="3"/>
-    </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
+      <c r="W216" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C217" s="4">
+        <v>3</v>
+      </c>
+      <c r="D217" s="3">
+        <v>18</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H217" s="3">
+        <v>1</v>
+      </c>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="3"/>
+      <c r="K217" s="3">
+        <v>1</v>
+      </c>
       <c r="L217" s="3"/>
-      <c r="M217" s="3"/>
+      <c r="M217" s="3">
+        <v>1</v>
+      </c>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
       <c r="P217" s="3"/>
@@ -9842,16 +10348,35 @@
       <c r="T217" s="3"/>
       <c r="U217" s="3"/>
       <c r="V217" s="3"/>
-    </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
+      <c r="W217" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C218" s="4">
+        <v>3</v>
+      </c>
+      <c r="D218" s="3">
+        <v>19</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H218" s="3">
+        <v>1</v>
+      </c>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
@@ -9862,44 +10387,88 @@
       <c r="P218" s="3"/>
       <c r="Q218" s="3"/>
       <c r="R218" s="3"/>
-      <c r="S218" s="3"/>
+      <c r="S218" s="3">
+        <v>2</v>
+      </c>
       <c r="T218" s="3"/>
       <c r="U218" s="3"/>
       <c r="V218" s="3"/>
-    </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
+      <c r="W218" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C219" s="4">
+        <v>3</v>
+      </c>
+      <c r="D219" s="3">
+        <v>19</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H219" s="3">
+        <v>1</v>
+      </c>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
       <c r="M219" s="3"/>
       <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
+      <c r="O219" s="3">
+        <v>1</v>
+      </c>
       <c r="P219" s="3"/>
       <c r="Q219" s="3"/>
       <c r="R219" s="3"/>
       <c r="S219" s="3"/>
       <c r="T219" s="3"/>
       <c r="U219" s="3"/>
-      <c r="V219" s="3"/>
-    </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
+      <c r="V219" s="3">
+        <v>1</v>
+      </c>
+      <c r="W219" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C220" s="4">
+        <v>3</v>
+      </c>
+      <c r="D220" s="3">
+        <v>19</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H220" s="3">
+        <v>1</v>
+      </c>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
@@ -9914,40 +10483,84 @@
       <c r="T220" s="3"/>
       <c r="U220" s="3"/>
       <c r="V220" s="3"/>
-    </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
+      <c r="W220" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C221" s="4">
+        <v>3</v>
+      </c>
+      <c r="D221" s="3">
+        <v>19</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H221" s="3">
+        <v>1</v>
+      </c>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
+      <c r="L221" s="3">
+        <v>1</v>
+      </c>
       <c r="M221" s="3"/>
       <c r="N221" s="3"/>
       <c r="O221" s="3"/>
-      <c r="P221" s="3"/>
+      <c r="P221" s="3">
+        <v>1</v>
+      </c>
       <c r="Q221" s="3"/>
       <c r="R221" s="3"/>
       <c r="S221" s="3"/>
       <c r="T221" s="3"/>
       <c r="U221" s="3"/>
-      <c r="V221" s="3"/>
-    </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
+      <c r="V221" s="3">
+        <v>2</v>
+      </c>
+      <c r="W221" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C222" s="4">
+        <v>3</v>
+      </c>
+      <c r="D222" s="3">
+        <v>19</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H222" s="3">
+        <v>1</v>
+      </c>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
@@ -9962,17 +10575,40 @@
       <c r="T222" s="3"/>
       <c r="U222" s="3"/>
       <c r="V222" s="3"/>
-    </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-      <c r="C223" s="4"/>
-      <c r="D223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
+      <c r="W222" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C223" s="4">
+        <v>3</v>
+      </c>
+      <c r="D223" s="3">
+        <v>19</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H223" s="3">
+        <v>1</v>
+      </c>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
+      <c r="K223" s="3">
+        <v>2</v>
+      </c>
       <c r="L223" s="3"/>
       <c r="M223" s="3"/>
       <c r="N223" s="3"/>
@@ -9984,18 +10620,37 @@
       <c r="T223" s="3"/>
       <c r="U223" s="3"/>
       <c r="V223" s="3"/>
-    </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
+      <c r="W223" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C224" s="4">
+        <v>3</v>
+      </c>
+      <c r="D224" s="3">
+        <v>19</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
-      <c r="J224" s="3"/>
+      <c r="J224" s="3">
+        <v>1</v>
+      </c>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
       <c r="M224" s="3"/>
@@ -10004,22 +10659,43 @@
       <c r="P224" s="3"/>
       <c r="Q224" s="3"/>
       <c r="R224" s="3"/>
-      <c r="S224" s="3"/>
+      <c r="S224" s="3">
+        <v>3</v>
+      </c>
       <c r="T224" s="3"/>
       <c r="U224" s="3"/>
       <c r="V224" s="3"/>
-    </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
+      <c r="W224" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C225" s="4">
+        <v>3</v>
+      </c>
+      <c r="D225" s="3">
+        <v>19</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
-      <c r="J225" s="3"/>
+      <c r="J225" s="3">
+        <v>1</v>
+      </c>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
       <c r="M225" s="3"/>
@@ -10032,20 +10708,41 @@
       <c r="T225" s="3"/>
       <c r="U225" s="3"/>
       <c r="V225" s="3"/>
-    </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="4"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
+      <c r="W225" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C226" s="4">
+        <v>3</v>
+      </c>
+      <c r="D226" s="3">
+        <v>19</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
+      <c r="J226" s="3">
+        <v>1</v>
+      </c>
       <c r="K226" s="3"/>
-      <c r="L226" s="3"/>
+      <c r="L226" s="3">
+        <v>1</v>
+      </c>
       <c r="M226" s="3"/>
       <c r="N226" s="3"/>
       <c r="O226" s="3"/>
@@ -10056,22 +10753,43 @@
       <c r="T226" s="3"/>
       <c r="U226" s="3"/>
       <c r="V226" s="3"/>
-    </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
+      <c r="W226" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C227" s="4">
+        <v>3</v>
+      </c>
+      <c r="D227" s="3">
+        <v>19</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
-      <c r="J227" s="3"/>
+      <c r="J227" s="3">
+        <v>1</v>
+      </c>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
       <c r="M227" s="3"/>
-      <c r="N227" s="3"/>
+      <c r="N227" s="3">
+        <v>1</v>
+      </c>
       <c r="O227" s="3"/>
       <c r="P227" s="3"/>
       <c r="Q227" s="3"/>
@@ -10080,19 +10798,40 @@
       <c r="T227" s="3"/>
       <c r="U227" s="3"/>
       <c r="V227" s="3"/>
-    </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
+      <c r="W227" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C228" s="4">
+        <v>3</v>
+      </c>
+      <c r="D228" s="3">
+        <v>19</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
-      <c r="J228" s="3"/>
-      <c r="K228" s="3"/>
+      <c r="J228" s="3">
+        <v>1</v>
+      </c>
+      <c r="K228" s="3">
+        <v>1</v>
+      </c>
       <c r="L228" s="3"/>
       <c r="M228" s="3"/>
       <c r="N228" s="3"/>
@@ -10104,19 +10843,40 @@
       <c r="T228" s="3"/>
       <c r="U228" s="3"/>
       <c r="V228" s="3"/>
-    </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
+      <c r="W228" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C229" s="4">
+        <v>3</v>
+      </c>
+      <c r="D229" s="3">
+        <v>19</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
-      <c r="K229" s="3"/>
+      <c r="J229" s="3">
+        <v>1</v>
+      </c>
+      <c r="K229" s="3">
+        <v>1</v>
+      </c>
       <c r="L229" s="3"/>
       <c r="M229" s="3"/>
       <c r="N229" s="3"/>
@@ -10128,45 +10888,91 @@
       <c r="T229" s="3"/>
       <c r="U229" s="3"/>
       <c r="V229" s="3"/>
-    </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
+      <c r="W229" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C230" s="4">
+        <v>3</v>
+      </c>
+      <c r="D230" s="3">
+        <v>20</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H230" s="3">
+        <v>1</v>
+      </c>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
-      <c r="M230" s="3"/>
+      <c r="M230" s="3">
+        <v>1</v>
+      </c>
       <c r="N230" s="3"/>
       <c r="O230" s="3"/>
       <c r="P230" s="3"/>
       <c r="Q230" s="3"/>
       <c r="R230" s="3"/>
       <c r="S230" s="3"/>
-      <c r="T230" s="3"/>
+      <c r="T230" s="3">
+        <v>1</v>
+      </c>
       <c r="U230" s="3"/>
       <c r="V230" s="3"/>
-    </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
+      <c r="W230" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C231" s="4">
+        <v>3</v>
+      </c>
+      <c r="D231" s="3">
+        <v>20</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H231" s="3">
+        <v>1</v>
+      </c>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
-      <c r="L231" s="3"/>
-      <c r="M231" s="3"/>
+      <c r="L231" s="3">
+        <v>1</v>
+      </c>
+      <c r="M231" s="3">
+        <v>1</v>
+      </c>
       <c r="N231" s="3"/>
       <c r="O231" s="3"/>
       <c r="P231" s="3"/>
@@ -10176,21 +10982,46 @@
       <c r="T231" s="3"/>
       <c r="U231" s="3"/>
       <c r="V231" s="3"/>
-    </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
+      <c r="W231" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C232" s="4">
+        <v>3</v>
+      </c>
+      <c r="D232" s="3">
+        <v>20</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H232" s="3">
+        <v>1</v>
+      </c>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="3"/>
-      <c r="L232" s="3"/>
-      <c r="M232" s="3"/>
+      <c r="K232" s="3">
+        <v>1</v>
+      </c>
+      <c r="L232" s="3">
+        <v>1</v>
+      </c>
+      <c r="M232" s="3">
+        <v>1</v>
+      </c>
       <c r="N232" s="3"/>
       <c r="O232" s="3"/>
       <c r="P232" s="3"/>
@@ -10200,21 +11031,44 @@
       <c r="T232" s="3"/>
       <c r="U232" s="3"/>
       <c r="V232" s="3"/>
-    </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
+      <c r="W232" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C233" s="4">
+        <v>3</v>
+      </c>
+      <c r="D233" s="3">
+        <v>20</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H233" s="3">
+        <v>1</v>
+      </c>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="3"/>
+      <c r="K233" s="3">
+        <v>1</v>
+      </c>
       <c r="L233" s="3"/>
-      <c r="M233" s="3"/>
+      <c r="M233" s="3">
+        <v>1</v>
+      </c>
       <c r="N233" s="3"/>
       <c r="O233" s="3"/>
       <c r="P233" s="3"/>
@@ -10223,22 +11077,47 @@
       <c r="S233" s="3"/>
       <c r="T233" s="3"/>
       <c r="U233" s="3"/>
-      <c r="V233" s="3"/>
-    </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-      <c r="C234" s="4"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
+      <c r="V233" s="3">
+        <v>1</v>
+      </c>
+      <c r="W233" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C234" s="4">
+        <v>3</v>
+      </c>
+      <c r="D234" s="3">
+        <v>20</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H234" s="3">
+        <v>1</v>
+      </c>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
+      <c r="K234" s="3">
+        <v>1</v>
+      </c>
       <c r="L234" s="3"/>
-      <c r="M234" s="3"/>
+      <c r="M234" s="3">
+        <v>1</v>
+      </c>
       <c r="N234" s="3"/>
       <c r="O234" s="3"/>
       <c r="P234" s="3"/>
@@ -10248,21 +11127,44 @@
       <c r="T234" s="3"/>
       <c r="U234" s="3"/>
       <c r="V234" s="3"/>
-    </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-      <c r="C235" s="4"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
+      <c r="W234" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C235" s="4">
+        <v>3</v>
+      </c>
+      <c r="D235" s="3">
+        <v>20</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H235" s="3">
+        <v>1</v>
+      </c>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
-      <c r="L235" s="3"/>
-      <c r="M235" s="3"/>
+      <c r="L235" s="3">
+        <v>1</v>
+      </c>
+      <c r="M235" s="3">
+        <v>1</v>
+      </c>
       <c r="N235" s="3"/>
       <c r="O235" s="3"/>
       <c r="P235" s="3"/>
@@ -10271,19 +11173,40 @@
       <c r="S235" s="3"/>
       <c r="T235" s="3"/>
       <c r="U235" s="3"/>
-      <c r="V235" s="3"/>
-    </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-      <c r="C236" s="4"/>
-      <c r="D236" s="3"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="3"/>
-      <c r="G236" s="3"/>
+      <c r="V235" s="3">
+        <v>1</v>
+      </c>
+      <c r="W235" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C236" s="4">
+        <v>3</v>
+      </c>
+      <c r="D236" s="3">
+        <v>20</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
-      <c r="J236" s="3"/>
+      <c r="J236" s="3">
+        <v>1</v>
+      </c>
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
       <c r="M236" s="3"/>
@@ -10292,22 +11215,45 @@
       <c r="P236" s="3"/>
       <c r="Q236" s="3"/>
       <c r="R236" s="3"/>
-      <c r="S236" s="3"/>
+      <c r="S236" s="3">
+        <v>3</v>
+      </c>
       <c r="T236" s="3"/>
-      <c r="U236" s="3"/>
+      <c r="U236" s="3">
+        <v>1</v>
+      </c>
       <c r="V236" s="3"/>
-    </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
+      <c r="W236" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C237" s="4">
+        <v>3</v>
+      </c>
+      <c r="D237" s="3">
+        <v>20</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
-      <c r="J237" s="3"/>
+      <c r="J237" s="3">
+        <v>1</v>
+      </c>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
       <c r="M237" s="3"/>
@@ -10320,18 +11266,37 @@
       <c r="T237" s="3"/>
       <c r="U237" s="3"/>
       <c r="V237" s="3"/>
-    </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-      <c r="C238" s="4"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
-      <c r="G238" s="3"/>
+      <c r="W237" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C238" s="4">
+        <v>3</v>
+      </c>
+      <c r="D238" s="3">
+        <v>20</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
-      <c r="J238" s="3"/>
+      <c r="J238" s="3">
+        <v>1</v>
+      </c>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
       <c r="M238" s="3"/>
@@ -10344,18 +11309,37 @@
       <c r="T238" s="3"/>
       <c r="U238" s="3"/>
       <c r="V238" s="3"/>
-    </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="4"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
-      <c r="G239" s="3"/>
+      <c r="W238" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C239" s="4">
+        <v>3</v>
+      </c>
+      <c r="D239" s="3">
+        <v>20</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
-      <c r="J239" s="3"/>
+      <c r="J239" s="3">
+        <v>1</v>
+      </c>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
       <c r="M239" s="3"/>
@@ -10368,18 +11352,37 @@
       <c r="T239" s="3"/>
       <c r="U239" s="3"/>
       <c r="V239" s="3"/>
-    </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-      <c r="C240" s="4"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
-      <c r="G240" s="3"/>
+      <c r="W239" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C240" s="4">
+        <v>3</v>
+      </c>
+      <c r="D240" s="3">
+        <v>20</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
-      <c r="J240" s="3"/>
+      <c r="J240" s="3">
+        <v>1</v>
+      </c>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
       <c r="M240" s="3"/>
@@ -10392,18 +11395,37 @@
       <c r="T240" s="3"/>
       <c r="U240" s="3"/>
       <c r="V240" s="3"/>
-    </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-      <c r="C241" s="4"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="3"/>
+      <c r="W240" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C241" s="4">
+        <v>3</v>
+      </c>
+      <c r="D241" s="3">
+        <v>20</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
-      <c r="J241" s="3"/>
+      <c r="J241" s="3">
+        <v>1</v>
+      </c>
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
       <c r="M241" s="3"/>
@@ -10416,18 +11438,37 @@
       <c r="T241" s="3"/>
       <c r="U241" s="3"/>
       <c r="V241" s="3"/>
-    </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-      <c r="C242" s="4"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
-      <c r="G242" s="3"/>
+      <c r="W241" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C242" s="4">
+        <v>3</v>
+      </c>
+      <c r="D242" s="3">
+        <v>21</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
-      <c r="J242" s="3"/>
+      <c r="J242" s="3">
+        <v>1</v>
+      </c>
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
       <c r="M242" s="3"/>
@@ -10436,22 +11477,43 @@
       <c r="P242" s="3"/>
       <c r="Q242" s="3"/>
       <c r="R242" s="3"/>
-      <c r="S242" s="3"/>
+      <c r="S242" s="3">
+        <v>3</v>
+      </c>
       <c r="T242" s="3"/>
       <c r="U242" s="3"/>
       <c r="V242" s="3"/>
-    </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-      <c r="C243" s="4"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
-      <c r="G243" s="3"/>
+      <c r="W242" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C243" s="4">
+        <v>3</v>
+      </c>
+      <c r="D243" s="3">
+        <v>21</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
-      <c r="J243" s="3"/>
+      <c r="J243" s="3">
+        <v>1</v>
+      </c>
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
       <c r="M243" s="3"/>
@@ -10463,19 +11525,40 @@
       <c r="S243" s="3"/>
       <c r="T243" s="3"/>
       <c r="U243" s="3"/>
-      <c r="V243" s="3"/>
-    </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-      <c r="C244" s="4"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
+      <c r="V243" s="3">
+        <v>1</v>
+      </c>
+      <c r="W243" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C244" s="4">
+        <v>3</v>
+      </c>
+      <c r="D244" s="3">
+        <v>21</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
-      <c r="J244" s="3"/>
+      <c r="J244" s="3">
+        <v>1</v>
+      </c>
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
       <c r="M244" s="3"/>
@@ -10488,18 +11571,37 @@
       <c r="T244" s="3"/>
       <c r="U244" s="3"/>
       <c r="V244" s="3"/>
-    </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-      <c r="C245" s="4"/>
-      <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
+      <c r="W244" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C245" s="4">
+        <v>3</v>
+      </c>
+      <c r="D245" s="3">
+        <v>21</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
-      <c r="J245" s="3"/>
+      <c r="J245" s="3">
+        <v>1</v>
+      </c>
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
       <c r="M245" s="3"/>
@@ -10512,23 +11614,46 @@
       <c r="T245" s="3"/>
       <c r="U245" s="3"/>
       <c r="V245" s="3"/>
-    </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-      <c r="C246" s="4"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
+      <c r="W245" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C246" s="4">
+        <v>3</v>
+      </c>
+      <c r="D246" s="3">
+        <v>21</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
-      <c r="J246" s="3"/>
+      <c r="J246" s="3">
+        <v>1</v>
+      </c>
       <c r="K246" s="3"/>
-      <c r="L246" s="3"/>
+      <c r="L246" s="3">
+        <v>1</v>
+      </c>
       <c r="M246" s="3"/>
       <c r="N246" s="3"/>
-      <c r="O246" s="3"/>
+      <c r="O246" s="3">
+        <v>1</v>
+      </c>
       <c r="P246" s="3"/>
       <c r="Q246" s="3"/>
       <c r="R246" s="3"/>
@@ -10536,19 +11661,40 @@
       <c r="T246" s="3"/>
       <c r="U246" s="3"/>
       <c r="V246" s="3"/>
-    </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-      <c r="C247" s="4"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
+      <c r="W246" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C247" s="4">
+        <v>3</v>
+      </c>
+      <c r="D247" s="3">
+        <v>21</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
-      <c r="J247" s="3"/>
-      <c r="K247" s="3"/>
+      <c r="J247" s="3">
+        <v>1</v>
+      </c>
+      <c r="K247" s="3">
+        <v>1</v>
+      </c>
       <c r="L247" s="3"/>
       <c r="M247" s="3"/>
       <c r="N247" s="3"/>
@@ -10560,16 +11706,35 @@
       <c r="T247" s="3"/>
       <c r="U247" s="3"/>
       <c r="V247" s="3"/>
-    </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-      <c r="C248" s="4"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
+      <c r="W247" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C248" s="4">
+        <v>3</v>
+      </c>
+      <c r="D248" s="3">
+        <v>21</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H248" s="3">
+        <v>1</v>
+      </c>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
@@ -10580,20 +11745,43 @@
       <c r="P248" s="3"/>
       <c r="Q248" s="3"/>
       <c r="R248" s="3"/>
-      <c r="S248" s="3"/>
-      <c r="T248" s="3"/>
+      <c r="S248" s="3">
+        <v>1</v>
+      </c>
+      <c r="T248" s="3">
+        <v>1</v>
+      </c>
       <c r="U248" s="3"/>
       <c r="V248" s="3"/>
-    </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-      <c r="C249" s="4"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
+      <c r="W248" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C249" s="4">
+        <v>3</v>
+      </c>
+      <c r="D249" s="3">
+        <v>21</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H249" s="3">
+        <v>1</v>
+      </c>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
@@ -10608,16 +11796,35 @@
       <c r="T249" s="3"/>
       <c r="U249" s="3"/>
       <c r="V249" s="3"/>
-    </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-      <c r="C250" s="4"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
-      <c r="G250" s="3"/>
-      <c r="H250" s="3"/>
+      <c r="W249" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C250" s="4">
+        <v>3</v>
+      </c>
+      <c r="D250" s="3">
+        <v>21</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H250" s="3">
+        <v>1</v>
+      </c>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
@@ -10632,19 +11839,40 @@
       <c r="T250" s="3"/>
       <c r="U250" s="3"/>
       <c r="V250" s="3"/>
-    </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="4"/>
-      <c r="D251" s="3"/>
-      <c r="E251" s="3"/>
-      <c r="F251" s="3"/>
-      <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
+      <c r="W250" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C251" s="4">
+        <v>3</v>
+      </c>
+      <c r="D251" s="3">
+        <v>21</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H251" s="3">
+        <v>1</v>
+      </c>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="3"/>
+      <c r="K251" s="3">
+        <v>3</v>
+      </c>
       <c r="L251" s="3"/>
       <c r="M251" s="3"/>
       <c r="N251" s="3"/>
@@ -10656,23 +11884,46 @@
       <c r="T251" s="3"/>
       <c r="U251" s="3"/>
       <c r="V251" s="3"/>
-    </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="4"/>
-      <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
+      <c r="W251" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C252" s="4">
+        <v>3</v>
+      </c>
+      <c r="D252" s="3">
+        <v>21</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H252" s="3">
+        <v>1</v>
+      </c>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
-      <c r="L252" s="3"/>
+      <c r="L252" s="3">
+        <v>1</v>
+      </c>
       <c r="M252" s="3"/>
       <c r="N252" s="3"/>
-      <c r="O252" s="3"/>
+      <c r="O252" s="3">
+        <v>1</v>
+      </c>
       <c r="P252" s="3"/>
       <c r="Q252" s="3"/>
       <c r="R252" s="3"/>
@@ -10680,42 +11931,84 @@
       <c r="T252" s="3"/>
       <c r="U252" s="3"/>
       <c r="V252" s="3"/>
-    </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="4"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
+      <c r="W252" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C253" s="4">
+        <v>3</v>
+      </c>
+      <c r="D253" s="3">
+        <v>21</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H253" s="3">
+        <v>1</v>
+      </c>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
       <c r="M253" s="3"/>
       <c r="N253" s="3"/>
-      <c r="O253" s="3"/>
+      <c r="O253" s="3">
+        <v>1</v>
+      </c>
       <c r="P253" s="3"/>
       <c r="Q253" s="3"/>
       <c r="R253" s="3"/>
       <c r="S253" s="3"/>
       <c r="T253" s="3"/>
       <c r="U253" s="3"/>
-      <c r="V253" s="3"/>
-    </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="4"/>
-      <c r="D254" s="3"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-      <c r="G254" s="3"/>
+      <c r="V253" s="3">
+        <v>1</v>
+      </c>
+      <c r="W253" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C254" s="4">
+        <v>3</v>
+      </c>
+      <c r="D254" s="3">
+        <v>22</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
-      <c r="J254" s="3"/>
+      <c r="J254" s="3">
+        <v>1</v>
+      </c>
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
       <c r="M254" s="3"/>
@@ -10724,22 +12017,45 @@
       <c r="P254" s="3"/>
       <c r="Q254" s="3"/>
       <c r="R254" s="3"/>
-      <c r="S254" s="3"/>
-      <c r="T254" s="3"/>
+      <c r="S254" s="3">
+        <v>1</v>
+      </c>
+      <c r="T254" s="3">
+        <v>1</v>
+      </c>
       <c r="U254" s="3"/>
       <c r="V254" s="3"/>
-    </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="3"/>
-      <c r="E255" s="3"/>
-      <c r="F255" s="3"/>
-      <c r="G255" s="3"/>
+      <c r="W254" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C255" s="4">
+        <v>3</v>
+      </c>
+      <c r="D255" s="3">
+        <v>22</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
-      <c r="J255" s="3"/>
+      <c r="J255" s="3">
+        <v>1</v>
+      </c>
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
       <c r="M255" s="3"/>
@@ -10752,18 +12068,37 @@
       <c r="T255" s="3"/>
       <c r="U255" s="3"/>
       <c r="V255" s="3"/>
-    </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
-      <c r="F256" s="3"/>
-      <c r="G256" s="3"/>
+      <c r="W255" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C256" s="4">
+        <v>3</v>
+      </c>
+      <c r="D256" s="3">
+        <v>22</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
-      <c r="J256" s="3"/>
+      <c r="J256" s="3">
+        <v>1</v>
+      </c>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
       <c r="M256" s="3"/>
@@ -10776,18 +12111,37 @@
       <c r="T256" s="3"/>
       <c r="U256" s="3"/>
       <c r="V256" s="3"/>
-    </row>
-    <row r="257" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
-      <c r="F257" s="3"/>
-      <c r="G257" s="3"/>
+      <c r="W256" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C257" s="4">
+        <v>3</v>
+      </c>
+      <c r="D257" s="3">
+        <v>22</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
-      <c r="J257" s="3"/>
+      <c r="J257" s="3">
+        <v>1</v>
+      </c>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
       <c r="M257" s="3"/>
@@ -10800,18 +12154,37 @@
       <c r="T257" s="3"/>
       <c r="U257" s="3"/>
       <c r="V257" s="3"/>
-    </row>
-    <row r="258" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
-      <c r="C258" s="4"/>
-      <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
-      <c r="F258" s="3"/>
-      <c r="G258" s="3"/>
+      <c r="W257" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C258" s="4">
+        <v>3</v>
+      </c>
+      <c r="D258" s="3">
+        <v>22</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
-      <c r="J258" s="3"/>
+      <c r="J258" s="3">
+        <v>1</v>
+      </c>
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
       <c r="M258" s="3"/>
@@ -10823,19 +12196,40 @@
       <c r="S258" s="3"/>
       <c r="T258" s="3"/>
       <c r="U258" s="3"/>
-      <c r="V258" s="3"/>
-    </row>
-    <row r="259" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
-      <c r="C259" s="4"/>
-      <c r="D259" s="3"/>
-      <c r="E259" s="3"/>
-      <c r="F259" s="3"/>
-      <c r="G259" s="3"/>
+      <c r="V258" s="3">
+        <v>1</v>
+      </c>
+      <c r="W258" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A259" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C259" s="4">
+        <v>3</v>
+      </c>
+      <c r="D259" s="3">
+        <v>22</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
-      <c r="J259" s="3"/>
+      <c r="J259" s="3">
+        <v>1</v>
+      </c>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
       <c r="M259" s="3"/>
@@ -10848,45 +12242,89 @@
       <c r="T259" s="3"/>
       <c r="U259" s="3"/>
       <c r="V259" s="3"/>
-    </row>
-    <row r="260" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
-      <c r="C260" s="4"/>
-      <c r="D260" s="3"/>
-      <c r="E260" s="3"/>
-      <c r="F260" s="3"/>
-      <c r="G260" s="3"/>
-      <c r="H260" s="3"/>
+      <c r="W259" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C260" s="4">
+        <v>3</v>
+      </c>
+      <c r="D260" s="3">
+        <v>22</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H260" s="3">
+        <v>1</v>
+      </c>
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
-      <c r="M260" s="3"/>
+      <c r="M260" s="3">
+        <v>1</v>
+      </c>
       <c r="N260" s="3"/>
       <c r="O260" s="3"/>
       <c r="P260" s="3"/>
       <c r="Q260" s="3"/>
       <c r="R260" s="3"/>
       <c r="S260" s="3"/>
-      <c r="T260" s="3"/>
+      <c r="T260" s="3">
+        <v>1</v>
+      </c>
       <c r="U260" s="3"/>
       <c r="V260" s="3"/>
-    </row>
-    <row r="261" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
-      <c r="C261" s="4"/>
-      <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
-      <c r="F261" s="3"/>
-      <c r="G261" s="3"/>
-      <c r="H261" s="3"/>
+      <c r="W260" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A261" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C261" s="4">
+        <v>3</v>
+      </c>
+      <c r="D261" s="3">
+        <v>22</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H261" s="3">
+        <v>1</v>
+      </c>
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
-      <c r="M261" s="3"/>
+      <c r="M261" s="3">
+        <v>1</v>
+      </c>
       <c r="N261" s="3"/>
       <c r="O261" s="3"/>
       <c r="P261" s="3"/>
@@ -10896,21 +12334,42 @@
       <c r="T261" s="3"/>
       <c r="U261" s="3"/>
       <c r="V261" s="3"/>
-    </row>
-    <row r="262" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
-      <c r="C262" s="4"/>
-      <c r="D262" s="3"/>
-      <c r="E262" s="3"/>
-      <c r="F262" s="3"/>
-      <c r="G262" s="3"/>
-      <c r="H262" s="3"/>
+      <c r="W261" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C262" s="4">
+        <v>3</v>
+      </c>
+      <c r="D262" s="3">
+        <v>22</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H262" s="3">
+        <v>1</v>
+      </c>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
-      <c r="M262" s="3"/>
+      <c r="M262" s="3">
+        <v>1</v>
+      </c>
       <c r="N262" s="3"/>
       <c r="O262" s="3"/>
       <c r="P262" s="3"/>
@@ -10919,22 +12378,47 @@
       <c r="S262" s="3"/>
       <c r="T262" s="3"/>
       <c r="U262" s="3"/>
-      <c r="V262" s="3"/>
-    </row>
-    <row r="263" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
-      <c r="C263" s="4"/>
-      <c r="D263" s="3"/>
-      <c r="E263" s="3"/>
-      <c r="F263" s="3"/>
-      <c r="G263" s="3"/>
-      <c r="H263" s="3"/>
+      <c r="V262" s="3">
+        <v>1</v>
+      </c>
+      <c r="W262" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C263" s="4">
+        <v>3</v>
+      </c>
+      <c r="D263" s="3">
+        <v>22</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H263" s="3">
+        <v>1</v>
+      </c>
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
-      <c r="K263" s="3"/>
+      <c r="K263" s="3">
+        <v>1</v>
+      </c>
       <c r="L263" s="3"/>
-      <c r="M263" s="3"/>
+      <c r="M263" s="3">
+        <v>1</v>
+      </c>
       <c r="N263" s="3"/>
       <c r="O263" s="3"/>
       <c r="P263" s="3"/>
@@ -10944,21 +12428,42 @@
       <c r="T263" s="3"/>
       <c r="U263" s="3"/>
       <c r="V263" s="3"/>
-    </row>
-    <row r="264" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
-      <c r="C264" s="4"/>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
-      <c r="F264" s="3"/>
-      <c r="G264" s="3"/>
-      <c r="H264" s="3"/>
+      <c r="W263" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A264" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C264" s="4">
+        <v>3</v>
+      </c>
+      <c r="D264" s="3">
+        <v>22</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H264" s="3">
+        <v>1</v>
+      </c>
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
-      <c r="M264" s="3"/>
+      <c r="M264" s="3">
+        <v>1</v>
+      </c>
       <c r="N264" s="3"/>
       <c r="O264" s="3"/>
       <c r="P264" s="3"/>
@@ -10968,21 +12473,42 @@
       <c r="T264" s="3"/>
       <c r="U264" s="3"/>
       <c r="V264" s="3"/>
-    </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
-      <c r="C265" s="4"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
-      <c r="G265" s="3"/>
-      <c r="H265" s="3"/>
+      <c r="W264" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A265" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C265" s="4">
+        <v>3</v>
+      </c>
+      <c r="D265" s="3">
+        <v>22</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H265" s="3">
+        <v>1</v>
+      </c>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
-      <c r="M265" s="3"/>
+      <c r="M265" s="3">
+        <v>1</v>
+      </c>
       <c r="N265" s="3"/>
       <c r="O265" s="3"/>
       <c r="P265" s="3"/>
@@ -10992,8 +12518,11 @@
       <c r="T265" s="3"/>
       <c r="U265" s="3"/>
       <c r="V265" s="3"/>
-    </row>
-    <row r="266" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W265" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="4"/>
@@ -11017,7 +12546,7 @@
       <c r="U266" s="3"/>
       <c r="V266" s="3"/>
     </row>
-    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="4"/>
@@ -11041,7 +12570,7 @@
       <c r="U267" s="3"/>
       <c r="V267" s="3"/>
     </row>
-    <row r="268" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="4"/>
@@ -11065,7 +12594,7 @@
       <c r="U268" s="3"/>
       <c r="V268" s="3"/>
     </row>
-    <row r="269" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="4"/>
@@ -11089,7 +12618,7 @@
       <c r="U269" s="3"/>
       <c r="V269" s="3"/>
     </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="4"/>
@@ -11113,7 +12642,7 @@
       <c r="U270" s="3"/>
       <c r="V270" s="3"/>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="4"/>
@@ -11137,7 +12666,7 @@
       <c r="U271" s="3"/>
       <c r="V271" s="3"/>
     </row>
-    <row r="272" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="4"/>
@@ -16185,7 +17714,7 @@
       <formula1>0</formula1>
       <formula2>99999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E136:E145 E148:E152 E124:E132 E182 E188 E164:E176 E208:E212 E94 E118:E121 E625:E635 E22 E34 E46 E64 E637:E641 E200:E206 E158:E162 E214:E222 E224:E382 E384:E412 E414:E430 E432:E442 E444:E454 E456:E623 E190:E198">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E136:E145 E148:E152 E124:E132 E182 E188 E164:E176 E208:E212 E94 E118:E121 E625:E635 E22 E34 E46 E64 E637:E641 E200:E206 E158:E162 E214:E222 E190:E198 E384:E412 E414:E430 E432:E442 E444:E454 E456:E623 E224:E382">
       <formula1>PLAYERS</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E122:E123 E134:E135 E146:E147 E153:E157 E177:E181 E183:E187 E189 E207 E213 E2:E21 E78:E93 E35:E45 E47:E63 E30:E33 E23:E28 E65:E70 E72:E76 E108:E117 E95:E106">

--- a/data/copas_mr.xlsx
+++ b/data/copas_mr.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="79">
   <si>
     <t>GOL</t>
   </si>
@@ -235,6 +235,33 @@
   </si>
   <si>
     <t>Random</t>
+  </si>
+  <si>
+    <t>BRANCO</t>
+  </si>
+  <si>
+    <t>Barros</t>
+  </si>
+  <si>
+    <t>PRETO</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>VERMELHO</t>
+  </si>
+  <si>
+    <t>AMARELO</t>
+  </si>
+  <si>
+    <t>Léo Cardoso</t>
+  </si>
+  <si>
+    <t>Juba</t>
   </si>
 </sst>
 </file>
@@ -633,9 +660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W847"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J253" sqref="J253"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K427" sqref="K427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12523,17 +12550,35 @@
       </c>
     </row>
     <row r="266" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="4"/>
-      <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
-      <c r="F266" s="3"/>
-      <c r="G266" s="3"/>
-      <c r="H266" s="3"/>
+      <c r="A266" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C266" s="4">
+        <v>4</v>
+      </c>
+      <c r="D266" s="3">
+        <v>23</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H266" s="3">
+        <v>1</v>
+      </c>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="3"/>
+      <c r="K266" s="3">
+        <v>1</v>
+      </c>
       <c r="L266" s="3"/>
       <c r="M266" s="3"/>
       <c r="N266" s="3"/>
@@ -12541,24 +12586,47 @@
       <c r="P266" s="3"/>
       <c r="Q266" s="3"/>
       <c r="R266" s="3"/>
-      <c r="S266" s="3"/>
+      <c r="S266" s="3">
+        <v>1</v>
+      </c>
       <c r="T266" s="3"/>
       <c r="U266" s="3"/>
       <c r="V266" s="3"/>
+      <c r="W266" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="4"/>
-      <c r="D267" s="3"/>
-      <c r="E267" s="3"/>
-      <c r="F267" s="3"/>
-      <c r="G267" s="3"/>
-      <c r="H267" s="3"/>
+      <c r="A267" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C267" s="4">
+        <v>4</v>
+      </c>
+      <c r="D267" s="3">
+        <v>23</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H267" s="3">
+        <v>1</v>
+      </c>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
-      <c r="L267" s="3"/>
+      <c r="L267" s="3">
+        <v>1</v>
+      </c>
       <c r="M267" s="3"/>
       <c r="N267" s="3"/>
       <c r="O267" s="3"/>
@@ -12569,16 +12637,35 @@
       <c r="T267" s="3"/>
       <c r="U267" s="3"/>
       <c r="V267" s="3"/>
+      <c r="W267" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="4"/>
-      <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
-      <c r="F268" s="3"/>
-      <c r="G268" s="3"/>
-      <c r="H268" s="3"/>
+      <c r="A268" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C268" s="4">
+        <v>4</v>
+      </c>
+      <c r="D268" s="3">
+        <v>23</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H268" s="3">
+        <v>1</v>
+      </c>
       <c r="I268" s="3"/>
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
@@ -12593,20 +12680,41 @@
       <c r="T268" s="3"/>
       <c r="U268" s="3"/>
       <c r="V268" s="3"/>
+      <c r="W268" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="269" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
-      <c r="C269" s="4"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3"/>
-      <c r="H269" s="3"/>
+      <c r="A269" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C269" s="4">
+        <v>4</v>
+      </c>
+      <c r="D269" s="3">
+        <v>23</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H269" s="3">
+        <v>1</v>
+      </c>
       <c r="I269" s="3"/>
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
-      <c r="L269" s="3"/>
+      <c r="L269" s="3">
+        <v>1</v>
+      </c>
       <c r="M269" s="3"/>
       <c r="N269" s="3"/>
       <c r="O269" s="3"/>
@@ -12617,19 +12725,40 @@
       <c r="T269" s="3"/>
       <c r="U269" s="3"/>
       <c r="V269" s="3"/>
+      <c r="W269" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="270" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="4"/>
-      <c r="D270" s="3"/>
-      <c r="E270" s="3"/>
-      <c r="F270" s="3"/>
-      <c r="G270" s="3"/>
-      <c r="H270" s="3"/>
+      <c r="A270" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C270" s="4">
+        <v>4</v>
+      </c>
+      <c r="D270" s="3">
+        <v>23</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H270" s="3">
+        <v>1</v>
+      </c>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="3"/>
+      <c r="K270" s="3">
+        <v>1</v>
+      </c>
       <c r="L270" s="3"/>
       <c r="M270" s="3"/>
       <c r="N270" s="3"/>
@@ -12641,16 +12770,35 @@
       <c r="T270" s="3"/>
       <c r="U270" s="3"/>
       <c r="V270" s="3"/>
+      <c r="W270" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="271" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="4"/>
-      <c r="D271" s="3"/>
-      <c r="E271" s="3"/>
-      <c r="F271" s="3"/>
-      <c r="G271" s="3"/>
-      <c r="H271" s="3"/>
+      <c r="A271" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C271" s="4">
+        <v>4</v>
+      </c>
+      <c r="D271" s="3">
+        <v>23</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H271" s="3">
+        <v>1</v>
+      </c>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
@@ -12665,18 +12813,37 @@
       <c r="T271" s="3"/>
       <c r="U271" s="3"/>
       <c r="V271" s="3"/>
+      <c r="W271" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="272" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="4"/>
-      <c r="D272" s="3"/>
-      <c r="E272" s="3"/>
-      <c r="F272" s="3"/>
-      <c r="G272" s="3"/>
+      <c r="A272" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C272" s="4">
+        <v>4</v>
+      </c>
+      <c r="D272" s="3">
+        <v>23</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
-      <c r="J272" s="3"/>
+      <c r="J272" s="3">
+        <v>1</v>
+      </c>
       <c r="K272" s="3"/>
       <c r="L272" s="3"/>
       <c r="M272" s="3"/>
@@ -12685,22 +12852,43 @@
       <c r="P272" s="3"/>
       <c r="Q272" s="3"/>
       <c r="R272" s="3"/>
-      <c r="S272" s="3"/>
+      <c r="S272" s="3">
+        <v>2</v>
+      </c>
       <c r="T272" s="3"/>
       <c r="U272" s="3"/>
       <c r="V272" s="3"/>
-    </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
-      <c r="C273" s="4"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="3"/>
-      <c r="G273" s="3"/>
+      <c r="W272" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A273" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C273" s="4">
+        <v>4</v>
+      </c>
+      <c r="D273" s="3">
+        <v>23</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
-      <c r="J273" s="3"/>
+      <c r="J273" s="3">
+        <v>1</v>
+      </c>
       <c r="K273" s="3"/>
       <c r="L273" s="3"/>
       <c r="M273" s="3"/>
@@ -12713,18 +12901,37 @@
       <c r="T273" s="3"/>
       <c r="U273" s="3"/>
       <c r="V273" s="3"/>
-    </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="4"/>
-      <c r="D274" s="3"/>
-      <c r="E274" s="3"/>
-      <c r="F274" s="3"/>
-      <c r="G274" s="3"/>
+      <c r="W273" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A274" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C274" s="4">
+        <v>4</v>
+      </c>
+      <c r="D274" s="3">
+        <v>23</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
-      <c r="J274" s="3"/>
+      <c r="J274" s="3">
+        <v>1</v>
+      </c>
       <c r="K274" s="3"/>
       <c r="L274" s="3"/>
       <c r="M274" s="3"/>
@@ -12737,20 +12944,41 @@
       <c r="T274" s="3"/>
       <c r="U274" s="3"/>
       <c r="V274" s="3"/>
-    </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
-      <c r="C275" s="4"/>
-      <c r="D275" s="3"/>
-      <c r="E275" s="3"/>
-      <c r="F275" s="3"/>
-      <c r="G275" s="3"/>
+      <c r="W274" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A275" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C275" s="4">
+        <v>4</v>
+      </c>
+      <c r="D275" s="3">
+        <v>23</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
-      <c r="J275" s="3"/>
+      <c r="J275" s="3">
+        <v>1</v>
+      </c>
       <c r="K275" s="3"/>
-      <c r="L275" s="3"/>
+      <c r="L275" s="3">
+        <v>1</v>
+      </c>
       <c r="M275" s="3"/>
       <c r="N275" s="3"/>
       <c r="O275" s="3"/>
@@ -12761,18 +12989,37 @@
       <c r="T275" s="3"/>
       <c r="U275" s="3"/>
       <c r="V275" s="3"/>
-    </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
-      <c r="C276" s="4"/>
-      <c r="D276" s="3"/>
-      <c r="E276" s="3"/>
-      <c r="F276" s="3"/>
-      <c r="G276" s="3"/>
+      <c r="W275" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A276" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C276" s="4">
+        <v>4</v>
+      </c>
+      <c r="D276" s="3">
+        <v>23</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
-      <c r="J276" s="3"/>
+      <c r="J276" s="3">
+        <v>1</v>
+      </c>
       <c r="K276" s="3"/>
       <c r="L276" s="3"/>
       <c r="M276" s="3"/>
@@ -12785,19 +13032,40 @@
       <c r="T276" s="3"/>
       <c r="U276" s="3"/>
       <c r="V276" s="3"/>
-    </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
-      <c r="C277" s="4"/>
-      <c r="D277" s="3"/>
-      <c r="E277" s="3"/>
-      <c r="F277" s="3"/>
-      <c r="G277" s="3"/>
+      <c r="W276" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A277" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C277" s="4">
+        <v>4</v>
+      </c>
+      <c r="D277" s="3">
+        <v>23</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
-      <c r="J277" s="3"/>
-      <c r="K277" s="3"/>
+      <c r="J277" s="3">
+        <v>1</v>
+      </c>
+      <c r="K277" s="3">
+        <v>1</v>
+      </c>
       <c r="L277" s="3"/>
       <c r="M277" s="3"/>
       <c r="N277" s="3"/>
@@ -12809,21 +13077,42 @@
       <c r="T277" s="3"/>
       <c r="U277" s="3"/>
       <c r="V277" s="3"/>
-    </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
-      <c r="C278" s="4"/>
-      <c r="D278" s="3"/>
-      <c r="E278" s="3"/>
-      <c r="F278" s="3"/>
-      <c r="G278" s="3"/>
-      <c r="H278" s="3"/>
+      <c r="W277" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A278" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C278" s="4">
+        <v>4</v>
+      </c>
+      <c r="D278" s="3">
+        <v>24</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H278" s="3">
+        <v>1</v>
+      </c>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
       <c r="K278" s="3"/>
       <c r="L278" s="3"/>
-      <c r="M278" s="3"/>
+      <c r="M278" s="3">
+        <v>1</v>
+      </c>
       <c r="N278" s="3"/>
       <c r="O278" s="3"/>
       <c r="P278" s="3"/>
@@ -12833,21 +13122,44 @@
       <c r="T278" s="3"/>
       <c r="U278" s="3"/>
       <c r="V278" s="3"/>
-    </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="4"/>
-      <c r="D279" s="3"/>
-      <c r="E279" s="3"/>
-      <c r="F279" s="3"/>
-      <c r="G279" s="3"/>
-      <c r="H279" s="3"/>
+      <c r="W278" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A279" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C279" s="4">
+        <v>4</v>
+      </c>
+      <c r="D279" s="3">
+        <v>24</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H279" s="3">
+        <v>1</v>
+      </c>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
       <c r="K279" s="3"/>
-      <c r="L279" s="3"/>
-      <c r="M279" s="3"/>
+      <c r="L279" s="3">
+        <v>1</v>
+      </c>
+      <c r="M279" s="3">
+        <v>1</v>
+      </c>
       <c r="N279" s="3"/>
       <c r="O279" s="3"/>
       <c r="P279" s="3"/>
@@ -12856,22 +13168,45 @@
       <c r="S279" s="3"/>
       <c r="T279" s="3"/>
       <c r="U279" s="3"/>
-      <c r="V279" s="3"/>
-    </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
-      <c r="C280" s="4"/>
-      <c r="D280" s="3"/>
-      <c r="E280" s="3"/>
-      <c r="F280" s="3"/>
-      <c r="G280" s="3"/>
-      <c r="H280" s="3"/>
+      <c r="V279" s="3">
+        <v>1</v>
+      </c>
+      <c r="W279" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A280" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C280" s="4">
+        <v>4</v>
+      </c>
+      <c r="D280" s="3">
+        <v>24</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H280" s="3">
+        <v>1</v>
+      </c>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
       <c r="L280" s="3"/>
-      <c r="M280" s="3"/>
+      <c r="M280" s="3">
+        <v>1</v>
+      </c>
       <c r="N280" s="3"/>
       <c r="O280" s="3"/>
       <c r="P280" s="3"/>
@@ -12881,21 +13216,42 @@
       <c r="T280" s="3"/>
       <c r="U280" s="3"/>
       <c r="V280" s="3"/>
-    </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
-      <c r="C281" s="4"/>
-      <c r="D281" s="3"/>
-      <c r="E281" s="3"/>
-      <c r="F281" s="3"/>
-      <c r="G281" s="3"/>
-      <c r="H281" s="3"/>
+      <c r="W280" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A281" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C281" s="4">
+        <v>4</v>
+      </c>
+      <c r="D281" s="3">
+        <v>24</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H281" s="3">
+        <v>1</v>
+      </c>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
       <c r="K281" s="3"/>
       <c r="L281" s="3"/>
-      <c r="M281" s="3"/>
+      <c r="M281" s="3">
+        <v>1</v>
+      </c>
       <c r="N281" s="3"/>
       <c r="O281" s="3"/>
       <c r="P281" s="3"/>
@@ -12905,21 +13261,42 @@
       <c r="T281" s="3"/>
       <c r="U281" s="3"/>
       <c r="V281" s="3"/>
-    </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
-      <c r="C282" s="4"/>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
-      <c r="F282" s="3"/>
-      <c r="G282" s="3"/>
-      <c r="H282" s="3"/>
+      <c r="W281" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A282" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C282" s="4">
+        <v>4</v>
+      </c>
+      <c r="D282" s="3">
+        <v>24</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H282" s="3">
+        <v>1</v>
+      </c>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
       <c r="K282" s="3"/>
       <c r="L282" s="3"/>
-      <c r="M282" s="3"/>
+      <c r="M282" s="3">
+        <v>1</v>
+      </c>
       <c r="N282" s="3"/>
       <c r="O282" s="3"/>
       <c r="P282" s="3"/>
@@ -12929,21 +13306,44 @@
       <c r="T282" s="3"/>
       <c r="U282" s="3"/>
       <c r="V282" s="3"/>
-    </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
-      <c r="C283" s="4"/>
-      <c r="D283" s="3"/>
-      <c r="E283" s="3"/>
-      <c r="F283" s="3"/>
-      <c r="G283" s="3"/>
-      <c r="H283" s="3"/>
+      <c r="W282" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A283" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C283" s="4">
+        <v>4</v>
+      </c>
+      <c r="D283" s="3">
+        <v>24</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H283" s="3">
+        <v>1</v>
+      </c>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="3"/>
+      <c r="K283" s="3">
+        <v>1</v>
+      </c>
       <c r="L283" s="3"/>
-      <c r="M283" s="3"/>
+      <c r="M283" s="3">
+        <v>1</v>
+      </c>
       <c r="N283" s="3"/>
       <c r="O283" s="3"/>
       <c r="P283" s="3"/>
@@ -12953,18 +13353,37 @@
       <c r="T283" s="3"/>
       <c r="U283" s="3"/>
       <c r="V283" s="3"/>
-    </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
-      <c r="C284" s="4"/>
-      <c r="D284" s="3"/>
-      <c r="E284" s="3"/>
-      <c r="F284" s="3"/>
-      <c r="G284" s="3"/>
+      <c r="W283" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A284" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C284" s="4">
+        <v>4</v>
+      </c>
+      <c r="D284" s="3">
+        <v>24</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
-      <c r="J284" s="3"/>
+      <c r="J284" s="3">
+        <v>1</v>
+      </c>
       <c r="K284" s="3"/>
       <c r="L284" s="3"/>
       <c r="M284" s="3"/>
@@ -12973,22 +13392,43 @@
       <c r="P284" s="3"/>
       <c r="Q284" s="3"/>
       <c r="R284" s="3"/>
-      <c r="S284" s="3"/>
+      <c r="S284" s="3">
+        <v>1</v>
+      </c>
       <c r="T284" s="3"/>
       <c r="U284" s="3"/>
       <c r="V284" s="3"/>
-    </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="4"/>
-      <c r="D285" s="3"/>
-      <c r="E285" s="3"/>
-      <c r="F285" s="3"/>
-      <c r="G285" s="3"/>
+      <c r="W284" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A285" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C285" s="4">
+        <v>4</v>
+      </c>
+      <c r="D285" s="3">
+        <v>24</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
-      <c r="J285" s="3"/>
+      <c r="J285" s="3">
+        <v>1</v>
+      </c>
       <c r="K285" s="3"/>
       <c r="L285" s="3"/>
       <c r="M285" s="3"/>
@@ -13001,18 +13441,37 @@
       <c r="T285" s="3"/>
       <c r="U285" s="3"/>
       <c r="V285" s="3"/>
-    </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
-      <c r="C286" s="4"/>
-      <c r="D286" s="3"/>
-      <c r="E286" s="3"/>
-      <c r="F286" s="3"/>
-      <c r="G286" s="3"/>
+      <c r="W285" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A286" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C286" s="4">
+        <v>4</v>
+      </c>
+      <c r="D286" s="3">
+        <v>24</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
-      <c r="J286" s="3"/>
+      <c r="J286" s="3">
+        <v>1</v>
+      </c>
       <c r="K286" s="3"/>
       <c r="L286" s="3"/>
       <c r="M286" s="3"/>
@@ -13025,18 +13484,37 @@
       <c r="T286" s="3"/>
       <c r="U286" s="3"/>
       <c r="V286" s="3"/>
-    </row>
-    <row r="287" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
-      <c r="C287" s="4"/>
-      <c r="D287" s="3"/>
-      <c r="E287" s="3"/>
-      <c r="F287" s="3"/>
-      <c r="G287" s="3"/>
+      <c r="W286" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A287" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C287" s="4">
+        <v>4</v>
+      </c>
+      <c r="D287" s="3">
+        <v>24</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
-      <c r="J287" s="3"/>
+      <c r="J287" s="3">
+        <v>1</v>
+      </c>
       <c r="K287" s="3"/>
       <c r="L287" s="3"/>
       <c r="M287" s="3"/>
@@ -13049,18 +13527,37 @@
       <c r="T287" s="3"/>
       <c r="U287" s="3"/>
       <c r="V287" s="3"/>
-    </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
-      <c r="C288" s="4"/>
-      <c r="D288" s="3"/>
-      <c r="E288" s="3"/>
-      <c r="F288" s="3"/>
-      <c r="G288" s="3"/>
+      <c r="W287" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A288" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C288" s="4">
+        <v>4</v>
+      </c>
+      <c r="D288" s="3">
+        <v>24</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
-      <c r="J288" s="3"/>
+      <c r="J288" s="3">
+        <v>1</v>
+      </c>
       <c r="K288" s="3"/>
       <c r="L288" s="3"/>
       <c r="M288" s="3"/>
@@ -13073,18 +13570,37 @@
       <c r="T288" s="3"/>
       <c r="U288" s="3"/>
       <c r="V288" s="3"/>
-    </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
-      <c r="C289" s="4"/>
-      <c r="D289" s="3"/>
-      <c r="E289" s="3"/>
-      <c r="F289" s="3"/>
-      <c r="G289" s="3"/>
+      <c r="W288" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A289" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C289" s="4">
+        <v>4</v>
+      </c>
+      <c r="D289" s="3">
+        <v>24</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
-      <c r="J289" s="3"/>
+      <c r="J289" s="3">
+        <v>1</v>
+      </c>
       <c r="K289" s="3"/>
       <c r="L289" s="3"/>
       <c r="M289" s="3"/>
@@ -13097,18 +13613,37 @@
       <c r="T289" s="3"/>
       <c r="U289" s="3"/>
       <c r="V289" s="3"/>
-    </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="4"/>
-      <c r="D290" s="3"/>
-      <c r="E290" s="3"/>
-      <c r="F290" s="3"/>
-      <c r="G290" s="3"/>
+      <c r="W289" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A290" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C290" s="4">
+        <v>4</v>
+      </c>
+      <c r="D290" s="3">
+        <v>25</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
-      <c r="J290" s="3"/>
+      <c r="J290" s="3">
+        <v>1</v>
+      </c>
       <c r="K290" s="3"/>
       <c r="L290" s="3"/>
       <c r="M290" s="3"/>
@@ -13117,22 +13652,45 @@
       <c r="P290" s="3"/>
       <c r="Q290" s="3"/>
       <c r="R290" s="3"/>
-      <c r="S290" s="3"/>
-      <c r="T290" s="3"/>
+      <c r="S290" s="3">
+        <v>1</v>
+      </c>
+      <c r="T290" s="3">
+        <v>1</v>
+      </c>
       <c r="U290" s="3"/>
       <c r="V290" s="3"/>
-    </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="4"/>
-      <c r="D291" s="3"/>
-      <c r="E291" s="3"/>
-      <c r="F291" s="3"/>
-      <c r="G291" s="3"/>
+      <c r="W290" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A291" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C291" s="4">
+        <v>4</v>
+      </c>
+      <c r="D291" s="3">
+        <v>25</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
-      <c r="J291" s="3"/>
+      <c r="J291" s="3">
+        <v>1</v>
+      </c>
       <c r="K291" s="3"/>
       <c r="L291" s="3"/>
       <c r="M291" s="3"/>
@@ -13145,18 +13703,37 @@
       <c r="T291" s="3"/>
       <c r="U291" s="3"/>
       <c r="V291" s="3"/>
-    </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
-      <c r="C292" s="4"/>
-      <c r="D292" s="3"/>
-      <c r="E292" s="3"/>
-      <c r="F292" s="3"/>
-      <c r="G292" s="3"/>
+      <c r="W291" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A292" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C292" s="4">
+        <v>4</v>
+      </c>
+      <c r="D292" s="3">
+        <v>25</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
-      <c r="J292" s="3"/>
+      <c r="J292" s="3">
+        <v>1</v>
+      </c>
       <c r="K292" s="3"/>
       <c r="L292" s="3"/>
       <c r="M292" s="3"/>
@@ -13169,18 +13746,37 @@
       <c r="T292" s="3"/>
       <c r="U292" s="3"/>
       <c r="V292" s="3"/>
-    </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A293" s="2"/>
-      <c r="B293" s="2"/>
-      <c r="C293" s="4"/>
-      <c r="D293" s="3"/>
-      <c r="E293" s="3"/>
-      <c r="F293" s="3"/>
-      <c r="G293" s="3"/>
+      <c r="W292" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A293" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C293" s="4">
+        <v>4</v>
+      </c>
+      <c r="D293" s="3">
+        <v>25</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
-      <c r="J293" s="3"/>
+      <c r="J293" s="3">
+        <v>1</v>
+      </c>
       <c r="K293" s="3"/>
       <c r="L293" s="3"/>
       <c r="M293" s="3"/>
@@ -13193,18 +13789,37 @@
       <c r="T293" s="3"/>
       <c r="U293" s="3"/>
       <c r="V293" s="3"/>
-    </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A294" s="2"/>
-      <c r="B294" s="2"/>
-      <c r="C294" s="4"/>
-      <c r="D294" s="3"/>
-      <c r="E294" s="3"/>
-      <c r="F294" s="3"/>
-      <c r="G294" s="3"/>
+      <c r="W293" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C294" s="4">
+        <v>4</v>
+      </c>
+      <c r="D294" s="3">
+        <v>25</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
-      <c r="J294" s="3"/>
+      <c r="J294" s="3">
+        <v>1</v>
+      </c>
       <c r="K294" s="3"/>
       <c r="L294" s="3"/>
       <c r="M294" s="3"/>
@@ -13216,19 +13831,40 @@
       <c r="S294" s="3"/>
       <c r="T294" s="3"/>
       <c r="U294" s="3"/>
-      <c r="V294" s="3"/>
-    </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
-      <c r="C295" s="4"/>
-      <c r="D295" s="3"/>
-      <c r="E295" s="3"/>
-      <c r="F295" s="3"/>
-      <c r="G295" s="3"/>
+      <c r="V294" s="3">
+        <v>1</v>
+      </c>
+      <c r="W294" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A295" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C295" s="4">
+        <v>4</v>
+      </c>
+      <c r="D295" s="3">
+        <v>25</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
-      <c r="J295" s="3"/>
+      <c r="J295" s="3">
+        <v>1</v>
+      </c>
       <c r="K295" s="3"/>
       <c r="L295" s="3"/>
       <c r="M295" s="3"/>
@@ -13241,21 +13877,42 @@
       <c r="T295" s="3"/>
       <c r="U295" s="3"/>
       <c r="V295" s="3"/>
-    </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
-      <c r="C296" s="4"/>
-      <c r="D296" s="3"/>
-      <c r="E296" s="3"/>
-      <c r="F296" s="3"/>
-      <c r="G296" s="3"/>
-      <c r="H296" s="3"/>
+      <c r="W295" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A296" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C296" s="4">
+        <v>4</v>
+      </c>
+      <c r="D296" s="3">
+        <v>25</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H296" s="3">
+        <v>1</v>
+      </c>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
       <c r="L296" s="3"/>
-      <c r="M296" s="3"/>
+      <c r="M296" s="3">
+        <v>1</v>
+      </c>
       <c r="N296" s="3"/>
       <c r="O296" s="3"/>
       <c r="P296" s="3"/>
@@ -13265,21 +13922,42 @@
       <c r="T296" s="3"/>
       <c r="U296" s="3"/>
       <c r="V296" s="3"/>
-    </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A297" s="2"/>
-      <c r="B297" s="2"/>
-      <c r="C297" s="4"/>
-      <c r="D297" s="3"/>
-      <c r="E297" s="3"/>
-      <c r="F297" s="3"/>
-      <c r="G297" s="3"/>
-      <c r="H297" s="3"/>
+      <c r="W296" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A297" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C297" s="4">
+        <v>4</v>
+      </c>
+      <c r="D297" s="3">
+        <v>25</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H297" s="3">
+        <v>1</v>
+      </c>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
       <c r="K297" s="3"/>
       <c r="L297" s="3"/>
-      <c r="M297" s="3"/>
+      <c r="M297" s="3">
+        <v>1</v>
+      </c>
       <c r="N297" s="3"/>
       <c r="O297" s="3"/>
       <c r="P297" s="3"/>
@@ -13289,23 +13967,46 @@
       <c r="T297" s="3"/>
       <c r="U297" s="3"/>
       <c r="V297" s="3"/>
-    </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A298" s="2"/>
-      <c r="B298" s="2"/>
-      <c r="C298" s="4"/>
-      <c r="D298" s="3"/>
-      <c r="E298" s="3"/>
-      <c r="F298" s="3"/>
-      <c r="G298" s="3"/>
-      <c r="H298" s="3"/>
+      <c r="W297" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A298" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C298" s="4">
+        <v>4</v>
+      </c>
+      <c r="D298" s="3">
+        <v>25</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H298" s="3">
+        <v>1</v>
+      </c>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
       <c r="K298" s="3"/>
       <c r="L298" s="3"/>
-      <c r="M298" s="3"/>
+      <c r="M298" s="3">
+        <v>1</v>
+      </c>
       <c r="N298" s="3"/>
-      <c r="O298" s="3"/>
+      <c r="O298" s="3">
+        <v>1</v>
+      </c>
       <c r="P298" s="3"/>
       <c r="Q298" s="3"/>
       <c r="R298" s="3"/>
@@ -13313,21 +14014,44 @@
       <c r="T298" s="3"/>
       <c r="U298" s="3"/>
       <c r="V298" s="3"/>
-    </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A299" s="2"/>
-      <c r="B299" s="2"/>
-      <c r="C299" s="4"/>
-      <c r="D299" s="3"/>
-      <c r="E299" s="3"/>
-      <c r="F299" s="3"/>
-      <c r="G299" s="3"/>
-      <c r="H299" s="3"/>
+      <c r="W298" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A299" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C299" s="4">
+        <v>4</v>
+      </c>
+      <c r="D299" s="3">
+        <v>25</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H299" s="3">
+        <v>1</v>
+      </c>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
-      <c r="K299" s="3"/>
+      <c r="K299" s="3">
+        <v>1</v>
+      </c>
       <c r="L299" s="3"/>
-      <c r="M299" s="3"/>
+      <c r="M299" s="3">
+        <v>1</v>
+      </c>
       <c r="N299" s="3"/>
       <c r="O299" s="3"/>
       <c r="P299" s="3"/>
@@ -13337,21 +14061,42 @@
       <c r="T299" s="3"/>
       <c r="U299" s="3"/>
       <c r="V299" s="3"/>
-    </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A300" s="2"/>
-      <c r="B300" s="2"/>
-      <c r="C300" s="4"/>
-      <c r="D300" s="3"/>
-      <c r="E300" s="3"/>
-      <c r="F300" s="3"/>
-      <c r="G300" s="3"/>
-      <c r="H300" s="3"/>
+      <c r="W299" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A300" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C300" s="4">
+        <v>4</v>
+      </c>
+      <c r="D300" s="3">
+        <v>25</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H300" s="3">
+        <v>1</v>
+      </c>
       <c r="I300" s="3"/>
       <c r="J300" s="3"/>
       <c r="K300" s="3"/>
       <c r="L300" s="3"/>
-      <c r="M300" s="3"/>
+      <c r="M300" s="3">
+        <v>1</v>
+      </c>
       <c r="N300" s="3"/>
       <c r="O300" s="3"/>
       <c r="P300" s="3"/>
@@ -13360,22 +14105,45 @@
       <c r="S300" s="3"/>
       <c r="T300" s="3"/>
       <c r="U300" s="3"/>
-      <c r="V300" s="3"/>
-    </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A301" s="2"/>
-      <c r="B301" s="2"/>
-      <c r="C301" s="4"/>
-      <c r="D301" s="3"/>
-      <c r="E301" s="3"/>
-      <c r="F301" s="3"/>
-      <c r="G301" s="3"/>
-      <c r="H301" s="3"/>
+      <c r="V300" s="3">
+        <v>1</v>
+      </c>
+      <c r="W300" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A301" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C301" s="4">
+        <v>4</v>
+      </c>
+      <c r="D301" s="3">
+        <v>25</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H301" s="3">
+        <v>1</v>
+      </c>
       <c r="I301" s="3"/>
       <c r="J301" s="3"/>
       <c r="K301" s="3"/>
       <c r="L301" s="3"/>
-      <c r="M301" s="3"/>
+      <c r="M301" s="3">
+        <v>1</v>
+      </c>
       <c r="N301" s="3"/>
       <c r="O301" s="3"/>
       <c r="P301" s="3"/>
@@ -13385,17 +14153,36 @@
       <c r="T301" s="3"/>
       <c r="U301" s="3"/>
       <c r="V301" s="3"/>
-    </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A302" s="2"/>
-      <c r="B302" s="2"/>
-      <c r="C302" s="4"/>
-      <c r="D302" s="3"/>
-      <c r="E302" s="3"/>
-      <c r="F302" s="3"/>
-      <c r="G302" s="3"/>
+      <c r="W301" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A302" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C302" s="4">
+        <v>4</v>
+      </c>
+      <c r="D302" s="3">
+        <v>26</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H302" s="3"/>
-      <c r="I302" s="3"/>
+      <c r="I302" s="3">
+        <v>1</v>
+      </c>
       <c r="J302" s="3"/>
       <c r="K302" s="3"/>
       <c r="L302" s="3"/>
@@ -13405,21 +14192,42 @@
       <c r="P302" s="3"/>
       <c r="Q302" s="3"/>
       <c r="R302" s="3"/>
-      <c r="S302" s="3"/>
+      <c r="S302" s="3">
+        <v>1</v>
+      </c>
       <c r="T302" s="3"/>
       <c r="U302" s="3"/>
       <c r="V302" s="3"/>
-    </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A303" s="2"/>
-      <c r="B303" s="2"/>
-      <c r="C303" s="4"/>
-      <c r="D303" s="3"/>
-      <c r="E303" s="3"/>
-      <c r="F303" s="3"/>
-      <c r="G303" s="3"/>
+      <c r="W302" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A303" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C303" s="4">
+        <v>4</v>
+      </c>
+      <c r="D303" s="3">
+        <v>26</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H303" s="3"/>
-      <c r="I303" s="3"/>
+      <c r="I303" s="3">
+        <v>1</v>
+      </c>
       <c r="J303" s="3"/>
       <c r="K303" s="3"/>
       <c r="L303" s="3"/>
@@ -13433,17 +14241,36 @@
       <c r="T303" s="3"/>
       <c r="U303" s="3"/>
       <c r="V303" s="3"/>
-    </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A304" s="2"/>
-      <c r="B304" s="2"/>
-      <c r="C304" s="4"/>
-      <c r="D304" s="3"/>
-      <c r="E304" s="3"/>
-      <c r="F304" s="3"/>
-      <c r="G304" s="3"/>
+      <c r="W303" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A304" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C304" s="4">
+        <v>4</v>
+      </c>
+      <c r="D304" s="3">
+        <v>26</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H304" s="3"/>
-      <c r="I304" s="3"/>
+      <c r="I304" s="3">
+        <v>1</v>
+      </c>
       <c r="J304" s="3"/>
       <c r="K304" s="3"/>
       <c r="L304" s="3"/>
@@ -13457,17 +14284,36 @@
       <c r="T304" s="3"/>
       <c r="U304" s="3"/>
       <c r="V304" s="3"/>
-    </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A305" s="2"/>
-      <c r="B305" s="2"/>
-      <c r="C305" s="4"/>
-      <c r="D305" s="3"/>
-      <c r="E305" s="3"/>
-      <c r="F305" s="3"/>
-      <c r="G305" s="3"/>
+      <c r="W304" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A305" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C305" s="4">
+        <v>4</v>
+      </c>
+      <c r="D305" s="3">
+        <v>26</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H305" s="3"/>
-      <c r="I305" s="3"/>
+      <c r="I305" s="3">
+        <v>1</v>
+      </c>
       <c r="J305" s="3"/>
       <c r="K305" s="3"/>
       <c r="L305" s="3"/>
@@ -13481,17 +14327,36 @@
       <c r="T305" s="3"/>
       <c r="U305" s="3"/>
       <c r="V305" s="3"/>
-    </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A306" s="2"/>
-      <c r="B306" s="2"/>
-      <c r="C306" s="4"/>
-      <c r="D306" s="3"/>
-      <c r="E306" s="3"/>
-      <c r="F306" s="3"/>
-      <c r="G306" s="3"/>
+      <c r="W305" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A306" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C306" s="4">
+        <v>4</v>
+      </c>
+      <c r="D306" s="3">
+        <v>26</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H306" s="3"/>
-      <c r="I306" s="3"/>
+      <c r="I306" s="3">
+        <v>1</v>
+      </c>
       <c r="J306" s="3"/>
       <c r="K306" s="3"/>
       <c r="L306" s="3"/>
@@ -13505,19 +14370,40 @@
       <c r="T306" s="3"/>
       <c r="U306" s="3"/>
       <c r="V306" s="3"/>
-    </row>
-    <row r="307" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A307" s="2"/>
-      <c r="B307" s="2"/>
-      <c r="C307" s="4"/>
-      <c r="D307" s="3"/>
-      <c r="E307" s="3"/>
-      <c r="F307" s="3"/>
-      <c r="G307" s="3"/>
+      <c r="W306" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A307" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C307" s="4">
+        <v>4</v>
+      </c>
+      <c r="D307" s="3">
+        <v>26</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H307" s="3"/>
-      <c r="I307" s="3"/>
+      <c r="I307" s="3">
+        <v>1</v>
+      </c>
       <c r="J307" s="3"/>
-      <c r="K307" s="3"/>
+      <c r="K307" s="3">
+        <v>1</v>
+      </c>
       <c r="L307" s="3"/>
       <c r="M307" s="3"/>
       <c r="N307" s="3"/>
@@ -13529,17 +14415,36 @@
       <c r="T307" s="3"/>
       <c r="U307" s="3"/>
       <c r="V307" s="3"/>
-    </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A308" s="2"/>
-      <c r="B308" s="2"/>
-      <c r="C308" s="4"/>
-      <c r="D308" s="3"/>
-      <c r="E308" s="3"/>
-      <c r="F308" s="3"/>
-      <c r="G308" s="3"/>
+      <c r="W307" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A308" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C308" s="4">
+        <v>4</v>
+      </c>
+      <c r="D308" s="3">
+        <v>26</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H308" s="3"/>
-      <c r="I308" s="3"/>
+      <c r="I308" s="3">
+        <v>1</v>
+      </c>
       <c r="J308" s="3"/>
       <c r="K308" s="3"/>
       <c r="L308" s="3"/>
@@ -13549,21 +14454,44 @@
       <c r="P308" s="3"/>
       <c r="Q308" s="3"/>
       <c r="R308" s="3"/>
-      <c r="S308" s="3"/>
-      <c r="T308" s="3"/>
+      <c r="S308" s="3">
+        <v>1</v>
+      </c>
+      <c r="T308" s="3">
+        <v>1</v>
+      </c>
       <c r="U308" s="3"/>
       <c r="V308" s="3"/>
-    </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A309" s="2"/>
-      <c r="B309" s="2"/>
-      <c r="C309" s="4"/>
-      <c r="D309" s="3"/>
-      <c r="E309" s="3"/>
-      <c r="F309" s="3"/>
-      <c r="G309" s="3"/>
+      <c r="W308" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A309" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C309" s="4">
+        <v>4</v>
+      </c>
+      <c r="D309" s="3">
+        <v>26</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H309" s="3"/>
-      <c r="I309" s="3"/>
+      <c r="I309" s="3">
+        <v>1</v>
+      </c>
       <c r="J309" s="3"/>
       <c r="K309" s="3"/>
       <c r="L309" s="3"/>
@@ -13577,17 +14505,36 @@
       <c r="T309" s="3"/>
       <c r="U309" s="3"/>
       <c r="V309" s="3"/>
-    </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A310" s="2"/>
-      <c r="B310" s="2"/>
-      <c r="C310" s="4"/>
-      <c r="D310" s="3"/>
-      <c r="E310" s="3"/>
-      <c r="F310" s="3"/>
-      <c r="G310" s="3"/>
+      <c r="W309" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A310" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C310" s="4">
+        <v>4</v>
+      </c>
+      <c r="D310" s="3">
+        <v>26</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H310" s="3"/>
-      <c r="I310" s="3"/>
+      <c r="I310" s="3">
+        <v>1</v>
+      </c>
       <c r="J310" s="3"/>
       <c r="K310" s="3"/>
       <c r="L310" s="3"/>
@@ -13601,17 +14548,36 @@
       <c r="T310" s="3"/>
       <c r="U310" s="3"/>
       <c r="V310" s="3"/>
-    </row>
-    <row r="311" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A311" s="2"/>
-      <c r="B311" s="2"/>
-      <c r="C311" s="4"/>
-      <c r="D311" s="3"/>
-      <c r="E311" s="3"/>
-      <c r="F311" s="3"/>
-      <c r="G311" s="3"/>
+      <c r="W310" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A311" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C311" s="4">
+        <v>4</v>
+      </c>
+      <c r="D311" s="3">
+        <v>26</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H311" s="3"/>
-      <c r="I311" s="3"/>
+      <c r="I311" s="3">
+        <v>1</v>
+      </c>
       <c r="J311" s="3"/>
       <c r="K311" s="3"/>
       <c r="L311" s="3"/>
@@ -13625,17 +14591,36 @@
       <c r="T311" s="3"/>
       <c r="U311" s="3"/>
       <c r="V311" s="3"/>
-    </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A312" s="2"/>
-      <c r="B312" s="2"/>
-      <c r="C312" s="4"/>
-      <c r="D312" s="3"/>
-      <c r="E312" s="3"/>
-      <c r="F312" s="3"/>
-      <c r="G312" s="3"/>
+      <c r="W311" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C312" s="4">
+        <v>4</v>
+      </c>
+      <c r="D312" s="3">
+        <v>26</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H312" s="3"/>
-      <c r="I312" s="3"/>
+      <c r="I312" s="3">
+        <v>1</v>
+      </c>
       <c r="J312" s="3"/>
       <c r="K312" s="3"/>
       <c r="L312" s="3"/>
@@ -13649,19 +14634,40 @@
       <c r="T312" s="3"/>
       <c r="U312" s="3"/>
       <c r="V312" s="3"/>
-    </row>
-    <row r="313" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A313" s="2"/>
-      <c r="B313" s="2"/>
-      <c r="C313" s="4"/>
-      <c r="D313" s="3"/>
-      <c r="E313" s="3"/>
-      <c r="F313" s="3"/>
-      <c r="G313" s="3"/>
+      <c r="W312" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C313" s="4">
+        <v>4</v>
+      </c>
+      <c r="D313" s="3">
+        <v>26</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H313" s="3"/>
-      <c r="I313" s="3"/>
+      <c r="I313" s="3">
+        <v>1</v>
+      </c>
       <c r="J313" s="3"/>
-      <c r="K313" s="3"/>
+      <c r="K313" s="3">
+        <v>1</v>
+      </c>
       <c r="L313" s="3"/>
       <c r="M313" s="3"/>
       <c r="N313" s="3"/>
@@ -13673,16 +14679,35 @@
       <c r="T313" s="3"/>
       <c r="U313" s="3"/>
       <c r="V313" s="3"/>
-    </row>
-    <row r="314" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A314" s="2"/>
-      <c r="B314" s="2"/>
-      <c r="C314" s="4"/>
-      <c r="D314" s="3"/>
-      <c r="E314" s="3"/>
-      <c r="F314" s="3"/>
-      <c r="G314" s="3"/>
-      <c r="H314" s="3"/>
+      <c r="W313" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C314" s="4">
+        <v>4</v>
+      </c>
+      <c r="D314" s="3">
+        <v>27</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H314" s="3">
+        <v>1</v>
+      </c>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
       <c r="K314" s="3"/>
@@ -13693,23 +14718,48 @@
       <c r="P314" s="3"/>
       <c r="Q314" s="3"/>
       <c r="R314" s="3"/>
-      <c r="S314" s="3"/>
-      <c r="T314" s="3"/>
+      <c r="S314" s="3">
+        <v>1</v>
+      </c>
+      <c r="T314" s="3">
+        <v>2</v>
+      </c>
       <c r="U314" s="3"/>
       <c r="V314" s="3"/>
-    </row>
-    <row r="315" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A315" s="2"/>
-      <c r="B315" s="2"/>
-      <c r="C315" s="4"/>
-      <c r="D315" s="3"/>
-      <c r="E315" s="3"/>
-      <c r="F315" s="3"/>
-      <c r="G315" s="3"/>
-      <c r="H315" s="3"/>
+      <c r="W314" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C315" s="4">
+        <v>4</v>
+      </c>
+      <c r="D315" s="3">
+        <v>27</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H315" s="3">
+        <v>1</v>
+      </c>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
-      <c r="K315" s="3"/>
+      <c r="K315" s="3">
+        <v>1</v>
+      </c>
       <c r="L315" s="3"/>
       <c r="M315" s="3"/>
       <c r="N315" s="3"/>
@@ -13720,17 +14770,38 @@
       <c r="S315" s="3"/>
       <c r="T315" s="3"/>
       <c r="U315" s="3"/>
-      <c r="V315" s="3"/>
-    </row>
-    <row r="316" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A316" s="2"/>
-      <c r="B316" s="2"/>
-      <c r="C316" s="4"/>
-      <c r="D316" s="3"/>
-      <c r="E316" s="3"/>
-      <c r="F316" s="3"/>
-      <c r="G316" s="3"/>
-      <c r="H316" s="3"/>
+      <c r="V315" s="3">
+        <v>1</v>
+      </c>
+      <c r="W315" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C316" s="4">
+        <v>4</v>
+      </c>
+      <c r="D316" s="3">
+        <v>27</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H316" s="3">
+        <v>1</v>
+      </c>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
       <c r="K316" s="3"/>
@@ -13745,16 +14816,35 @@
       <c r="T316" s="3"/>
       <c r="U316" s="3"/>
       <c r="V316" s="3"/>
-    </row>
-    <row r="317" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A317" s="2"/>
-      <c r="B317" s="2"/>
-      <c r="C317" s="4"/>
-      <c r="D317" s="3"/>
-      <c r="E317" s="3"/>
-      <c r="F317" s="3"/>
-      <c r="G317" s="3"/>
-      <c r="H317" s="3"/>
+      <c r="W316" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C317" s="4">
+        <v>4</v>
+      </c>
+      <c r="D317" s="3">
+        <v>27</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H317" s="3">
+        <v>1</v>
+      </c>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
       <c r="K317" s="3"/>
@@ -13769,19 +14859,40 @@
       <c r="T317" s="3"/>
       <c r="U317" s="3"/>
       <c r="V317" s="3"/>
-    </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A318" s="2"/>
-      <c r="B318" s="2"/>
-      <c r="C318" s="4"/>
-      <c r="D318" s="3"/>
-      <c r="E318" s="3"/>
-      <c r="F318" s="3"/>
-      <c r="G318" s="3"/>
-      <c r="H318" s="3"/>
+      <c r="W317" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C318" s="4">
+        <v>4</v>
+      </c>
+      <c r="D318" s="3">
+        <v>27</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H318" s="3">
+        <v>1</v>
+      </c>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="3"/>
+      <c r="K318" s="3">
+        <v>2</v>
+      </c>
       <c r="L318" s="3"/>
       <c r="M318" s="3"/>
       <c r="N318" s="3"/>
@@ -13793,16 +14904,35 @@
       <c r="T318" s="3"/>
       <c r="U318" s="3"/>
       <c r="V318" s="3"/>
-    </row>
-    <row r="319" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A319" s="2"/>
-      <c r="B319" s="2"/>
-      <c r="C319" s="4"/>
-      <c r="D319" s="3"/>
-      <c r="E319" s="3"/>
-      <c r="F319" s="3"/>
-      <c r="G319" s="3"/>
-      <c r="H319" s="3"/>
+      <c r="W318" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C319" s="4">
+        <v>4</v>
+      </c>
+      <c r="D319" s="3">
+        <v>27</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H319" s="3">
+        <v>1</v>
+      </c>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
       <c r="K319" s="3"/>
@@ -13817,18 +14947,37 @@
       <c r="T319" s="3"/>
       <c r="U319" s="3"/>
       <c r="V319" s="3"/>
-    </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A320" s="2"/>
-      <c r="B320" s="2"/>
-      <c r="C320" s="4"/>
-      <c r="D320" s="3"/>
-      <c r="E320" s="3"/>
-      <c r="F320" s="3"/>
-      <c r="G320" s="3"/>
+      <c r="W319" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C320" s="4">
+        <v>4</v>
+      </c>
+      <c r="D320" s="3">
+        <v>27</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G320" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
-      <c r="J320" s="3"/>
+      <c r="J320" s="3">
+        <v>1</v>
+      </c>
       <c r="K320" s="3"/>
       <c r="L320" s="3"/>
       <c r="M320" s="3"/>
@@ -13837,22 +14986,43 @@
       <c r="P320" s="3"/>
       <c r="Q320" s="3"/>
       <c r="R320" s="3"/>
-      <c r="S320" s="3"/>
+      <c r="S320" s="3">
+        <v>3</v>
+      </c>
       <c r="T320" s="3"/>
       <c r="U320" s="3"/>
       <c r="V320" s="3"/>
-    </row>
-    <row r="321" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A321" s="2"/>
-      <c r="B321" s="2"/>
-      <c r="C321" s="4"/>
-      <c r="D321" s="3"/>
-      <c r="E321" s="3"/>
-      <c r="F321" s="3"/>
-      <c r="G321" s="3"/>
+      <c r="W320" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C321" s="4">
+        <v>4</v>
+      </c>
+      <c r="D321" s="3">
+        <v>27</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
-      <c r="J321" s="3"/>
+      <c r="J321" s="3">
+        <v>1</v>
+      </c>
       <c r="K321" s="3"/>
       <c r="L321" s="3"/>
       <c r="M321" s="3"/>
@@ -13865,19 +15035,40 @@
       <c r="T321" s="3"/>
       <c r="U321" s="3"/>
       <c r="V321" s="3"/>
-    </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A322" s="2"/>
-      <c r="B322" s="2"/>
-      <c r="C322" s="4"/>
-      <c r="D322" s="3"/>
-      <c r="E322" s="3"/>
-      <c r="F322" s="3"/>
-      <c r="G322" s="3"/>
+      <c r="W321" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C322" s="4">
+        <v>4</v>
+      </c>
+      <c r="D322" s="3">
+        <v>27</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
-      <c r="J322" s="3"/>
-      <c r="K322" s="3"/>
+      <c r="J322" s="3">
+        <v>1</v>
+      </c>
+      <c r="K322" s="3">
+        <v>1</v>
+      </c>
       <c r="L322" s="3"/>
       <c r="M322" s="3"/>
       <c r="N322" s="3"/>
@@ -13889,18 +15080,37 @@
       <c r="T322" s="3"/>
       <c r="U322" s="3"/>
       <c r="V322" s="3"/>
-    </row>
-    <row r="323" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
-      <c r="C323" s="4"/>
-      <c r="D323" s="3"/>
-      <c r="E323" s="3"/>
-      <c r="F323" s="3"/>
-      <c r="G323" s="3"/>
+      <c r="W322" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C323" s="4">
+        <v>4</v>
+      </c>
+      <c r="D323" s="3">
+        <v>27</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
-      <c r="J323" s="3"/>
+      <c r="J323" s="3">
+        <v>1</v>
+      </c>
       <c r="K323" s="3"/>
       <c r="L323" s="3"/>
       <c r="M323" s="3"/>
@@ -13913,18 +15123,37 @@
       <c r="T323" s="3"/>
       <c r="U323" s="3"/>
       <c r="V323" s="3"/>
-    </row>
-    <row r="324" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A324" s="2"/>
-      <c r="B324" s="2"/>
-      <c r="C324" s="4"/>
-      <c r="D324" s="3"/>
-      <c r="E324" s="3"/>
-      <c r="F324" s="3"/>
-      <c r="G324" s="3"/>
+      <c r="W323" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C324" s="4">
+        <v>4</v>
+      </c>
+      <c r="D324" s="3">
+        <v>27</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
-      <c r="J324" s="3"/>
+      <c r="J324" s="3">
+        <v>1</v>
+      </c>
       <c r="K324" s="3"/>
       <c r="L324" s="3"/>
       <c r="M324" s="3"/>
@@ -13937,18 +15166,37 @@
       <c r="T324" s="3"/>
       <c r="U324" s="3"/>
       <c r="V324" s="3"/>
-    </row>
-    <row r="325" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A325" s="2"/>
-      <c r="B325" s="2"/>
-      <c r="C325" s="4"/>
-      <c r="D325" s="3"/>
-      <c r="E325" s="3"/>
-      <c r="F325" s="3"/>
-      <c r="G325" s="3"/>
+      <c r="W324" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C325" s="4">
+        <v>4</v>
+      </c>
+      <c r="D325" s="3">
+        <v>27</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
-      <c r="J325" s="3"/>
+      <c r="J325" s="3">
+        <v>1</v>
+      </c>
       <c r="K325" s="3"/>
       <c r="L325" s="3"/>
       <c r="M325" s="3"/>
@@ -13961,17 +15209,36 @@
       <c r="T325" s="3"/>
       <c r="U325" s="3"/>
       <c r="V325" s="3"/>
-    </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
-      <c r="C326" s="4"/>
-      <c r="D326" s="3"/>
-      <c r="E326" s="3"/>
-      <c r="F326" s="3"/>
-      <c r="G326" s="3"/>
+      <c r="W325" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C326" s="4">
+        <v>4</v>
+      </c>
+      <c r="D326" s="3">
+        <v>28</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="H326" s="3"/>
-      <c r="I326" s="3"/>
+      <c r="I326" s="3">
+        <v>1</v>
+      </c>
       <c r="J326" s="3"/>
       <c r="K326" s="3"/>
       <c r="L326" s="3"/>
@@ -13981,21 +15248,44 @@
       <c r="P326" s="3"/>
       <c r="Q326" s="3"/>
       <c r="R326" s="3"/>
-      <c r="S326" s="3"/>
-      <c r="T326" s="3"/>
+      <c r="S326" s="3">
+        <v>2</v>
+      </c>
+      <c r="T326" s="3">
+        <v>1</v>
+      </c>
       <c r="U326" s="3"/>
       <c r="V326" s="3"/>
-    </row>
-    <row r="327" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
-      <c r="C327" s="4"/>
-      <c r="D327" s="3"/>
-      <c r="E327" s="3"/>
-      <c r="F327" s="3"/>
-      <c r="G327" s="3"/>
+      <c r="W326" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C327" s="4">
+        <v>4</v>
+      </c>
+      <c r="D327" s="3">
+        <v>28</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="H327" s="3"/>
-      <c r="I327" s="3"/>
+      <c r="I327" s="3">
+        <v>1</v>
+      </c>
       <c r="J327" s="3"/>
       <c r="K327" s="3"/>
       <c r="L327" s="3"/>
@@ -14009,17 +15299,36 @@
       <c r="T327" s="3"/>
       <c r="U327" s="3"/>
       <c r="V327" s="3"/>
-    </row>
-    <row r="328" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A328" s="2"/>
-      <c r="B328" s="2"/>
-      <c r="C328" s="4"/>
-      <c r="D328" s="3"/>
-      <c r="E328" s="3"/>
-      <c r="F328" s="3"/>
-      <c r="G328" s="3"/>
+      <c r="W327" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C328" s="4">
+        <v>4</v>
+      </c>
+      <c r="D328" s="3">
+        <v>28</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G328" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="H328" s="3"/>
-      <c r="I328" s="3"/>
+      <c r="I328" s="3">
+        <v>1</v>
+      </c>
       <c r="J328" s="3"/>
       <c r="K328" s="3"/>
       <c r="L328" s="3"/>
@@ -14033,19 +15342,40 @@
       <c r="T328" s="3"/>
       <c r="U328" s="3"/>
       <c r="V328" s="3"/>
-    </row>
-    <row r="329" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A329" s="2"/>
-      <c r="B329" s="2"/>
-      <c r="C329" s="4"/>
-      <c r="D329" s="3"/>
-      <c r="E329" s="3"/>
-      <c r="F329" s="3"/>
-      <c r="G329" s="3"/>
+      <c r="W328" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C329" s="4">
+        <v>4</v>
+      </c>
+      <c r="D329" s="3">
+        <v>28</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="H329" s="3"/>
-      <c r="I329" s="3"/>
+      <c r="I329" s="3">
+        <v>1</v>
+      </c>
       <c r="J329" s="3"/>
-      <c r="K329" s="3"/>
+      <c r="K329" s="3">
+        <v>2</v>
+      </c>
       <c r="L329" s="3"/>
       <c r="M329" s="3"/>
       <c r="N329" s="3"/>
@@ -14057,17 +15387,36 @@
       <c r="T329" s="3"/>
       <c r="U329" s="3"/>
       <c r="V329" s="3"/>
-    </row>
-    <row r="330" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A330" s="2"/>
-      <c r="B330" s="2"/>
-      <c r="C330" s="4"/>
-      <c r="D330" s="3"/>
-      <c r="E330" s="3"/>
-      <c r="F330" s="3"/>
-      <c r="G330" s="3"/>
+      <c r="W329" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C330" s="4">
+        <v>4</v>
+      </c>
+      <c r="D330" s="3">
+        <v>28</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="H330" s="3"/>
-      <c r="I330" s="3"/>
+      <c r="I330" s="3">
+        <v>1</v>
+      </c>
       <c r="J330" s="3"/>
       <c r="K330" s="3"/>
       <c r="L330" s="3"/>
@@ -14081,17 +15430,36 @@
       <c r="T330" s="3"/>
       <c r="U330" s="3"/>
       <c r="V330" s="3"/>
-    </row>
-    <row r="331" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A331" s="2"/>
-      <c r="B331" s="2"/>
-      <c r="C331" s="4"/>
-      <c r="D331" s="3"/>
-      <c r="E331" s="3"/>
-      <c r="F331" s="3"/>
-      <c r="G331" s="3"/>
+      <c r="W330" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C331" s="4">
+        <v>4</v>
+      </c>
+      <c r="D331" s="3">
+        <v>28</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="H331" s="3"/>
-      <c r="I331" s="3"/>
+      <c r="I331" s="3">
+        <v>1</v>
+      </c>
       <c r="J331" s="3"/>
       <c r="K331" s="3"/>
       <c r="L331" s="3"/>
@@ -14105,17 +15473,36 @@
       <c r="T331" s="3"/>
       <c r="U331" s="3"/>
       <c r="V331" s="3"/>
-    </row>
-    <row r="332" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A332" s="2"/>
-      <c r="B332" s="2"/>
-      <c r="C332" s="4"/>
-      <c r="D332" s="3"/>
-      <c r="E332" s="3"/>
-      <c r="F332" s="3"/>
-      <c r="G332" s="3"/>
+      <c r="W331" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C332" s="4">
+        <v>4</v>
+      </c>
+      <c r="D332" s="3">
+        <v>28</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H332" s="3"/>
-      <c r="I332" s="3"/>
+      <c r="I332" s="3">
+        <v>1</v>
+      </c>
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
       <c r="L332" s="3"/>
@@ -14125,21 +15512,42 @@
       <c r="P332" s="3"/>
       <c r="Q332" s="3"/>
       <c r="R332" s="3"/>
-      <c r="S332" s="3"/>
+      <c r="S332" s="3">
+        <v>2</v>
+      </c>
       <c r="T332" s="3"/>
       <c r="U332" s="3"/>
       <c r="V332" s="3"/>
-    </row>
-    <row r="333" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A333" s="2"/>
-      <c r="B333" s="2"/>
-      <c r="C333" s="4"/>
-      <c r="D333" s="3"/>
-      <c r="E333" s="3"/>
-      <c r="F333" s="3"/>
-      <c r="G333" s="3"/>
+      <c r="W332" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C333" s="4">
+        <v>4</v>
+      </c>
+      <c r="D333" s="3">
+        <v>28</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H333" s="3"/>
-      <c r="I333" s="3"/>
+      <c r="I333" s="3">
+        <v>1</v>
+      </c>
       <c r="J333" s="3"/>
       <c r="K333" s="3"/>
       <c r="L333" s="3"/>
@@ -14153,20 +15561,41 @@
       <c r="T333" s="3"/>
       <c r="U333" s="3"/>
       <c r="V333" s="3"/>
-    </row>
-    <row r="334" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A334" s="2"/>
-      <c r="B334" s="2"/>
-      <c r="C334" s="4"/>
-      <c r="D334" s="3"/>
-      <c r="E334" s="3"/>
-      <c r="F334" s="3"/>
-      <c r="G334" s="3"/>
+      <c r="W333" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C334" s="4">
+        <v>4</v>
+      </c>
+      <c r="D334" s="3">
+        <v>28</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H334" s="3"/>
-      <c r="I334" s="3"/>
+      <c r="I334" s="3">
+        <v>1</v>
+      </c>
       <c r="J334" s="3"/>
       <c r="K334" s="3"/>
-      <c r="L334" s="3"/>
+      <c r="L334" s="3">
+        <v>1</v>
+      </c>
       <c r="M334" s="3"/>
       <c r="N334" s="3"/>
       <c r="O334" s="3"/>
@@ -14177,19 +15606,40 @@
       <c r="T334" s="3"/>
       <c r="U334" s="3"/>
       <c r="V334" s="3"/>
-    </row>
-    <row r="335" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2"/>
-      <c r="C335" s="4"/>
-      <c r="D335" s="3"/>
-      <c r="E335" s="3"/>
-      <c r="F335" s="3"/>
-      <c r="G335" s="3"/>
+      <c r="W334" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C335" s="4">
+        <v>4</v>
+      </c>
+      <c r="D335" s="3">
+        <v>28</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H335" s="3"/>
-      <c r="I335" s="3"/>
+      <c r="I335" s="3">
+        <v>1</v>
+      </c>
       <c r="J335" s="3"/>
-      <c r="K335" s="3"/>
+      <c r="K335" s="3">
+        <v>1</v>
+      </c>
       <c r="L335" s="3"/>
       <c r="M335" s="3"/>
       <c r="N335" s="3"/>
@@ -14201,19 +15651,40 @@
       <c r="T335" s="3"/>
       <c r="U335" s="3"/>
       <c r="V335" s="3"/>
-    </row>
-    <row r="336" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2"/>
-      <c r="C336" s="4"/>
-      <c r="D336" s="3"/>
-      <c r="E336" s="3"/>
-      <c r="F336" s="3"/>
-      <c r="G336" s="3"/>
+      <c r="W335" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C336" s="4">
+        <v>4</v>
+      </c>
+      <c r="D336" s="3">
+        <v>28</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H336" s="3"/>
-      <c r="I336" s="3"/>
+      <c r="I336" s="3">
+        <v>1</v>
+      </c>
       <c r="J336" s="3"/>
-      <c r="K336" s="3"/>
+      <c r="K336" s="3">
+        <v>1</v>
+      </c>
       <c r="L336" s="3"/>
       <c r="M336" s="3"/>
       <c r="N336" s="3"/>
@@ -14225,17 +15696,36 @@
       <c r="T336" s="3"/>
       <c r="U336" s="3"/>
       <c r="V336" s="3"/>
-    </row>
-    <row r="337" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
-      <c r="C337" s="4"/>
-      <c r="D337" s="3"/>
-      <c r="E337" s="3"/>
-      <c r="F337" s="3"/>
-      <c r="G337" s="3"/>
+      <c r="W336" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C337" s="4">
+        <v>4</v>
+      </c>
+      <c r="D337" s="3">
+        <v>28</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G337" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="H337" s="3"/>
-      <c r="I337" s="3"/>
+      <c r="I337" s="3">
+        <v>1</v>
+      </c>
       <c r="J337" s="3"/>
       <c r="K337" s="3"/>
       <c r="L337" s="3"/>
@@ -14249,16 +15739,35 @@
       <c r="T337" s="3"/>
       <c r="U337" s="3"/>
       <c r="V337" s="3"/>
-    </row>
-    <row r="338" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
-      <c r="C338" s="4"/>
-      <c r="D338" s="3"/>
-      <c r="E338" s="3"/>
-      <c r="F338" s="3"/>
-      <c r="G338" s="3"/>
-      <c r="H338" s="3"/>
+      <c r="W337" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C338" s="4">
+        <v>4</v>
+      </c>
+      <c r="D338" s="3">
+        <v>29</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H338" s="3">
+        <v>1</v>
+      </c>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
       <c r="K338" s="3"/>
@@ -14269,24 +15778,49 @@
       <c r="P338" s="3"/>
       <c r="Q338" s="3"/>
       <c r="R338" s="3"/>
-      <c r="S338" s="3"/>
+      <c r="S338" s="3">
+        <v>1</v>
+      </c>
       <c r="T338" s="3"/>
       <c r="U338" s="3"/>
       <c r="V338" s="3"/>
-    </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A339" s="2"/>
-      <c r="B339" s="2"/>
-      <c r="C339" s="4"/>
-      <c r="D339" s="3"/>
-      <c r="E339" s="3"/>
-      <c r="F339" s="3"/>
-      <c r="G339" s="3"/>
-      <c r="H339" s="3"/>
+      <c r="W338" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C339" s="4">
+        <v>4</v>
+      </c>
+      <c r="D339" s="3">
+        <v>29</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H339" s="3">
+        <v>1</v>
+      </c>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
-      <c r="K339" s="3"/>
-      <c r="L339" s="3"/>
+      <c r="K339" s="3">
+        <v>1</v>
+      </c>
+      <c r="L339" s="3">
+        <v>1</v>
+      </c>
       <c r="M339" s="3"/>
       <c r="N339" s="3"/>
       <c r="O339" s="3"/>
@@ -14297,16 +15831,35 @@
       <c r="T339" s="3"/>
       <c r="U339" s="3"/>
       <c r="V339" s="3"/>
-    </row>
-    <row r="340" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
-      <c r="C340" s="4"/>
-      <c r="D340" s="3"/>
-      <c r="E340" s="3"/>
-      <c r="F340" s="3"/>
-      <c r="G340" s="3"/>
-      <c r="H340" s="3"/>
+      <c r="W339" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C340" s="4">
+        <v>4</v>
+      </c>
+      <c r="D340" s="3">
+        <v>29</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H340" s="3">
+        <v>1</v>
+      </c>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
       <c r="K340" s="3"/>
@@ -14320,20 +15873,43 @@
       <c r="S340" s="3"/>
       <c r="T340" s="3"/>
       <c r="U340" s="3"/>
-      <c r="V340" s="3"/>
-    </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
-      <c r="C341" s="4"/>
-      <c r="D341" s="3"/>
-      <c r="E341" s="3"/>
-      <c r="F341" s="3"/>
-      <c r="G341" s="3"/>
-      <c r="H341" s="3"/>
+      <c r="V340" s="3">
+        <v>1</v>
+      </c>
+      <c r="W340" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C341" s="4">
+        <v>4</v>
+      </c>
+      <c r="D341" s="3">
+        <v>29</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H341" s="3">
+        <v>1</v>
+      </c>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="3"/>
+      <c r="K341" s="3">
+        <v>1</v>
+      </c>
       <c r="L341" s="3"/>
       <c r="M341" s="3"/>
       <c r="N341" s="3"/>
@@ -14345,16 +15921,35 @@
       <c r="T341" s="3"/>
       <c r="U341" s="3"/>
       <c r="V341" s="3"/>
-    </row>
-    <row r="342" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
-      <c r="C342" s="4"/>
-      <c r="D342" s="3"/>
-      <c r="E342" s="3"/>
-      <c r="F342" s="3"/>
-      <c r="G342" s="3"/>
-      <c r="H342" s="3"/>
+      <c r="W341" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C342" s="4">
+        <v>4</v>
+      </c>
+      <c r="D342" s="3">
+        <v>29</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H342" s="3">
+        <v>1</v>
+      </c>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
       <c r="K342" s="3"/>
@@ -14369,16 +15964,35 @@
       <c r="T342" s="3"/>
       <c r="U342" s="3"/>
       <c r="V342" s="3"/>
-    </row>
-    <row r="343" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
-      <c r="C343" s="4"/>
-      <c r="D343" s="3"/>
-      <c r="E343" s="3"/>
-      <c r="F343" s="3"/>
-      <c r="G343" s="3"/>
-      <c r="H343" s="3"/>
+      <c r="W342" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C343" s="4">
+        <v>4</v>
+      </c>
+      <c r="D343" s="3">
+        <v>29</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H343" s="3">
+        <v>1</v>
+      </c>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
       <c r="K343" s="3"/>
@@ -14393,18 +16007,37 @@
       <c r="T343" s="3"/>
       <c r="U343" s="3"/>
       <c r="V343" s="3"/>
-    </row>
-    <row r="344" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A344" s="2"/>
-      <c r="B344" s="2"/>
-      <c r="C344" s="4"/>
-      <c r="D344" s="3"/>
-      <c r="E344" s="3"/>
-      <c r="F344" s="3"/>
-      <c r="G344" s="3"/>
+      <c r="W343" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C344" s="4">
+        <v>4</v>
+      </c>
+      <c r="D344" s="3">
+        <v>29</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
-      <c r="J344" s="3"/>
+      <c r="J344" s="3">
+        <v>1</v>
+      </c>
       <c r="K344" s="3"/>
       <c r="L344" s="3"/>
       <c r="M344" s="3"/>
@@ -14413,22 +16046,43 @@
       <c r="P344" s="3"/>
       <c r="Q344" s="3"/>
       <c r="R344" s="3"/>
-      <c r="S344" s="3"/>
+      <c r="S344" s="3">
+        <v>2</v>
+      </c>
       <c r="T344" s="3"/>
       <c r="U344" s="3"/>
       <c r="V344" s="3"/>
-    </row>
-    <row r="345" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A345" s="2"/>
-      <c r="B345" s="2"/>
-      <c r="C345" s="4"/>
-      <c r="D345" s="3"/>
-      <c r="E345" s="3"/>
-      <c r="F345" s="3"/>
-      <c r="G345" s="3"/>
+      <c r="W344" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C345" s="4">
+        <v>4</v>
+      </c>
+      <c r="D345" s="3">
+        <v>29</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G345" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
-      <c r="J345" s="3"/>
+      <c r="J345" s="3">
+        <v>1</v>
+      </c>
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
       <c r="M345" s="3"/>
@@ -14440,19 +16094,40 @@
       <c r="S345" s="3"/>
       <c r="T345" s="3"/>
       <c r="U345" s="3"/>
-      <c r="V345" s="3"/>
-    </row>
-    <row r="346" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
-      <c r="C346" s="4"/>
-      <c r="D346" s="3"/>
-      <c r="E346" s="3"/>
-      <c r="F346" s="3"/>
-      <c r="G346" s="3"/>
+      <c r="V345" s="3">
+        <v>1</v>
+      </c>
+      <c r="W345" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C346" s="4">
+        <v>4</v>
+      </c>
+      <c r="D346" s="3">
+        <v>29</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
-      <c r="J346" s="3"/>
+      <c r="J346" s="3">
+        <v>1</v>
+      </c>
       <c r="K346" s="3"/>
       <c r="L346" s="3"/>
       <c r="M346" s="3"/>
@@ -14465,18 +16140,37 @@
       <c r="T346" s="3"/>
       <c r="U346" s="3"/>
       <c r="V346" s="3"/>
-    </row>
-    <row r="347" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2"/>
-      <c r="C347" s="4"/>
-      <c r="D347" s="3"/>
-      <c r="E347" s="3"/>
-      <c r="F347" s="3"/>
-      <c r="G347" s="3"/>
+      <c r="W346" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C347" s="4">
+        <v>4</v>
+      </c>
+      <c r="D347" s="3">
+        <v>29</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
-      <c r="J347" s="3"/>
+      <c r="J347" s="3">
+        <v>1</v>
+      </c>
       <c r="K347" s="3"/>
       <c r="L347" s="3"/>
       <c r="M347" s="3"/>
@@ -14489,20 +16183,41 @@
       <c r="T347" s="3"/>
       <c r="U347" s="3"/>
       <c r="V347" s="3"/>
-    </row>
-    <row r="348" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2"/>
-      <c r="C348" s="4"/>
-      <c r="D348" s="3"/>
-      <c r="E348" s="3"/>
-      <c r="F348" s="3"/>
-      <c r="G348" s="3"/>
+      <c r="W347" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C348" s="4">
+        <v>4</v>
+      </c>
+      <c r="D348" s="3">
+        <v>29</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
-      <c r="J348" s="3"/>
+      <c r="J348" s="3">
+        <v>1</v>
+      </c>
       <c r="K348" s="3"/>
-      <c r="L348" s="3"/>
+      <c r="L348" s="3">
+        <v>1</v>
+      </c>
       <c r="M348" s="3"/>
       <c r="N348" s="3"/>
       <c r="O348" s="3"/>
@@ -14513,19 +16228,40 @@
       <c r="T348" s="3"/>
       <c r="U348" s="3"/>
       <c r="V348" s="3"/>
-    </row>
-    <row r="349" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
-      <c r="C349" s="4"/>
-      <c r="D349" s="3"/>
-      <c r="E349" s="3"/>
-      <c r="F349" s="3"/>
-      <c r="G349" s="3"/>
+      <c r="W348" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C349" s="4">
+        <v>4</v>
+      </c>
+      <c r="D349" s="3">
+        <v>29</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
-      <c r="J349" s="3"/>
-      <c r="K349" s="3"/>
+      <c r="J349" s="3">
+        <v>1</v>
+      </c>
+      <c r="K349" s="3">
+        <v>1</v>
+      </c>
       <c r="L349" s="3"/>
       <c r="M349" s="3"/>
       <c r="N349" s="3"/>
@@ -14537,21 +16273,42 @@
       <c r="T349" s="3"/>
       <c r="U349" s="3"/>
       <c r="V349" s="3"/>
-    </row>
-    <row r="350" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A350" s="2"/>
-      <c r="B350" s="2"/>
-      <c r="C350" s="4"/>
-      <c r="D350" s="3"/>
-      <c r="E350" s="3"/>
-      <c r="F350" s="3"/>
-      <c r="G350" s="3"/>
-      <c r="H350" s="3"/>
+      <c r="W349" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C350" s="4">
+        <v>4</v>
+      </c>
+      <c r="D350" s="3">
+        <v>30</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G350" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H350" s="3">
+        <v>1</v>
+      </c>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
       <c r="K350" s="3"/>
       <c r="L350" s="3"/>
-      <c r="M350" s="3"/>
+      <c r="M350" s="3">
+        <v>1</v>
+      </c>
       <c r="N350" s="3"/>
       <c r="O350" s="3"/>
       <c r="P350" s="3"/>
@@ -14561,21 +16318,42 @@
       <c r="T350" s="3"/>
       <c r="U350" s="3"/>
       <c r="V350" s="3"/>
-    </row>
-    <row r="351" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A351" s="2"/>
-      <c r="B351" s="2"/>
-      <c r="C351" s="4"/>
-      <c r="D351" s="3"/>
-      <c r="E351" s="3"/>
-      <c r="F351" s="3"/>
-      <c r="G351" s="3"/>
-      <c r="H351" s="3"/>
+      <c r="W350" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C351" s="4">
+        <v>4</v>
+      </c>
+      <c r="D351" s="3">
+        <v>30</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H351" s="3">
+        <v>1</v>
+      </c>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
       <c r="K351" s="3"/>
       <c r="L351" s="3"/>
-      <c r="M351" s="3"/>
+      <c r="M351" s="3">
+        <v>1</v>
+      </c>
       <c r="N351" s="3"/>
       <c r="O351" s="3"/>
       <c r="P351" s="3"/>
@@ -14585,21 +16363,44 @@
       <c r="T351" s="3"/>
       <c r="U351" s="3"/>
       <c r="V351" s="3"/>
-    </row>
-    <row r="352" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A352" s="2"/>
-      <c r="B352" s="2"/>
-      <c r="C352" s="4"/>
-      <c r="D352" s="3"/>
-      <c r="E352" s="3"/>
-      <c r="F352" s="3"/>
-      <c r="G352" s="3"/>
-      <c r="H352" s="3"/>
+      <c r="W351" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C352" s="4">
+        <v>4</v>
+      </c>
+      <c r="D352" s="3">
+        <v>30</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H352" s="3">
+        <v>1</v>
+      </c>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
-      <c r="K352" s="3"/>
+      <c r="K352" s="3">
+        <v>1</v>
+      </c>
       <c r="L352" s="3"/>
-      <c r="M352" s="3"/>
+      <c r="M352" s="3">
+        <v>1</v>
+      </c>
       <c r="N352" s="3"/>
       <c r="O352" s="3"/>
       <c r="P352" s="3"/>
@@ -14609,21 +16410,44 @@
       <c r="T352" s="3"/>
       <c r="U352" s="3"/>
       <c r="V352" s="3"/>
-    </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A353" s="2"/>
-      <c r="B353" s="2"/>
-      <c r="C353" s="4"/>
-      <c r="D353" s="3"/>
-      <c r="E353" s="3"/>
-      <c r="F353" s="3"/>
-      <c r="G353" s="3"/>
-      <c r="H353" s="3"/>
+      <c r="W352" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C353" s="4">
+        <v>4</v>
+      </c>
+      <c r="D353" s="3">
+        <v>30</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G353" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H353" s="3">
+        <v>1</v>
+      </c>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
-      <c r="K353" s="3"/>
+      <c r="K353" s="3">
+        <v>1</v>
+      </c>
       <c r="L353" s="3"/>
-      <c r="M353" s="3"/>
+      <c r="M353" s="3">
+        <v>1</v>
+      </c>
       <c r="N353" s="3"/>
       <c r="O353" s="3"/>
       <c r="P353" s="3"/>
@@ -14633,21 +16457,42 @@
       <c r="T353" s="3"/>
       <c r="U353" s="3"/>
       <c r="V353" s="3"/>
-    </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A354" s="2"/>
-      <c r="B354" s="2"/>
-      <c r="C354" s="4"/>
-      <c r="D354" s="3"/>
-      <c r="E354" s="3"/>
-      <c r="F354" s="3"/>
-      <c r="G354" s="3"/>
-      <c r="H354" s="3"/>
+      <c r="W353" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C354" s="4">
+        <v>4</v>
+      </c>
+      <c r="D354" s="3">
+        <v>30</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G354" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H354" s="3">
+        <v>1</v>
+      </c>
       <c r="I354" s="3"/>
       <c r="J354" s="3"/>
       <c r="K354" s="3"/>
       <c r="L354" s="3"/>
-      <c r="M354" s="3"/>
+      <c r="M354" s="3">
+        <v>1</v>
+      </c>
       <c r="N354" s="3"/>
       <c r="O354" s="3"/>
       <c r="P354" s="3"/>
@@ -14657,21 +16502,44 @@
       <c r="T354" s="3"/>
       <c r="U354" s="3"/>
       <c r="V354" s="3"/>
-    </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A355" s="2"/>
-      <c r="B355" s="2"/>
-      <c r="C355" s="4"/>
-      <c r="D355" s="3"/>
-      <c r="E355" s="3"/>
-      <c r="F355" s="3"/>
-      <c r="G355" s="3"/>
-      <c r="H355" s="3"/>
+      <c r="W354" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A355" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C355" s="4">
+        <v>4</v>
+      </c>
+      <c r="D355" s="3">
+        <v>30</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G355" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H355" s="3">
+        <v>1</v>
+      </c>
       <c r="I355" s="3"/>
       <c r="J355" s="3"/>
       <c r="K355" s="3"/>
-      <c r="L355" s="3"/>
-      <c r="M355" s="3"/>
+      <c r="L355" s="3">
+        <v>1</v>
+      </c>
+      <c r="M355" s="3">
+        <v>1</v>
+      </c>
       <c r="N355" s="3"/>
       <c r="O355" s="3"/>
       <c r="P355" s="3"/>
@@ -14681,540 +16549,2119 @@
       <c r="T355" s="3"/>
       <c r="U355" s="3"/>
       <c r="V355" s="3"/>
-    </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A356" s="2"/>
-      <c r="B356" s="2"/>
-      <c r="E356" s="3"/>
-      <c r="F356" s="3"/>
-      <c r="G356" s="3"/>
-      <c r="J356" s="3"/>
-    </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A357" s="2"/>
-      <c r="B357" s="2"/>
-      <c r="E357" s="3"/>
-      <c r="F357" s="3"/>
-      <c r="G357" s="3"/>
-      <c r="J357" s="3"/>
-    </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A358" s="2"/>
-      <c r="B358" s="2"/>
-      <c r="E358" s="3"/>
-      <c r="F358" s="3"/>
-      <c r="G358" s="3"/>
-      <c r="J358" s="3"/>
-    </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A359" s="2"/>
-      <c r="B359" s="2"/>
-      <c r="E359" s="3"/>
-      <c r="F359" s="3"/>
-      <c r="G359" s="3"/>
-      <c r="J359" s="3"/>
-    </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A360" s="2"/>
-      <c r="B360" s="2"/>
-      <c r="E360" s="3"/>
-      <c r="F360" s="3"/>
-      <c r="G360" s="3"/>
-      <c r="J360" s="3"/>
-    </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A361" s="2"/>
-      <c r="B361" s="2"/>
-      <c r="E361" s="3"/>
-      <c r="F361" s="3"/>
-      <c r="G361" s="3"/>
-      <c r="J361" s="3"/>
-    </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A362" s="2"/>
-      <c r="B362" s="2"/>
-      <c r="E362" s="3"/>
-      <c r="F362" s="3"/>
-      <c r="G362" s="3"/>
-    </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A363" s="2"/>
-      <c r="B363" s="2"/>
-      <c r="E363" s="3"/>
-      <c r="F363" s="3"/>
-      <c r="G363" s="3"/>
-    </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A364" s="2"/>
-      <c r="B364" s="2"/>
-      <c r="E364" s="3"/>
-      <c r="F364" s="3"/>
-      <c r="G364" s="3"/>
-    </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A365" s="2"/>
-      <c r="B365" s="2"/>
-      <c r="E365" s="3"/>
-      <c r="F365" s="3"/>
-      <c r="G365" s="3"/>
-    </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A366" s="2"/>
-      <c r="B366" s="2"/>
-      <c r="E366" s="3"/>
-      <c r="F366" s="3"/>
-      <c r="G366" s="3"/>
-    </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A367" s="2"/>
-      <c r="B367" s="2"/>
-      <c r="E367" s="3"/>
-      <c r="F367" s="3"/>
-      <c r="G367" s="3"/>
-    </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A368" s="2"/>
-      <c r="B368" s="2"/>
-      <c r="E368" s="3"/>
-      <c r="F368" s="3"/>
-      <c r="G368" s="3"/>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" s="2"/>
-      <c r="B369" s="2"/>
-      <c r="E369" s="3"/>
-      <c r="F369" s="3"/>
-      <c r="G369" s="3"/>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" s="2"/>
-      <c r="B370" s="2"/>
-      <c r="E370" s="3"/>
-      <c r="F370" s="3"/>
-      <c r="G370" s="3"/>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="2"/>
-      <c r="B371" s="2"/>
-      <c r="E371" s="3"/>
-      <c r="F371" s="3"/>
-      <c r="G371" s="3"/>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
-      <c r="E372" s="3"/>
-      <c r="F372" s="3"/>
-      <c r="G372" s="3"/>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
-      <c r="E373" s="3"/>
-      <c r="F373" s="3"/>
-      <c r="G373" s="3"/>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
-      <c r="E374" s="3"/>
-      <c r="F374" s="3"/>
-      <c r="G374" s="3"/>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
-      <c r="E375" s="3"/>
-      <c r="F375" s="3"/>
-      <c r="G375" s="3"/>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" s="2"/>
-      <c r="B376" s="2"/>
-      <c r="E376" s="3"/>
-      <c r="F376" s="3"/>
-      <c r="G376" s="3"/>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" s="2"/>
-      <c r="B377" s="2"/>
-      <c r="E377" s="3"/>
-      <c r="F377" s="3"/>
-      <c r="G377" s="3"/>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="2"/>
-      <c r="B378" s="2"/>
-      <c r="E378" s="3"/>
-      <c r="F378" s="3"/>
-      <c r="G378" s="3"/>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379" s="2"/>
-      <c r="B379" s="2"/>
-      <c r="E379" s="3"/>
-      <c r="F379" s="3"/>
-      <c r="G379" s="3"/>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" s="2"/>
-      <c r="B380" s="2"/>
-      <c r="E380" s="3"/>
-      <c r="F380" s="3"/>
-      <c r="G380" s="3"/>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381" s="2"/>
-      <c r="B381" s="2"/>
-      <c r="E381" s="3"/>
-      <c r="F381" s="3"/>
-      <c r="G381" s="3"/>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A382" s="2"/>
-      <c r="B382" s="2"/>
-      <c r="E382" s="3"/>
-      <c r="F382" s="3"/>
-      <c r="G382" s="3"/>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" s="2"/>
-      <c r="B383" s="2"/>
-      <c r="G383" s="3"/>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" s="2"/>
-      <c r="B384" s="2"/>
-      <c r="E384" s="3"/>
-      <c r="F384" s="3"/>
-      <c r="G384" s="3"/>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="2"/>
-      <c r="B385" s="2"/>
-      <c r="E385" s="3"/>
-      <c r="F385" s="3"/>
-      <c r="G385" s="3"/>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="2"/>
-      <c r="B386" s="2"/>
-      <c r="E386" s="3"/>
-      <c r="F386" s="3"/>
-      <c r="G386" s="3"/>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387" s="2"/>
-      <c r="B387" s="2"/>
-      <c r="E387" s="3"/>
-      <c r="F387" s="3"/>
-      <c r="G387" s="3"/>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A388" s="2"/>
-      <c r="B388" s="2"/>
-      <c r="E388" s="3"/>
-      <c r="F388" s="3"/>
-      <c r="G388" s="3"/>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A389" s="2"/>
-      <c r="B389" s="2"/>
-      <c r="E389" s="3"/>
-      <c r="F389" s="3"/>
-      <c r="G389" s="3"/>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A390" s="2"/>
-      <c r="B390" s="2"/>
-      <c r="E390" s="3"/>
-      <c r="F390" s="3"/>
-      <c r="G390" s="3"/>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A391" s="2"/>
-      <c r="B391" s="2"/>
-      <c r="E391" s="3"/>
-      <c r="F391" s="3"/>
-      <c r="G391" s="3"/>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392" s="2"/>
-      <c r="B392" s="2"/>
-      <c r="E392" s="3"/>
-      <c r="F392" s="3"/>
-      <c r="G392" s="3"/>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="2"/>
-      <c r="B393" s="2"/>
-      <c r="E393" s="3"/>
-      <c r="F393" s="3"/>
-      <c r="G393" s="3"/>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A394" s="2"/>
-      <c r="B394" s="2"/>
-      <c r="E394" s="3"/>
-      <c r="F394" s="3"/>
-      <c r="G394" s="3"/>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A395" s="2"/>
-      <c r="B395" s="2"/>
-      <c r="E395" s="3"/>
-      <c r="F395" s="3"/>
-      <c r="G395" s="3"/>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A396" s="2"/>
-      <c r="B396" s="2"/>
-      <c r="E396" s="3"/>
-      <c r="F396" s="3"/>
-      <c r="G396" s="3"/>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A397" s="2"/>
-      <c r="B397" s="2"/>
-      <c r="E397" s="3"/>
-      <c r="F397" s="3"/>
-      <c r="G397" s="3"/>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A398" s="2"/>
-      <c r="B398" s="2"/>
-      <c r="E398" s="3"/>
-      <c r="F398" s="3"/>
-      <c r="G398" s="3"/>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A399" s="2"/>
-      <c r="B399" s="2"/>
-      <c r="E399" s="3"/>
-      <c r="F399" s="3"/>
-      <c r="G399" s="3"/>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="2"/>
-      <c r="B400" s="2"/>
-      <c r="E400" s="3"/>
-      <c r="F400" s="3"/>
-      <c r="G400" s="3"/>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="2"/>
-      <c r="B401" s="2"/>
-      <c r="E401" s="3"/>
-      <c r="F401" s="3"/>
-      <c r="G401" s="3"/>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" s="2"/>
-      <c r="B402" s="2"/>
-      <c r="E402" s="3"/>
-      <c r="F402" s="3"/>
-      <c r="G402" s="3"/>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A403" s="2"/>
-      <c r="B403" s="2"/>
-      <c r="E403" s="3"/>
-      <c r="F403" s="3"/>
-      <c r="G403" s="3"/>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404" s="2"/>
-      <c r="B404" s="2"/>
-      <c r="E404" s="3"/>
-      <c r="F404" s="3"/>
-      <c r="G404" s="3"/>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405" s="2"/>
-      <c r="B405" s="2"/>
-      <c r="E405" s="3"/>
-      <c r="F405" s="3"/>
-      <c r="G405" s="3"/>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" s="2"/>
-      <c r="B406" s="2"/>
-      <c r="E406" s="3"/>
-      <c r="F406" s="3"/>
-      <c r="G406" s="3"/>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" s="2"/>
-      <c r="B407" s="2"/>
-      <c r="E407" s="3"/>
-      <c r="F407" s="3"/>
-      <c r="G407" s="3"/>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A408" s="2"/>
-      <c r="B408" s="2"/>
-      <c r="E408" s="3"/>
-      <c r="F408" s="3"/>
-      <c r="G408" s="3"/>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A409" s="2"/>
-      <c r="B409" s="2"/>
-      <c r="E409" s="3"/>
-      <c r="F409" s="3"/>
-      <c r="G409" s="3"/>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410" s="2"/>
-      <c r="B410" s="2"/>
-      <c r="E410" s="3"/>
-      <c r="F410" s="3"/>
-      <c r="G410" s="3"/>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A411" s="2"/>
-      <c r="B411" s="2"/>
-      <c r="E411" s="3"/>
-      <c r="F411" s="3"/>
-      <c r="G411" s="3"/>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" s="2"/>
-      <c r="B412" s="2"/>
-      <c r="E412" s="3"/>
-      <c r="F412" s="3"/>
-      <c r="G412" s="3"/>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="2"/>
-      <c r="B413" s="2"/>
-      <c r="G413" s="3"/>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="2"/>
-      <c r="B414" s="2"/>
-      <c r="E414" s="3"/>
-      <c r="F414" s="3"/>
-      <c r="G414" s="3"/>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" s="2"/>
-      <c r="B415" s="2"/>
-      <c r="E415" s="3"/>
-      <c r="F415" s="3"/>
-      <c r="G415" s="3"/>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" s="2"/>
-      <c r="B416" s="2"/>
-      <c r="E416" s="3"/>
-      <c r="F416" s="3"/>
-      <c r="G416" s="3"/>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="2"/>
-      <c r="B417" s="2"/>
-      <c r="E417" s="3"/>
-      <c r="F417" s="3"/>
-      <c r="G417" s="3"/>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="2"/>
-      <c r="B418" s="2"/>
-      <c r="E418" s="3"/>
-      <c r="F418" s="3"/>
-      <c r="G418" s="3"/>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="2"/>
-      <c r="B419" s="2"/>
-      <c r="E419" s="3"/>
-      <c r="F419" s="3"/>
-      <c r="G419" s="3"/>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="2"/>
-      <c r="B420" s="2"/>
-      <c r="E420" s="3"/>
-      <c r="F420" s="3"/>
-      <c r="G420" s="3"/>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="2"/>
-      <c r="B421" s="2"/>
-      <c r="E421" s="3"/>
-      <c r="F421" s="3"/>
-      <c r="G421" s="3"/>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="W355" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C356" s="5">
+        <v>4</v>
+      </c>
+      <c r="D356" s="5">
+        <v>30</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J356" s="3">
+        <v>1</v>
+      </c>
+      <c r="S356" s="5">
+        <v>2</v>
+      </c>
+      <c r="V356" s="5">
+        <v>1</v>
+      </c>
+      <c r="W356" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C357" s="5">
+        <v>4</v>
+      </c>
+      <c r="D357" s="5">
+        <v>30</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G357" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J357" s="3">
+        <v>1</v>
+      </c>
+      <c r="W357" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A358" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C358" s="5">
+        <v>4</v>
+      </c>
+      <c r="D358" s="5">
+        <v>30</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G358" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J358" s="3">
+        <v>1</v>
+      </c>
+      <c r="W358" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C359" s="5">
+        <v>4</v>
+      </c>
+      <c r="D359" s="5">
+        <v>30</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G359" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J359" s="3">
+        <v>1</v>
+      </c>
+      <c r="W359" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C360" s="5">
+        <v>4</v>
+      </c>
+      <c r="D360" s="5">
+        <v>30</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J360" s="3">
+        <v>1</v>
+      </c>
+      <c r="W360" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A361" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C361" s="5">
+        <v>4</v>
+      </c>
+      <c r="D361" s="5">
+        <v>30</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F361" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G361" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J361" s="3">
+        <v>1</v>
+      </c>
+      <c r="W361" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C362" s="5">
+        <v>4</v>
+      </c>
+      <c r="D362" s="5">
+        <v>31</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H362" s="5">
+        <v>1</v>
+      </c>
+      <c r="S362" s="5">
+        <v>1</v>
+      </c>
+      <c r="W362" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C363" s="5">
+        <v>4</v>
+      </c>
+      <c r="D363" s="5">
+        <v>31</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G363" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H363" s="5">
+        <v>1</v>
+      </c>
+      <c r="K363" s="5">
+        <v>1</v>
+      </c>
+      <c r="W363" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C364" s="5">
+        <v>4</v>
+      </c>
+      <c r="D364" s="5">
+        <v>31</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G364" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H364" s="5">
+        <v>1</v>
+      </c>
+      <c r="W364" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C365" s="5">
+        <v>4</v>
+      </c>
+      <c r="D365" s="5">
+        <v>31</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G365" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H365" s="5">
+        <v>1</v>
+      </c>
+      <c r="W365" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C366" s="5">
+        <v>4</v>
+      </c>
+      <c r="D366" s="5">
+        <v>31</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H366" s="5">
+        <v>1</v>
+      </c>
+      <c r="L366" s="5">
+        <v>2</v>
+      </c>
+      <c r="W366" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C367" s="5">
+        <v>4</v>
+      </c>
+      <c r="D367" s="5">
+        <v>31</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G367" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H367" s="5">
+        <v>1</v>
+      </c>
+      <c r="K367" s="5">
+        <v>1</v>
+      </c>
+      <c r="W367" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C368" s="5">
+        <v>4</v>
+      </c>
+      <c r="D368" s="5">
+        <v>31</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J368" s="5">
+        <v>1</v>
+      </c>
+      <c r="S368" s="5">
+        <v>2</v>
+      </c>
+      <c r="W368" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A369" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C369" s="5">
+        <v>4</v>
+      </c>
+      <c r="D369" s="5">
+        <v>31</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J369" s="5">
+        <v>1</v>
+      </c>
+      <c r="L369" s="5">
+        <v>1</v>
+      </c>
+      <c r="W369" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C370" s="5">
+        <v>4</v>
+      </c>
+      <c r="D370" s="5">
+        <v>31</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J370" s="5">
+        <v>1</v>
+      </c>
+      <c r="W370" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C371" s="5">
+        <v>4</v>
+      </c>
+      <c r="D371" s="5">
+        <v>31</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J371" s="5">
+        <v>1</v>
+      </c>
+      <c r="K371" s="5">
+        <v>1</v>
+      </c>
+      <c r="W371" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C372" s="5">
+        <v>4</v>
+      </c>
+      <c r="D372" s="5">
+        <v>31</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G372" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J372" s="5">
+        <v>1</v>
+      </c>
+      <c r="W372" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A373" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C373" s="5">
+        <v>4</v>
+      </c>
+      <c r="D373" s="5">
+        <v>31</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J373" s="5">
+        <v>1</v>
+      </c>
+      <c r="W373" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A374" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C374" s="5">
+        <v>4</v>
+      </c>
+      <c r="D374" s="5">
+        <v>32</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G374" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J374" s="5">
+        <v>1</v>
+      </c>
+      <c r="S374" s="5">
+        <v>3</v>
+      </c>
+      <c r="W374" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A375" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C375" s="5">
+        <v>4</v>
+      </c>
+      <c r="D375" s="5">
+        <v>32</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G375" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J375" s="5">
+        <v>1</v>
+      </c>
+      <c r="W375" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A376" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C376" s="5">
+        <v>4</v>
+      </c>
+      <c r="D376" s="5">
+        <v>32</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G376" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J376" s="5">
+        <v>1</v>
+      </c>
+      <c r="W376" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A377" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C377" s="5">
+        <v>4</v>
+      </c>
+      <c r="D377" s="5">
+        <v>32</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F377" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G377" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J377" s="5">
+        <v>1</v>
+      </c>
+      <c r="W377" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A378" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C378" s="5">
+        <v>4</v>
+      </c>
+      <c r="D378" s="5">
+        <v>32</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F378" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G378" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J378" s="5">
+        <v>1</v>
+      </c>
+      <c r="W378" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A379" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C379" s="5">
+        <v>4</v>
+      </c>
+      <c r="D379" s="5">
+        <v>32</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F379" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G379" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J379" s="5">
+        <v>1</v>
+      </c>
+      <c r="W379" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A380" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C380" s="5">
+        <v>4</v>
+      </c>
+      <c r="D380" s="5">
+        <v>32</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G380" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H380" s="5">
+        <v>1</v>
+      </c>
+      <c r="M380" s="5">
+        <v>1</v>
+      </c>
+      <c r="W380" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A381" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C381" s="5">
+        <v>4</v>
+      </c>
+      <c r="D381" s="5">
+        <v>32</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G381" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H381" s="5">
+        <v>1</v>
+      </c>
+      <c r="M381" s="5">
+        <v>1</v>
+      </c>
+      <c r="W381" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A382" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C382" s="5">
+        <v>4</v>
+      </c>
+      <c r="D382" s="5">
+        <v>32</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F382" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G382" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H382" s="5">
+        <v>1</v>
+      </c>
+      <c r="K382" s="5">
+        <v>2</v>
+      </c>
+      <c r="M382" s="5">
+        <v>1</v>
+      </c>
+      <c r="W382" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A383" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C383" s="5">
+        <v>4</v>
+      </c>
+      <c r="D383" s="5">
+        <v>32</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G383" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H383" s="5">
+        <v>1</v>
+      </c>
+      <c r="M383" s="5">
+        <v>1</v>
+      </c>
+      <c r="W383" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C384" s="5">
+        <v>4</v>
+      </c>
+      <c r="D384" s="5">
+        <v>32</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G384" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H384" s="5">
+        <v>1</v>
+      </c>
+      <c r="K384" s="5">
+        <v>1</v>
+      </c>
+      <c r="L384" s="5">
+        <v>1</v>
+      </c>
+      <c r="M384" s="5">
+        <v>1</v>
+      </c>
+      <c r="W384" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A385" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C385" s="5">
+        <v>4</v>
+      </c>
+      <c r="D385" s="5">
+        <v>32</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F385" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G385" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H385" s="5">
+        <v>1</v>
+      </c>
+      <c r="M385" s="5">
+        <v>1</v>
+      </c>
+      <c r="W385" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A386" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C386" s="5">
+        <v>4</v>
+      </c>
+      <c r="D386" s="5">
+        <v>33</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J386" s="5">
+        <v>1</v>
+      </c>
+      <c r="S386" s="5">
+        <v>2</v>
+      </c>
+      <c r="W386" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A387" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C387" s="5">
+        <v>4</v>
+      </c>
+      <c r="D387" s="5">
+        <v>33</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F387" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J387" s="5">
+        <v>1</v>
+      </c>
+      <c r="V387" s="5">
+        <v>1</v>
+      </c>
+      <c r="W387" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A388" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C388" s="5">
+        <v>4</v>
+      </c>
+      <c r="D388" s="5">
+        <v>33</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G388" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J388" s="5">
+        <v>1</v>
+      </c>
+      <c r="W388" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A389" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C389" s="5">
+        <v>4</v>
+      </c>
+      <c r="D389" s="5">
+        <v>33</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F389" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G389" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J389" s="5">
+        <v>1</v>
+      </c>
+      <c r="K389" s="5">
+        <v>1</v>
+      </c>
+      <c r="V389" s="5">
+        <v>1</v>
+      </c>
+      <c r="W389" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A390" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C390" s="5">
+        <v>4</v>
+      </c>
+      <c r="D390" s="5">
+        <v>33</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F390" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G390" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J390" s="5">
+        <v>1</v>
+      </c>
+      <c r="W390" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A391" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C391" s="5">
+        <v>4</v>
+      </c>
+      <c r="D391" s="5">
+        <v>33</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J391" s="5">
+        <v>1</v>
+      </c>
+      <c r="W391" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A392" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C392" s="5">
+        <v>4</v>
+      </c>
+      <c r="D392" s="5">
+        <v>33</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F392" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G392" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H392" s="5">
+        <v>1</v>
+      </c>
+      <c r="S392" s="5">
+        <v>1</v>
+      </c>
+      <c r="W392" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A393" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C393" s="5">
+        <v>4</v>
+      </c>
+      <c r="D393" s="5">
+        <v>33</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H393" s="5">
+        <v>1</v>
+      </c>
+      <c r="L393" s="5">
+        <v>1</v>
+      </c>
+      <c r="W393" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A394" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C394" s="5">
+        <v>4</v>
+      </c>
+      <c r="D394" s="5">
+        <v>33</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G394" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H394" s="5">
+        <v>1</v>
+      </c>
+      <c r="W394" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A395" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C395" s="5">
+        <v>4</v>
+      </c>
+      <c r="D395" s="5">
+        <v>33</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G395" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H395" s="5">
+        <v>1</v>
+      </c>
+      <c r="W395" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A396" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C396" s="5">
+        <v>4</v>
+      </c>
+      <c r="D396" s="5">
+        <v>33</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G396" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H396" s="5">
+        <v>1</v>
+      </c>
+      <c r="K396" s="5">
+        <v>2</v>
+      </c>
+      <c r="W396" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A397" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C397" s="5">
+        <v>4</v>
+      </c>
+      <c r="D397" s="5">
+        <v>33</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G397" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H397" s="5">
+        <v>1</v>
+      </c>
+      <c r="W397" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A398" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C398" s="5">
+        <v>4</v>
+      </c>
+      <c r="D398" s="5">
+        <v>34</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F398" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G398" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J398" s="5">
+        <v>1</v>
+      </c>
+      <c r="L398" s="5">
+        <v>1</v>
+      </c>
+      <c r="S398" s="5">
+        <v>2</v>
+      </c>
+      <c r="W398" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A399" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C399" s="5">
+        <v>4</v>
+      </c>
+      <c r="D399" s="5">
+        <v>34</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F399" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G399" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J399" s="5">
+        <v>1</v>
+      </c>
+      <c r="W399" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A400" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C400" s="5">
+        <v>4</v>
+      </c>
+      <c r="D400" s="5">
+        <v>34</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F400" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G400" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J400" s="5">
+        <v>1</v>
+      </c>
+      <c r="W400" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A401" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C401" s="5">
+        <v>4</v>
+      </c>
+      <c r="D401" s="5">
+        <v>34</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J401" s="5">
+        <v>1</v>
+      </c>
+      <c r="W401" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A402" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C402" s="5">
+        <v>4</v>
+      </c>
+      <c r="D402" s="5">
+        <v>34</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F402" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G402" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J402" s="5">
+        <v>1</v>
+      </c>
+      <c r="W402" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A403" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C403" s="5">
+        <v>4</v>
+      </c>
+      <c r="D403" s="5">
+        <v>34</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F403" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G403" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J403" s="5">
+        <v>1</v>
+      </c>
+      <c r="K403" s="5">
+        <v>1</v>
+      </c>
+      <c r="W403" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A404" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C404" s="5">
+        <v>4</v>
+      </c>
+      <c r="D404" s="5">
+        <v>34</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F404" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G404" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H404" s="5">
+        <v>1</v>
+      </c>
+      <c r="S404" s="5">
+        <v>1</v>
+      </c>
+      <c r="W404" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A405" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C405" s="5">
+        <v>4</v>
+      </c>
+      <c r="D405" s="5">
+        <v>34</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G405" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H405" s="5">
+        <v>1</v>
+      </c>
+      <c r="K405" s="5">
+        <v>2</v>
+      </c>
+      <c r="W405" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A406" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C406" s="5">
+        <v>4</v>
+      </c>
+      <c r="D406" s="5">
+        <v>34</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G406" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H406" s="5">
+        <v>1</v>
+      </c>
+      <c r="W406" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A407" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C407" s="5">
+        <v>4</v>
+      </c>
+      <c r="D407" s="5">
+        <v>34</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G407" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H407" s="5">
+        <v>1</v>
+      </c>
+      <c r="W407" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A408" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C408" s="5">
+        <v>4</v>
+      </c>
+      <c r="D408" s="5">
+        <v>34</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F408" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G408" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H408" s="5">
+        <v>1</v>
+      </c>
+      <c r="W408" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A409" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C409" s="5">
+        <v>4</v>
+      </c>
+      <c r="D409" s="5">
+        <v>34</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F409" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G409" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H409" s="5">
+        <v>1</v>
+      </c>
+      <c r="L409" s="5">
+        <v>1</v>
+      </c>
+      <c r="W409" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A410" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C410" s="5">
+        <v>4</v>
+      </c>
+      <c r="D410" s="5">
+        <v>35</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F410" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G410" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H410" s="5">
+        <v>1</v>
+      </c>
+      <c r="M410" s="5">
+        <v>1</v>
+      </c>
+      <c r="T410" s="5">
+        <v>1</v>
+      </c>
+      <c r="W410" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A411" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C411" s="5">
+        <v>4</v>
+      </c>
+      <c r="D411" s="5">
+        <v>35</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G411" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H411" s="5">
+        <v>1</v>
+      </c>
+      <c r="L411" s="5">
+        <v>1</v>
+      </c>
+      <c r="M411" s="5">
+        <v>1</v>
+      </c>
+      <c r="W411" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A412" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C412" s="5">
+        <v>4</v>
+      </c>
+      <c r="D412" s="5">
+        <v>35</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G412" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H412" s="5">
+        <v>1</v>
+      </c>
+      <c r="M412" s="5">
+        <v>1</v>
+      </c>
+      <c r="W412" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A413" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C413" s="5">
+        <v>4</v>
+      </c>
+      <c r="D413" s="5">
+        <v>35</v>
+      </c>
+      <c r="E413" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F413" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G413" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H413" s="5">
+        <v>1</v>
+      </c>
+      <c r="M413" s="5">
+        <v>1</v>
+      </c>
+      <c r="W413" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A414" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C414" s="5">
+        <v>4</v>
+      </c>
+      <c r="D414" s="5">
+        <v>35</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H414" s="5">
+        <v>1</v>
+      </c>
+      <c r="M414" s="5">
+        <v>1</v>
+      </c>
+      <c r="W414" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A415" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C415" s="5">
+        <v>4</v>
+      </c>
+      <c r="D415" s="5">
+        <v>35</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G415" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H415" s="5">
+        <v>1</v>
+      </c>
+      <c r="K415" s="5">
+        <v>1</v>
+      </c>
+      <c r="M415" s="5">
+        <v>1</v>
+      </c>
+      <c r="W415" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A416" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C416" s="5">
+        <v>4</v>
+      </c>
+      <c r="D416" s="5">
+        <v>35</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J416" s="5">
+        <v>1</v>
+      </c>
+      <c r="S416" s="5">
+        <v>1</v>
+      </c>
+      <c r="W416" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A417" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C417" s="5">
+        <v>4</v>
+      </c>
+      <c r="D417" s="5">
+        <v>35</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F417" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G417" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J417" s="5">
+        <v>1</v>
+      </c>
+      <c r="W417" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A418" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C418" s="5">
+        <v>4</v>
+      </c>
+      <c r="D418" s="5">
+        <v>35</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F418" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G418" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J418" s="5">
+        <v>1</v>
+      </c>
+      <c r="W418" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A419" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C419" s="5">
+        <v>4</v>
+      </c>
+      <c r="D419" s="5">
+        <v>35</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F419" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G419" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J419" s="5">
+        <v>1</v>
+      </c>
+      <c r="W419" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A420" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C420" s="5">
+        <v>4</v>
+      </c>
+      <c r="D420" s="5">
+        <v>35</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J420" s="5">
+        <v>1</v>
+      </c>
+      <c r="W420" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A421" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C421" s="5">
+        <v>4</v>
+      </c>
+      <c r="D421" s="5">
+        <v>35</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G421" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J421" s="5">
+        <v>1</v>
+      </c>
+      <c r="W421" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="G431" s="3"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="E432" s="3"/>

--- a/data/copas_mr.xlsx
+++ b/data/copas_mr.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="88">
   <si>
     <t>GOL</t>
   </si>
@@ -262,6 +262,33 @@
   </si>
   <si>
     <t>Juba</t>
+  </si>
+  <si>
+    <t>Diego Maradona</t>
+  </si>
+  <si>
+    <t>Glerme</t>
+  </si>
+  <si>
+    <t>João Victor</t>
+  </si>
+  <si>
+    <t>Marcello</t>
+  </si>
+  <si>
+    <t>Romão</t>
+  </si>
+  <si>
+    <t>João Wanderley</t>
+  </si>
+  <si>
+    <t>Léo B.</t>
+  </si>
+  <si>
+    <t>Dumanga</t>
+  </si>
+  <si>
+    <t>Gideão</t>
   </si>
 </sst>
 </file>
@@ -661,8 +688,8 @@
   <dimension ref="A1:W847"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K427" sqref="K427"/>
+      <pane ySplit="1" topLeftCell="A536" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G579" sqref="G579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18594,1190 +18621,5012 @@
       </c>
     </row>
     <row r="422" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A422" s="2"/>
-      <c r="B422" s="2"/>
-      <c r="E422" s="3"/>
-      <c r="F422" s="3"/>
-      <c r="G422" s="3"/>
+      <c r="A422" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C422" s="5">
+        <v>5</v>
+      </c>
+      <c r="D422" s="5">
+        <v>36</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F422" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I422" s="5">
+        <v>1</v>
+      </c>
+      <c r="S422" s="5">
+        <v>1</v>
+      </c>
+      <c r="W422" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="423" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A423" s="2"/>
-      <c r="B423" s="2"/>
-      <c r="E423" s="3"/>
-      <c r="F423" s="3"/>
-      <c r="G423" s="3"/>
+      <c r="A423" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C423" s="5">
+        <v>5</v>
+      </c>
+      <c r="D423" s="5">
+        <v>36</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I423" s="5">
+        <v>1</v>
+      </c>
+      <c r="L423" s="5">
+        <v>1</v>
+      </c>
+      <c r="W423" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="424" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A424" s="2"/>
-      <c r="B424" s="2"/>
-      <c r="E424" s="3"/>
-      <c r="F424" s="3"/>
-      <c r="G424" s="3"/>
+      <c r="A424" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C424" s="5">
+        <v>5</v>
+      </c>
+      <c r="D424" s="5">
+        <v>36</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F424" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G424" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I424" s="5">
+        <v>1</v>
+      </c>
+      <c r="W424" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="425" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A425" s="2"/>
-      <c r="B425" s="2"/>
-      <c r="E425" s="3"/>
-      <c r="F425" s="3"/>
-      <c r="G425" s="3"/>
+      <c r="A425" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C425" s="5">
+        <v>5</v>
+      </c>
+      <c r="D425" s="5">
+        <v>36</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G425" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I425" s="5">
+        <v>1</v>
+      </c>
+      <c r="K425" s="5">
+        <v>1</v>
+      </c>
+      <c r="W425" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="426" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A426" s="2"/>
-      <c r="B426" s="2"/>
-      <c r="E426" s="3"/>
-      <c r="F426" s="3"/>
-      <c r="G426" s="3"/>
+      <c r="A426" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C426" s="5">
+        <v>5</v>
+      </c>
+      <c r="D426" s="5">
+        <v>36</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G426" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I426" s="5">
+        <v>1</v>
+      </c>
+      <c r="W426" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="427" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
-      <c r="E427" s="3"/>
-      <c r="F427" s="3"/>
-      <c r="G427" s="3"/>
+      <c r="A427" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C427" s="5">
+        <v>5</v>
+      </c>
+      <c r="D427" s="5">
+        <v>36</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G427" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I427" s="5">
+        <v>1</v>
+      </c>
+      <c r="W427" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="428" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A428" s="2"/>
-      <c r="B428" s="2"/>
-      <c r="E428" s="3"/>
-      <c r="F428" s="3"/>
-      <c r="G428" s="3"/>
+      <c r="A428" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C428" s="5">
+        <v>5</v>
+      </c>
+      <c r="D428" s="5">
+        <v>36</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F428" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G428" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I428" s="5">
+        <v>1</v>
+      </c>
+      <c r="S428" s="5">
+        <v>1</v>
+      </c>
+      <c r="T428" s="5">
+        <v>2</v>
+      </c>
+      <c r="W428" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="429" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A429" s="2"/>
-      <c r="B429" s="2"/>
-      <c r="E429" s="3"/>
-      <c r="F429" s="3"/>
-      <c r="G429" s="3"/>
+      <c r="A429" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C429" s="5">
+        <v>5</v>
+      </c>
+      <c r="D429" s="5">
+        <v>36</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F429" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G429" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I429" s="5">
+        <v>1</v>
+      </c>
+      <c r="W429" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="430" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A430" s="2"/>
-      <c r="B430" s="2"/>
-      <c r="E430" s="3"/>
-      <c r="F430" s="3"/>
-      <c r="G430" s="3"/>
+      <c r="A430" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C430" s="5">
+        <v>5</v>
+      </c>
+      <c r="D430" s="5">
+        <v>36</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G430" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I430" s="5">
+        <v>1</v>
+      </c>
+      <c r="W430" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="431" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A431" s="2"/>
-      <c r="B431" s="2"/>
-      <c r="G431" s="3"/>
+      <c r="A431" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C431" s="5">
+        <v>5</v>
+      </c>
+      <c r="D431" s="5">
+        <v>36</v>
+      </c>
+      <c r="E431" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F431" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G431" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I431" s="5">
+        <v>1</v>
+      </c>
+      <c r="K431" s="5">
+        <v>1</v>
+      </c>
+      <c r="W431" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="432" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A432" s="2"/>
-      <c r="B432" s="2"/>
-      <c r="E432" s="3"/>
-      <c r="F432" s="3"/>
-      <c r="G432" s="3"/>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A433" s="2"/>
-      <c r="B433" s="2"/>
-      <c r="E433" s="3"/>
-      <c r="F433" s="3"/>
-      <c r="G433" s="3"/>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A434" s="2"/>
-      <c r="B434" s="2"/>
-      <c r="E434" s="3"/>
-      <c r="F434" s="3"/>
-      <c r="G434" s="3"/>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435" s="2"/>
-      <c r="B435" s="2"/>
-      <c r="E435" s="3"/>
-      <c r="F435" s="3"/>
-      <c r="G435" s="3"/>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436" s="2"/>
-      <c r="B436" s="2"/>
-      <c r="E436" s="3"/>
-      <c r="F436" s="3"/>
-      <c r="G436" s="3"/>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A437" s="2"/>
-      <c r="B437" s="2"/>
-      <c r="E437" s="3"/>
-      <c r="F437" s="3"/>
-      <c r="G437" s="3"/>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A438" s="2"/>
-      <c r="B438" s="2"/>
-      <c r="E438" s="3"/>
-      <c r="F438" s="3"/>
-      <c r="G438" s="3"/>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A439" s="2"/>
-      <c r="B439" s="2"/>
-      <c r="E439" s="3"/>
-      <c r="F439" s="3"/>
-      <c r="G439" s="3"/>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A440" s="2"/>
-      <c r="B440" s="2"/>
-      <c r="E440" s="3"/>
-      <c r="F440" s="3"/>
-      <c r="G440" s="3"/>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A441" s="2"/>
-      <c r="B441" s="2"/>
-      <c r="E441" s="3"/>
-      <c r="F441" s="3"/>
-      <c r="G441" s="3"/>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" s="2"/>
-      <c r="B442" s="2"/>
-      <c r="E442" s="3"/>
-      <c r="F442" s="3"/>
-      <c r="G442" s="3"/>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A443" s="2"/>
-      <c r="B443" s="2"/>
-      <c r="G443" s="3"/>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A444" s="2"/>
-      <c r="B444" s="2"/>
-      <c r="E444" s="3"/>
-      <c r="F444" s="3"/>
-      <c r="G444" s="3"/>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A445" s="2"/>
-      <c r="B445" s="2"/>
-      <c r="E445" s="3"/>
-      <c r="F445" s="3"/>
-      <c r="G445" s="3"/>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A446" s="2"/>
-      <c r="B446" s="2"/>
-      <c r="E446" s="3"/>
-      <c r="F446" s="3"/>
-      <c r="G446" s="3"/>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A447" s="2"/>
-      <c r="B447" s="2"/>
-      <c r="E447" s="3"/>
-      <c r="F447" s="3"/>
-      <c r="G447" s="3"/>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A448" s="2"/>
-      <c r="B448" s="2"/>
-      <c r="E448" s="3"/>
-      <c r="F448" s="3"/>
-      <c r="G448" s="3"/>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A449" s="2"/>
-      <c r="B449" s="2"/>
-      <c r="E449" s="3"/>
-      <c r="F449" s="3"/>
-      <c r="G449" s="3"/>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A450" s="2"/>
-      <c r="B450" s="2"/>
-      <c r="E450" s="3"/>
-      <c r="F450" s="3"/>
-      <c r="G450" s="3"/>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A451" s="2"/>
-      <c r="B451" s="2"/>
-      <c r="E451" s="3"/>
-      <c r="F451" s="3"/>
-      <c r="G451" s="3"/>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A452" s="2"/>
-      <c r="B452" s="2"/>
-      <c r="E452" s="3"/>
-      <c r="F452" s="3"/>
-      <c r="G452" s="3"/>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A453" s="2"/>
-      <c r="B453" s="2"/>
-      <c r="E453" s="3"/>
-      <c r="F453" s="3"/>
-      <c r="G453" s="3"/>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A454" s="2"/>
-      <c r="B454" s="2"/>
-      <c r="E454" s="3"/>
-      <c r="F454" s="3"/>
-      <c r="G454" s="3"/>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A455" s="2"/>
-      <c r="B455" s="2"/>
-      <c r="G455" s="3"/>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A456" s="2"/>
-      <c r="B456" s="2"/>
-      <c r="E456" s="3"/>
-      <c r="F456" s="3"/>
-      <c r="G456" s="3"/>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A457" s="2"/>
-      <c r="B457" s="2"/>
-      <c r="E457" s="3"/>
-      <c r="F457" s="3"/>
-      <c r="G457" s="3"/>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A458" s="2"/>
-      <c r="B458" s="2"/>
-      <c r="E458" s="3"/>
-      <c r="F458" s="3"/>
-      <c r="G458" s="3"/>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A459" s="2"/>
-      <c r="B459" s="2"/>
-      <c r="E459" s="3"/>
-      <c r="F459" s="3"/>
-      <c r="G459" s="3"/>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A460" s="2"/>
-      <c r="B460" s="2"/>
-      <c r="E460" s="3"/>
-      <c r="F460" s="3"/>
-      <c r="G460" s="3"/>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A461" s="2"/>
-      <c r="B461" s="2"/>
-      <c r="E461" s="3"/>
-      <c r="F461" s="3"/>
-      <c r="G461" s="3"/>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A462" s="2"/>
-      <c r="B462" s="2"/>
-      <c r="E462" s="3"/>
-      <c r="F462" s="3"/>
-      <c r="G462" s="3"/>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A463" s="2"/>
-      <c r="B463" s="2"/>
-      <c r="E463" s="3"/>
-      <c r="F463" s="3"/>
-      <c r="G463" s="3"/>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A464" s="2"/>
-      <c r="B464" s="2"/>
-      <c r="E464" s="3"/>
-      <c r="F464" s="3"/>
-      <c r="G464" s="3"/>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A465" s="2"/>
-      <c r="B465" s="2"/>
-      <c r="E465" s="3"/>
-      <c r="F465" s="3"/>
-      <c r="G465" s="3"/>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A466" s="2"/>
-      <c r="B466" s="2"/>
-      <c r="E466" s="3"/>
-      <c r="F466" s="3"/>
-      <c r="G466" s="3"/>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A467" s="2"/>
-      <c r="B467" s="2"/>
-      <c r="E467" s="3"/>
-      <c r="F467" s="3"/>
-      <c r="G467" s="3"/>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A468" s="2"/>
-      <c r="B468" s="2"/>
-      <c r="E468" s="3"/>
-      <c r="F468" s="3"/>
-      <c r="G468" s="3"/>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A469" s="2"/>
-      <c r="B469" s="2"/>
-      <c r="E469" s="3"/>
-      <c r="F469" s="3"/>
-      <c r="G469" s="3"/>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A470" s="2"/>
-      <c r="B470" s="2"/>
-      <c r="E470" s="3"/>
-      <c r="F470" s="3"/>
-      <c r="G470" s="3"/>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A471" s="2"/>
-      <c r="B471" s="2"/>
-      <c r="E471" s="3"/>
-      <c r="F471" s="3"/>
-      <c r="G471" s="3"/>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A472" s="2"/>
-      <c r="B472" s="2"/>
-      <c r="E472" s="3"/>
-      <c r="F472" s="3"/>
-      <c r="G472" s="3"/>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A473" s="2"/>
-      <c r="B473" s="2"/>
-      <c r="E473" s="3"/>
-      <c r="F473" s="3"/>
-      <c r="G473" s="3"/>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A474" s="2"/>
-      <c r="B474" s="2"/>
-      <c r="E474" s="3"/>
-      <c r="F474" s="3"/>
-      <c r="G474" s="3"/>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A475" s="2"/>
-      <c r="B475" s="2"/>
-      <c r="E475" s="3"/>
-      <c r="F475" s="3"/>
-      <c r="G475" s="3"/>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A476" s="2"/>
-      <c r="B476" s="2"/>
-      <c r="E476" s="3"/>
-      <c r="F476" s="3"/>
-      <c r="G476" s="3"/>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A477" s="2"/>
-      <c r="B477" s="2"/>
-      <c r="E477" s="3"/>
-      <c r="F477" s="3"/>
-      <c r="G477" s="3"/>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A478" s="2"/>
-      <c r="B478" s="2"/>
-      <c r="E478" s="3"/>
-      <c r="F478" s="3"/>
-      <c r="G478" s="3"/>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A479" s="2"/>
-      <c r="B479" s="2"/>
-      <c r="E479" s="3"/>
-      <c r="F479" s="3"/>
-      <c r="G479" s="3"/>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A480" s="2"/>
-      <c r="B480" s="2"/>
-      <c r="E480" s="3"/>
-      <c r="F480" s="3"/>
-      <c r="G480" s="3"/>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A481" s="2"/>
-      <c r="B481" s="2"/>
-      <c r="E481" s="3"/>
-      <c r="F481" s="3"/>
-      <c r="G481" s="3"/>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A482" s="2"/>
-      <c r="B482" s="2"/>
-      <c r="E482" s="3"/>
-      <c r="F482" s="3"/>
-      <c r="G482" s="3"/>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A483" s="2"/>
-      <c r="B483" s="2"/>
-      <c r="E483" s="3"/>
-      <c r="F483" s="3"/>
-      <c r="G483" s="3"/>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A484" s="2"/>
-      <c r="B484" s="2"/>
-      <c r="E484" s="3"/>
-      <c r="F484" s="3"/>
-      <c r="G484" s="3"/>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A485" s="2"/>
-      <c r="B485" s="2"/>
-      <c r="E485" s="3"/>
-      <c r="F485" s="3"/>
-      <c r="G485" s="3"/>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A486" s="2"/>
-      <c r="B486" s="2"/>
-      <c r="E486" s="3"/>
-      <c r="F486" s="3"/>
-      <c r="G486" s="3"/>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A487" s="2"/>
-      <c r="B487" s="2"/>
-      <c r="E487" s="3"/>
-      <c r="F487" s="3"/>
-      <c r="G487" s="3"/>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A488" s="2"/>
-      <c r="B488" s="2"/>
-      <c r="E488" s="3"/>
-      <c r="F488" s="3"/>
-      <c r="G488" s="3"/>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A489" s="2"/>
-      <c r="B489" s="2"/>
-      <c r="E489" s="3"/>
-      <c r="F489" s="3"/>
-      <c r="G489" s="3"/>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A490" s="2"/>
-      <c r="B490" s="2"/>
-      <c r="E490" s="3"/>
-      <c r="F490" s="3"/>
-      <c r="G490" s="3"/>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A491" s="2"/>
-      <c r="B491" s="2"/>
-      <c r="E491" s="3"/>
-      <c r="F491" s="3"/>
-      <c r="G491" s="3"/>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A492" s="2"/>
-      <c r="B492" s="2"/>
-      <c r="E492" s="3"/>
-      <c r="F492" s="3"/>
-      <c r="G492" s="3"/>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A493" s="2"/>
-      <c r="B493" s="2"/>
-      <c r="E493" s="3"/>
-      <c r="F493" s="3"/>
-      <c r="G493" s="3"/>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A494" s="2"/>
-      <c r="B494" s="2"/>
-      <c r="E494" s="3"/>
-      <c r="F494" s="3"/>
-      <c r="G494" s="3"/>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A495" s="2"/>
-      <c r="B495" s="2"/>
-      <c r="E495" s="3"/>
-      <c r="F495" s="3"/>
-      <c r="G495" s="3"/>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A496" s="2"/>
-      <c r="B496" s="2"/>
-      <c r="E496" s="3"/>
-      <c r="F496" s="3"/>
-      <c r="G496" s="3"/>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A497" s="2"/>
-      <c r="B497" s="2"/>
-      <c r="E497" s="3"/>
-      <c r="F497" s="3"/>
-      <c r="G497" s="3"/>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A498" s="2"/>
-      <c r="B498" s="2"/>
-      <c r="E498" s="3"/>
-      <c r="F498" s="3"/>
-      <c r="G498" s="3"/>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A499" s="2"/>
-      <c r="B499" s="2"/>
-      <c r="E499" s="3"/>
-      <c r="F499" s="3"/>
-      <c r="G499" s="3"/>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A500" s="2"/>
-      <c r="B500" s="2"/>
-      <c r="E500" s="3"/>
-      <c r="F500" s="3"/>
-      <c r="G500" s="3"/>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A501" s="2"/>
-      <c r="B501" s="2"/>
-      <c r="E501" s="3"/>
-      <c r="F501" s="3"/>
-      <c r="G501" s="3"/>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A502" s="2"/>
-      <c r="B502" s="2"/>
-      <c r="E502" s="3"/>
-      <c r="F502" s="3"/>
-      <c r="G502" s="3"/>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A503" s="2"/>
-      <c r="B503" s="2"/>
-      <c r="E503" s="3"/>
-      <c r="F503" s="3"/>
-      <c r="G503" s="3"/>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A504" s="2"/>
-      <c r="B504" s="2"/>
-      <c r="E504" s="3"/>
-      <c r="F504" s="3"/>
-      <c r="G504" s="3"/>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A505" s="2"/>
-      <c r="B505" s="2"/>
-      <c r="E505" s="3"/>
-      <c r="F505" s="3"/>
-      <c r="G505" s="3"/>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A506" s="2"/>
-      <c r="B506" s="2"/>
-      <c r="E506" s="3"/>
-      <c r="F506" s="3"/>
-      <c r="G506" s="3"/>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A507" s="2"/>
-      <c r="B507" s="2"/>
-      <c r="E507" s="3"/>
-      <c r="F507" s="3"/>
-      <c r="G507" s="3"/>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A508" s="2"/>
-      <c r="B508" s="2"/>
-      <c r="E508" s="3"/>
-      <c r="F508" s="3"/>
-      <c r="G508" s="3"/>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A509" s="2"/>
-      <c r="B509" s="2"/>
-      <c r="E509" s="3"/>
-      <c r="F509" s="3"/>
-      <c r="G509" s="3"/>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A510" s="2"/>
-      <c r="B510" s="2"/>
-      <c r="E510" s="3"/>
-      <c r="F510" s="3"/>
-      <c r="G510" s="3"/>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A511" s="2"/>
-      <c r="B511" s="2"/>
-      <c r="E511" s="3"/>
-      <c r="F511" s="3"/>
-      <c r="G511" s="3"/>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A512" s="2"/>
-      <c r="B512" s="2"/>
-      <c r="E512" s="3"/>
-      <c r="F512" s="3"/>
-      <c r="G512" s="3"/>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A513" s="2"/>
-      <c r="B513" s="2"/>
-      <c r="E513" s="3"/>
-      <c r="F513" s="3"/>
-      <c r="G513" s="3"/>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A514" s="2"/>
-      <c r="B514" s="2"/>
-      <c r="E514" s="3"/>
-      <c r="F514" s="3"/>
-      <c r="G514" s="3"/>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A515" s="2"/>
-      <c r="B515" s="2"/>
-      <c r="E515" s="3"/>
-      <c r="F515" s="3"/>
-      <c r="G515" s="3"/>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A516" s="2"/>
-      <c r="B516" s="2"/>
-      <c r="E516" s="3"/>
-      <c r="F516" s="3"/>
-      <c r="G516" s="3"/>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A517" s="2"/>
-      <c r="B517" s="2"/>
-      <c r="E517" s="3"/>
-      <c r="F517" s="3"/>
-      <c r="G517" s="3"/>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A518" s="2"/>
-      <c r="B518" s="2"/>
-      <c r="E518" s="3"/>
-      <c r="F518" s="3"/>
-      <c r="G518" s="3"/>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A519" s="2"/>
-      <c r="B519" s="2"/>
-      <c r="E519" s="3"/>
-      <c r="F519" s="3"/>
-      <c r="G519" s="3"/>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A520" s="2"/>
-      <c r="B520" s="2"/>
-      <c r="E520" s="3"/>
-      <c r="F520" s="3"/>
-      <c r="G520" s="3"/>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A521" s="2"/>
-      <c r="B521" s="2"/>
-      <c r="E521" s="3"/>
-      <c r="F521" s="3"/>
-      <c r="G521" s="3"/>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A522" s="2"/>
-      <c r="B522" s="2"/>
-      <c r="E522" s="3"/>
-      <c r="F522" s="3"/>
-      <c r="G522" s="3"/>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A523" s="2"/>
-      <c r="B523" s="2"/>
-      <c r="E523" s="3"/>
-      <c r="F523" s="3"/>
-      <c r="G523" s="3"/>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A524" s="2"/>
-      <c r="B524" s="2"/>
-      <c r="E524" s="3"/>
-      <c r="F524" s="3"/>
-      <c r="G524" s="3"/>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A525" s="2"/>
-      <c r="B525" s="2"/>
-      <c r="E525" s="3"/>
-      <c r="F525" s="3"/>
-      <c r="G525" s="3"/>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A526" s="2"/>
-      <c r="B526" s="2"/>
-      <c r="E526" s="3"/>
-      <c r="F526" s="3"/>
-      <c r="G526" s="3"/>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A527" s="2"/>
-      <c r="B527" s="2"/>
-      <c r="E527" s="3"/>
-      <c r="F527" s="3"/>
-      <c r="G527" s="3"/>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A528" s="2"/>
-      <c r="B528" s="2"/>
-      <c r="E528" s="3"/>
-      <c r="F528" s="3"/>
-      <c r="G528" s="3"/>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A529" s="2"/>
-      <c r="B529" s="2"/>
-      <c r="E529" s="3"/>
-      <c r="F529" s="3"/>
-      <c r="G529" s="3"/>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A530" s="2"/>
-      <c r="B530" s="2"/>
-      <c r="E530" s="3"/>
-      <c r="F530" s="3"/>
-      <c r="G530" s="3"/>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A531" s="2"/>
-      <c r="B531" s="2"/>
-      <c r="E531" s="3"/>
-      <c r="F531" s="3"/>
-      <c r="G531" s="3"/>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A532" s="2"/>
-      <c r="B532" s="2"/>
-      <c r="E532" s="3"/>
-      <c r="F532" s="3"/>
-      <c r="G532" s="3"/>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A533" s="2"/>
-      <c r="B533" s="2"/>
-      <c r="E533" s="3"/>
-      <c r="F533" s="3"/>
-      <c r="G533" s="3"/>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A534" s="2"/>
-      <c r="B534" s="2"/>
-      <c r="E534" s="3"/>
-      <c r="F534" s="3"/>
-      <c r="G534" s="3"/>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A535" s="2"/>
-      <c r="B535" s="2"/>
-      <c r="E535" s="3"/>
-      <c r="F535" s="3"/>
-      <c r="G535" s="3"/>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A536" s="2"/>
-      <c r="B536" s="2"/>
-      <c r="E536" s="3"/>
-      <c r="F536" s="3"/>
-      <c r="G536" s="3"/>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A537" s="2"/>
-      <c r="B537" s="2"/>
-      <c r="E537" s="3"/>
-      <c r="F537" s="3"/>
-      <c r="G537" s="3"/>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A538" s="2"/>
-      <c r="B538" s="2"/>
-      <c r="E538" s="3"/>
-      <c r="F538" s="3"/>
-      <c r="G538" s="3"/>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A539" s="2"/>
-      <c r="B539" s="2"/>
-      <c r="E539" s="3"/>
-      <c r="F539" s="3"/>
-      <c r="G539" s="3"/>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A540" s="2"/>
-      <c r="B540" s="2"/>
-      <c r="E540" s="3"/>
-      <c r="F540" s="3"/>
-      <c r="G540" s="3"/>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A541" s="2"/>
-      <c r="B541" s="2"/>
-      <c r="E541" s="3"/>
-      <c r="F541" s="3"/>
-      <c r="G541" s="3"/>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A542" s="2"/>
-      <c r="B542" s="2"/>
-      <c r="E542" s="3"/>
-      <c r="F542" s="3"/>
-      <c r="G542" s="3"/>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A543" s="2"/>
-      <c r="B543" s="2"/>
-      <c r="E543" s="3"/>
-      <c r="F543" s="3"/>
-      <c r="G543" s="3"/>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A544" s="2"/>
-      <c r="B544" s="2"/>
-      <c r="E544" s="3"/>
-      <c r="F544" s="3"/>
-      <c r="G544" s="3"/>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A545" s="2"/>
-      <c r="B545" s="2"/>
-      <c r="E545" s="3"/>
-      <c r="F545" s="3"/>
-      <c r="G545" s="3"/>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A546" s="2"/>
-      <c r="B546" s="2"/>
-      <c r="E546" s="3"/>
-      <c r="F546" s="3"/>
-      <c r="G546" s="3"/>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A547" s="2"/>
-      <c r="B547" s="2"/>
-      <c r="E547" s="3"/>
-      <c r="F547" s="3"/>
-      <c r="G547" s="3"/>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A548" s="2"/>
-      <c r="B548" s="2"/>
-      <c r="E548" s="3"/>
-      <c r="F548" s="3"/>
-      <c r="G548" s="3"/>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A549" s="2"/>
-      <c r="B549" s="2"/>
-      <c r="E549" s="3"/>
-      <c r="F549" s="3"/>
-      <c r="G549" s="3"/>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A550" s="2"/>
-      <c r="B550" s="2"/>
-      <c r="E550" s="3"/>
-      <c r="F550" s="3"/>
-      <c r="G550" s="3"/>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A551" s="2"/>
-      <c r="B551" s="2"/>
-      <c r="E551" s="3"/>
-      <c r="F551" s="3"/>
-      <c r="G551" s="3"/>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A552" s="2"/>
-      <c r="B552" s="2"/>
-      <c r="E552" s="3"/>
-      <c r="F552" s="3"/>
-      <c r="G552" s="3"/>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A553" s="2"/>
-      <c r="B553" s="2"/>
-      <c r="E553" s="3"/>
-      <c r="F553" s="3"/>
-      <c r="G553" s="3"/>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A554" s="2"/>
-      <c r="B554" s="2"/>
-      <c r="E554" s="3"/>
-      <c r="F554" s="3"/>
-      <c r="G554" s="3"/>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A555" s="2"/>
-      <c r="B555" s="2"/>
-      <c r="E555" s="3"/>
-      <c r="F555" s="3"/>
-      <c r="G555" s="3"/>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A556" s="2"/>
-      <c r="B556" s="2"/>
-      <c r="E556" s="3"/>
-      <c r="F556" s="3"/>
-      <c r="G556" s="3"/>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A557" s="2"/>
-      <c r="B557" s="2"/>
-      <c r="E557" s="3"/>
-      <c r="F557" s="3"/>
-      <c r="G557" s="3"/>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A558" s="2"/>
-      <c r="B558" s="2"/>
-      <c r="E558" s="3"/>
-      <c r="F558" s="3"/>
-      <c r="G558" s="3"/>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A559" s="2"/>
-      <c r="B559" s="2"/>
-      <c r="E559" s="3"/>
-      <c r="F559" s="3"/>
-      <c r="G559" s="3"/>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A560" s="2"/>
-      <c r="B560" s="2"/>
-      <c r="E560" s="3"/>
-      <c r="F560" s="3"/>
-      <c r="G560" s="3"/>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A561" s="2"/>
-      <c r="B561" s="2"/>
-      <c r="E561" s="3"/>
-      <c r="F561" s="3"/>
-      <c r="G561" s="3"/>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A562" s="2"/>
-      <c r="B562" s="2"/>
-      <c r="E562" s="3"/>
-      <c r="F562" s="3"/>
-      <c r="G562" s="3"/>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A563" s="2"/>
-      <c r="B563" s="2"/>
-      <c r="E563" s="3"/>
-      <c r="F563" s="3"/>
-      <c r="G563" s="3"/>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A564" s="2"/>
-      <c r="B564" s="2"/>
-      <c r="E564" s="3"/>
-      <c r="F564" s="3"/>
-      <c r="G564" s="3"/>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A565" s="2"/>
-      <c r="B565" s="2"/>
-      <c r="E565" s="3"/>
-      <c r="F565" s="3"/>
-      <c r="G565" s="3"/>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A566" s="2"/>
-      <c r="B566" s="2"/>
-      <c r="E566" s="3"/>
-      <c r="F566" s="3"/>
-      <c r="G566" s="3"/>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A567" s="2"/>
-      <c r="B567" s="2"/>
-      <c r="E567" s="3"/>
-      <c r="F567" s="3"/>
-      <c r="G567" s="3"/>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A568" s="2"/>
-      <c r="B568" s="2"/>
-      <c r="E568" s="3"/>
-      <c r="F568" s="3"/>
-      <c r="G568" s="3"/>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A569" s="2"/>
-      <c r="B569" s="2"/>
-      <c r="E569" s="3"/>
-      <c r="F569" s="3"/>
-      <c r="G569" s="3"/>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A570" s="2"/>
-      <c r="B570" s="2"/>
-      <c r="E570" s="3"/>
-      <c r="F570" s="3"/>
-      <c r="G570" s="3"/>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A571" s="2"/>
-      <c r="B571" s="2"/>
-      <c r="E571" s="3"/>
-      <c r="F571" s="3"/>
-      <c r="G571" s="3"/>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A572" s="2"/>
-      <c r="B572" s="2"/>
-      <c r="E572" s="3"/>
-      <c r="F572" s="3"/>
-      <c r="G572" s="3"/>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A573" s="2"/>
-      <c r="B573" s="2"/>
-      <c r="E573" s="3"/>
-      <c r="F573" s="3"/>
-      <c r="G573" s="3"/>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A574" s="2"/>
-      <c r="B574" s="2"/>
-      <c r="E574" s="3"/>
-      <c r="F574" s="3"/>
-      <c r="G574" s="3"/>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A575" s="2"/>
-      <c r="B575" s="2"/>
-      <c r="E575" s="3"/>
-      <c r="F575" s="3"/>
-      <c r="G575" s="3"/>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A576" s="2"/>
-      <c r="B576" s="2"/>
-      <c r="E576" s="3"/>
-      <c r="F576" s="3"/>
-      <c r="G576" s="3"/>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A577" s="2"/>
-      <c r="B577" s="2"/>
-      <c r="E577" s="3"/>
-      <c r="F577" s="3"/>
-      <c r="G577" s="3"/>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C432" s="5">
+        <v>5</v>
+      </c>
+      <c r="D432" s="5">
+        <v>36</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G432" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I432" s="5">
+        <v>1</v>
+      </c>
+      <c r="W432" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A433" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C433" s="5">
+        <v>5</v>
+      </c>
+      <c r="D433" s="5">
+        <v>36</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I433" s="5">
+        <v>1</v>
+      </c>
+      <c r="W433" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A434" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C434" s="5">
+        <v>5</v>
+      </c>
+      <c r="D434" s="5">
+        <v>37</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J434" s="5">
+        <v>1</v>
+      </c>
+      <c r="S434" s="5">
+        <v>1</v>
+      </c>
+      <c r="W434" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A435" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C435" s="5">
+        <v>5</v>
+      </c>
+      <c r="D435" s="5">
+        <v>37</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J435" s="5">
+        <v>1</v>
+      </c>
+      <c r="W435" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A436" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C436" s="5">
+        <v>5</v>
+      </c>
+      <c r="D436" s="5">
+        <v>37</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J436" s="5">
+        <v>1</v>
+      </c>
+      <c r="W436" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A437" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C437" s="5">
+        <v>5</v>
+      </c>
+      <c r="D437" s="5">
+        <v>37</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J437" s="5">
+        <v>1</v>
+      </c>
+      <c r="W437" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A438" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C438" s="5">
+        <v>5</v>
+      </c>
+      <c r="D438" s="5">
+        <v>37</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J438" s="5">
+        <v>1</v>
+      </c>
+      <c r="W438" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A439" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C439" s="5">
+        <v>5</v>
+      </c>
+      <c r="D439" s="5">
+        <v>37</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J439" s="5">
+        <v>1</v>
+      </c>
+      <c r="W439" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C440" s="5">
+        <v>5</v>
+      </c>
+      <c r="D440" s="5">
+        <v>37</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G440" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H440" s="5">
+        <v>1</v>
+      </c>
+      <c r="M440" s="5">
+        <v>1</v>
+      </c>
+      <c r="W440" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C441" s="5">
+        <v>5</v>
+      </c>
+      <c r="D441" s="5">
+        <v>37</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G441" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H441" s="5">
+        <v>1</v>
+      </c>
+      <c r="L441" s="5">
+        <v>1</v>
+      </c>
+      <c r="M441" s="5">
+        <v>1</v>
+      </c>
+      <c r="W441" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A442" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C442" s="5">
+        <v>5</v>
+      </c>
+      <c r="D442" s="5">
+        <v>37</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H442" s="5">
+        <v>1</v>
+      </c>
+      <c r="M442" s="5">
+        <v>1</v>
+      </c>
+      <c r="W442" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A443" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C443" s="5">
+        <v>5</v>
+      </c>
+      <c r="D443" s="5">
+        <v>37</v>
+      </c>
+      <c r="E443" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F443" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H443" s="5">
+        <v>1</v>
+      </c>
+      <c r="M443" s="5">
+        <v>1</v>
+      </c>
+      <c r="W443" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C444" s="5">
+        <v>5</v>
+      </c>
+      <c r="D444" s="5">
+        <v>37</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H444" s="5">
+        <v>1</v>
+      </c>
+      <c r="M444" s="5">
+        <v>1</v>
+      </c>
+      <c r="W444" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C445" s="5">
+        <v>5</v>
+      </c>
+      <c r="D445" s="5">
+        <v>37</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G445" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H445" s="5">
+        <v>1</v>
+      </c>
+      <c r="K445" s="5">
+        <v>1</v>
+      </c>
+      <c r="M445" s="5">
+        <v>1</v>
+      </c>
+      <c r="W445" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C446" s="5">
+        <v>5</v>
+      </c>
+      <c r="D446" s="5">
+        <v>38</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F446" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J446" s="5">
+        <v>1</v>
+      </c>
+      <c r="S446" s="5">
+        <v>1</v>
+      </c>
+      <c r="T446" s="5">
+        <v>2</v>
+      </c>
+      <c r="W446" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C447" s="5">
+        <v>5</v>
+      </c>
+      <c r="D447" s="5">
+        <v>38</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F447" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G447" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J447" s="5">
+        <v>1</v>
+      </c>
+      <c r="W447" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C448" s="5">
+        <v>5</v>
+      </c>
+      <c r="D448" s="5">
+        <v>38</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J448" s="5">
+        <v>1</v>
+      </c>
+      <c r="W448" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C449" s="5">
+        <v>5</v>
+      </c>
+      <c r="D449" s="5">
+        <v>38</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F449" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J449" s="5">
+        <v>1</v>
+      </c>
+      <c r="W449" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C450" s="5">
+        <v>5</v>
+      </c>
+      <c r="D450" s="5">
+        <v>38</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J450" s="5">
+        <v>1</v>
+      </c>
+      <c r="W450" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C451" s="5">
+        <v>5</v>
+      </c>
+      <c r="D451" s="5">
+        <v>38</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F451" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G451" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J451" s="5">
+        <v>1</v>
+      </c>
+      <c r="W451" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C452" s="5">
+        <v>5</v>
+      </c>
+      <c r="D452" s="5">
+        <v>38</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H452" s="5">
+        <v>1</v>
+      </c>
+      <c r="T452" s="5">
+        <v>1</v>
+      </c>
+      <c r="W452" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C453" s="5">
+        <v>5</v>
+      </c>
+      <c r="D453" s="5">
+        <v>38</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F453" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H453" s="5">
+        <v>1</v>
+      </c>
+      <c r="K453" s="5">
+        <v>1</v>
+      </c>
+      <c r="W453" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A454" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C454" s="5">
+        <v>5</v>
+      </c>
+      <c r="D454" s="5">
+        <v>38</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F454" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G454" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H454" s="5">
+        <v>1</v>
+      </c>
+      <c r="W454" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A455" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C455" s="5">
+        <v>5</v>
+      </c>
+      <c r="D455" s="5">
+        <v>38</v>
+      </c>
+      <c r="E455" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F455" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G455" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H455" s="5">
+        <v>1</v>
+      </c>
+      <c r="W455" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A456" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C456" s="5">
+        <v>5</v>
+      </c>
+      <c r="D456" s="5">
+        <v>38</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F456" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G456" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H456" s="5">
+        <v>1</v>
+      </c>
+      <c r="L456" s="5">
+        <v>1</v>
+      </c>
+      <c r="W456" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A457" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C457" s="5">
+        <v>5</v>
+      </c>
+      <c r="D457" s="5">
+        <v>38</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G457" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H457" s="5">
+        <v>1</v>
+      </c>
+      <c r="W457" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A458" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C458" s="5">
+        <v>5</v>
+      </c>
+      <c r="D458" s="5">
+        <v>39</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J458" s="5">
+        <v>1</v>
+      </c>
+      <c r="S458" s="5">
+        <v>2</v>
+      </c>
+      <c r="T458" s="5">
+        <v>1</v>
+      </c>
+      <c r="W458" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A459" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C459" s="5">
+        <v>5</v>
+      </c>
+      <c r="D459" s="5">
+        <v>39</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F459" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J459" s="5">
+        <v>1</v>
+      </c>
+      <c r="W459" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A460" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C460" s="5">
+        <v>5</v>
+      </c>
+      <c r="D460" s="5">
+        <v>39</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F460" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G460" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J460" s="5">
+        <v>1</v>
+      </c>
+      <c r="W460" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A461" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C461" s="5">
+        <v>5</v>
+      </c>
+      <c r="D461" s="5">
+        <v>39</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F461" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J461" s="5">
+        <v>1</v>
+      </c>
+      <c r="W461" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A462" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C462" s="5">
+        <v>5</v>
+      </c>
+      <c r="D462" s="5">
+        <v>39</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F462" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G462" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J462" s="5">
+        <v>1</v>
+      </c>
+      <c r="W462" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A463" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C463" s="5">
+        <v>5</v>
+      </c>
+      <c r="D463" s="5">
+        <v>39</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F463" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G463" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J463" s="5">
+        <v>1</v>
+      </c>
+      <c r="W463" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A464" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C464" s="5">
+        <v>5</v>
+      </c>
+      <c r="D464" s="5">
+        <v>39</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F464" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H464" s="5">
+        <v>1</v>
+      </c>
+      <c r="M464" s="5">
+        <v>1</v>
+      </c>
+      <c r="T464" s="5">
+        <v>2</v>
+      </c>
+      <c r="W464" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A465" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C465" s="5">
+        <v>5</v>
+      </c>
+      <c r="D465" s="5">
+        <v>39</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F465" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H465" s="5">
+        <v>1</v>
+      </c>
+      <c r="M465" s="5">
+        <v>1</v>
+      </c>
+      <c r="W465" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A466" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C466" s="5">
+        <v>5</v>
+      </c>
+      <c r="D466" s="5">
+        <v>39</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F466" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G466" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H466" s="5">
+        <v>1</v>
+      </c>
+      <c r="K466" s="5">
+        <v>1</v>
+      </c>
+      <c r="M466" s="5">
+        <v>1</v>
+      </c>
+      <c r="W466" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A467" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C467" s="5">
+        <v>5</v>
+      </c>
+      <c r="D467" s="5">
+        <v>39</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F467" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G467" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H467" s="5">
+        <v>1</v>
+      </c>
+      <c r="L467" s="5">
+        <v>1</v>
+      </c>
+      <c r="M467" s="5">
+        <v>1</v>
+      </c>
+      <c r="W467" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A468" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C468" s="5">
+        <v>5</v>
+      </c>
+      <c r="D468" s="5">
+        <v>39</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F468" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G468" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H468" s="5">
+        <v>1</v>
+      </c>
+      <c r="K468" s="5">
+        <v>1</v>
+      </c>
+      <c r="M468" s="5">
+        <v>1</v>
+      </c>
+      <c r="W468" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A469" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C469" s="5">
+        <v>5</v>
+      </c>
+      <c r="D469" s="5">
+        <v>39</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F469" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G469" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H469" s="5">
+        <v>1</v>
+      </c>
+      <c r="L469" s="5">
+        <v>1</v>
+      </c>
+      <c r="M469" s="5">
+        <v>1</v>
+      </c>
+      <c r="W469" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A470" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C470" s="5">
+        <v>5</v>
+      </c>
+      <c r="D470" s="5">
+        <v>40</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F470" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H470" s="5">
+        <v>1</v>
+      </c>
+      <c r="M470" s="5">
+        <v>1</v>
+      </c>
+      <c r="T470" s="5">
+        <v>1</v>
+      </c>
+      <c r="W470" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A471" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C471" s="5">
+        <v>5</v>
+      </c>
+      <c r="D471" s="5">
+        <v>40</v>
+      </c>
+      <c r="E471" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F471" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G471" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H471" s="5">
+        <v>1</v>
+      </c>
+      <c r="M471" s="5">
+        <v>1</v>
+      </c>
+      <c r="W471" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A472" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C472" s="5">
+        <v>5</v>
+      </c>
+      <c r="D472" s="5">
+        <v>40</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F472" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G472" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H472" s="5">
+        <v>1</v>
+      </c>
+      <c r="K472" s="5">
+        <v>1</v>
+      </c>
+      <c r="M472" s="5">
+        <v>1</v>
+      </c>
+      <c r="W472" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A473" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C473" s="5">
+        <v>5</v>
+      </c>
+      <c r="D473" s="5">
+        <v>40</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F473" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G473" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H473" s="5">
+        <v>1</v>
+      </c>
+      <c r="M473" s="5">
+        <v>1</v>
+      </c>
+      <c r="W473" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A474" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C474" s="5">
+        <v>5</v>
+      </c>
+      <c r="D474" s="5">
+        <v>40</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F474" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G474" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H474" s="5">
+        <v>1</v>
+      </c>
+      <c r="M474" s="5">
+        <v>1</v>
+      </c>
+      <c r="W474" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A475" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C475" s="5">
+        <v>5</v>
+      </c>
+      <c r="D475" s="5">
+        <v>40</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F475" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G475" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H475" s="5">
+        <v>1</v>
+      </c>
+      <c r="K475" s="5">
+        <v>1</v>
+      </c>
+      <c r="M475" s="5">
+        <v>1</v>
+      </c>
+      <c r="W475" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A476" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C476" s="5">
+        <v>5</v>
+      </c>
+      <c r="D476" s="5">
+        <v>40</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F476" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G476" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J476" s="5">
+        <v>1</v>
+      </c>
+      <c r="S476" s="5">
+        <v>2</v>
+      </c>
+      <c r="T476" s="5">
+        <v>1</v>
+      </c>
+      <c r="W476" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A477" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C477" s="5">
+        <v>5</v>
+      </c>
+      <c r="D477" s="5">
+        <v>40</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F477" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J477" s="5">
+        <v>1</v>
+      </c>
+      <c r="R477" s="5">
+        <v>1</v>
+      </c>
+      <c r="W477" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A478" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C478" s="5">
+        <v>5</v>
+      </c>
+      <c r="D478" s="5">
+        <v>40</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F478" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G478" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J478" s="5">
+        <v>1</v>
+      </c>
+      <c r="W478" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A479" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C479" s="5">
+        <v>5</v>
+      </c>
+      <c r="D479" s="5">
+        <v>40</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F479" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G479" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J479" s="5">
+        <v>1</v>
+      </c>
+      <c r="W479" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A480" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C480" s="5">
+        <v>5</v>
+      </c>
+      <c r="D480" s="5">
+        <v>40</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F480" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G480" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J480" s="5">
+        <v>1</v>
+      </c>
+      <c r="W480" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A481" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C481" s="5">
+        <v>5</v>
+      </c>
+      <c r="D481" s="5">
+        <v>40</v>
+      </c>
+      <c r="E481" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F481" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G481" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J481" s="5">
+        <v>1</v>
+      </c>
+      <c r="W481" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A482" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C482" s="5">
+        <v>5</v>
+      </c>
+      <c r="D482" s="5">
+        <v>41</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F482" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G482" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I482" s="5">
+        <v>1</v>
+      </c>
+      <c r="S482" s="5">
+        <v>1</v>
+      </c>
+      <c r="T482" s="5">
+        <v>1</v>
+      </c>
+      <c r="W482" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A483" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C483" s="5">
+        <v>5</v>
+      </c>
+      <c r="D483" s="5">
+        <v>41</v>
+      </c>
+      <c r="E483" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F483" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G483" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I483" s="5">
+        <v>1</v>
+      </c>
+      <c r="L483" s="5">
+        <v>1</v>
+      </c>
+      <c r="W483" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A484" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C484" s="5">
+        <v>5</v>
+      </c>
+      <c r="D484" s="5">
+        <v>41</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F484" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G484" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I484" s="5">
+        <v>1</v>
+      </c>
+      <c r="W484" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A485" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C485" s="5">
+        <v>5</v>
+      </c>
+      <c r="D485" s="5">
+        <v>41</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F485" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G485" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I485" s="5">
+        <v>1</v>
+      </c>
+      <c r="K485" s="5">
+        <v>1</v>
+      </c>
+      <c r="W485" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A486" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C486" s="5">
+        <v>5</v>
+      </c>
+      <c r="D486" s="5">
+        <v>41</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F486" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G486" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I486" s="5">
+        <v>1</v>
+      </c>
+      <c r="W486" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A487" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C487" s="5">
+        <v>5</v>
+      </c>
+      <c r="D487" s="5">
+        <v>41</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F487" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G487" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I487" s="5">
+        <v>1</v>
+      </c>
+      <c r="W487" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A488" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C488" s="5">
+        <v>5</v>
+      </c>
+      <c r="D488" s="5">
+        <v>41</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F488" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I488" s="5">
+        <v>1</v>
+      </c>
+      <c r="S488" s="5">
+        <v>1</v>
+      </c>
+      <c r="T488" s="5">
+        <v>1</v>
+      </c>
+      <c r="W488" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A489" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C489" s="5">
+        <v>5</v>
+      </c>
+      <c r="D489" s="5">
+        <v>41</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F489" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G489" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I489" s="5">
+        <v>1</v>
+      </c>
+      <c r="W489" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A490" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C490" s="5">
+        <v>5</v>
+      </c>
+      <c r="D490" s="5">
+        <v>41</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F490" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G490" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I490" s="5">
+        <v>1</v>
+      </c>
+      <c r="W490" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A491" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C491" s="5">
+        <v>5</v>
+      </c>
+      <c r="D491" s="5">
+        <v>41</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F491" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G491" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I491" s="5">
+        <v>1</v>
+      </c>
+      <c r="K491" s="5">
+        <v>1</v>
+      </c>
+      <c r="W491" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A492" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C492" s="5">
+        <v>5</v>
+      </c>
+      <c r="D492" s="5">
+        <v>41</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F492" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G492" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I492" s="5">
+        <v>1</v>
+      </c>
+      <c r="W492" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A493" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C493" s="5">
+        <v>5</v>
+      </c>
+      <c r="D493" s="5">
+        <v>41</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F493" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G493" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I493" s="5">
+        <v>1</v>
+      </c>
+      <c r="W493" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A494" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C494" s="5">
+        <v>5</v>
+      </c>
+      <c r="D494" s="5">
+        <v>42</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J494" s="5">
+        <v>1</v>
+      </c>
+      <c r="S494" s="5">
+        <v>2</v>
+      </c>
+      <c r="T494" s="5">
+        <v>1</v>
+      </c>
+      <c r="W494" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A495" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C495" s="5">
+        <v>5</v>
+      </c>
+      <c r="D495" s="5">
+        <v>42</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F495" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J495" s="5">
+        <v>1</v>
+      </c>
+      <c r="W495" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A496" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C496" s="5">
+        <v>5</v>
+      </c>
+      <c r="D496" s="5">
+        <v>42</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F496" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J496" s="5">
+        <v>1</v>
+      </c>
+      <c r="W496" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A497" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C497" s="5">
+        <v>5</v>
+      </c>
+      <c r="D497" s="5">
+        <v>42</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J497" s="5">
+        <v>1</v>
+      </c>
+      <c r="W497" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A498" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C498" s="5">
+        <v>5</v>
+      </c>
+      <c r="D498" s="5">
+        <v>42</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J498" s="5">
+        <v>1</v>
+      </c>
+      <c r="K498" s="5">
+        <v>1</v>
+      </c>
+      <c r="W498" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A499" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C499" s="5">
+        <v>5</v>
+      </c>
+      <c r="D499" s="5">
+        <v>42</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G499" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J499" s="5">
+        <v>1</v>
+      </c>
+      <c r="L499" s="5">
+        <v>1</v>
+      </c>
+      <c r="W499" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A500" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C500" s="5">
+        <v>5</v>
+      </c>
+      <c r="D500" s="5">
+        <v>42</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H500" s="5">
+        <v>1</v>
+      </c>
+      <c r="S500" s="5">
+        <v>1</v>
+      </c>
+      <c r="T500" s="5">
+        <v>1</v>
+      </c>
+      <c r="W500" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A501" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C501" s="5">
+        <v>5</v>
+      </c>
+      <c r="D501" s="5">
+        <v>42</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G501" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H501" s="5">
+        <v>1</v>
+      </c>
+      <c r="L501" s="5">
+        <v>1</v>
+      </c>
+      <c r="W501" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A502" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C502" s="5">
+        <v>5</v>
+      </c>
+      <c r="D502" s="5">
+        <v>42</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F502" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G502" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H502" s="5">
+        <v>1</v>
+      </c>
+      <c r="W502" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A503" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C503" s="5">
+        <v>5</v>
+      </c>
+      <c r="D503" s="5">
+        <v>42</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F503" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G503" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H503" s="5">
+        <v>1</v>
+      </c>
+      <c r="L503" s="5">
+        <v>1</v>
+      </c>
+      <c r="W503" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A504" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C504" s="5">
+        <v>5</v>
+      </c>
+      <c r="D504" s="5">
+        <v>42</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F504" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H504" s="5">
+        <v>1</v>
+      </c>
+      <c r="K504" s="5">
+        <v>1</v>
+      </c>
+      <c r="W504" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A505" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C505" s="5">
+        <v>5</v>
+      </c>
+      <c r="D505" s="5">
+        <v>42</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F505" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G505" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H505" s="5">
+        <v>1</v>
+      </c>
+      <c r="K505" s="5">
+        <v>1</v>
+      </c>
+      <c r="W505" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A506" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C506" s="5">
+        <v>5</v>
+      </c>
+      <c r="D506" s="5">
+        <v>43</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F506" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G506" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I506" s="5">
+        <v>1</v>
+      </c>
+      <c r="M506" s="5">
+        <v>1</v>
+      </c>
+      <c r="T506" s="5">
+        <v>2</v>
+      </c>
+      <c r="W506" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A507" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C507" s="5">
+        <v>5</v>
+      </c>
+      <c r="D507" s="5">
+        <v>43</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F507" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G507" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I507" s="5">
+        <v>1</v>
+      </c>
+      <c r="M507" s="5">
+        <v>1</v>
+      </c>
+      <c r="W507" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A508" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C508" s="5">
+        <v>5</v>
+      </c>
+      <c r="D508" s="5">
+        <v>43</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F508" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G508" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I508" s="5">
+        <v>1</v>
+      </c>
+      <c r="M508" s="5">
+        <v>1</v>
+      </c>
+      <c r="W508" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A509" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C509" s="5">
+        <v>5</v>
+      </c>
+      <c r="D509" s="5">
+        <v>43</v>
+      </c>
+      <c r="E509" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F509" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G509" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I509" s="5">
+        <v>1</v>
+      </c>
+      <c r="M509" s="5">
+        <v>1</v>
+      </c>
+      <c r="W509" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A510" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C510" s="5">
+        <v>5</v>
+      </c>
+      <c r="D510" s="5">
+        <v>43</v>
+      </c>
+      <c r="E510" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F510" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G510" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I510" s="5">
+        <v>1</v>
+      </c>
+      <c r="M510" s="5">
+        <v>1</v>
+      </c>
+      <c r="W510" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A511" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C511" s="5">
+        <v>5</v>
+      </c>
+      <c r="D511" s="5">
+        <v>43</v>
+      </c>
+      <c r="E511" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F511" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G511" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I511" s="5">
+        <v>1</v>
+      </c>
+      <c r="M511" s="5">
+        <v>1</v>
+      </c>
+      <c r="W511" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A512" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C512" s="5">
+        <v>5</v>
+      </c>
+      <c r="D512" s="5">
+        <v>43</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F512" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G512" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I512" s="5">
+        <v>1</v>
+      </c>
+      <c r="M512" s="5">
+        <v>1</v>
+      </c>
+      <c r="T512" s="5">
+        <v>1</v>
+      </c>
+      <c r="W512" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A513" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C513" s="5">
+        <v>5</v>
+      </c>
+      <c r="D513" s="5">
+        <v>43</v>
+      </c>
+      <c r="E513" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F513" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G513" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I513" s="5">
+        <v>1</v>
+      </c>
+      <c r="M513" s="5">
+        <v>1</v>
+      </c>
+      <c r="W513" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A514" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C514" s="5">
+        <v>5</v>
+      </c>
+      <c r="D514" s="5">
+        <v>43</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F514" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G514" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I514" s="5">
+        <v>1</v>
+      </c>
+      <c r="M514" s="5">
+        <v>1</v>
+      </c>
+      <c r="W514" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A515" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C515" s="5">
+        <v>5</v>
+      </c>
+      <c r="D515" s="5">
+        <v>43</v>
+      </c>
+      <c r="E515" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F515" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G515" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I515" s="5">
+        <v>1</v>
+      </c>
+      <c r="M515" s="5">
+        <v>1</v>
+      </c>
+      <c r="W515" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A516" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C516" s="5">
+        <v>5</v>
+      </c>
+      <c r="D516" s="5">
+        <v>43</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F516" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G516" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I516" s="5">
+        <v>1</v>
+      </c>
+      <c r="M516" s="5">
+        <v>1</v>
+      </c>
+      <c r="W516" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A517" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C517" s="5">
+        <v>5</v>
+      </c>
+      <c r="D517" s="5">
+        <v>43</v>
+      </c>
+      <c r="E517" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F517" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G517" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I517" s="5">
+        <v>1</v>
+      </c>
+      <c r="M517" s="5">
+        <v>1</v>
+      </c>
+      <c r="W517" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A518" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C518" s="5">
+        <v>5</v>
+      </c>
+      <c r="D518" s="5">
+        <v>44</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F518" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G518" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J518" s="5">
+        <v>1</v>
+      </c>
+      <c r="S518" s="5">
+        <v>2</v>
+      </c>
+      <c r="T518" s="5">
+        <v>1</v>
+      </c>
+      <c r="W518" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A519" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C519" s="5">
+        <v>5</v>
+      </c>
+      <c r="D519" s="5">
+        <v>44</v>
+      </c>
+      <c r="E519" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F519" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G519" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J519" s="5">
+        <v>1</v>
+      </c>
+      <c r="W519" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A520" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C520" s="5">
+        <v>5</v>
+      </c>
+      <c r="D520" s="5">
+        <v>44</v>
+      </c>
+      <c r="E520" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F520" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G520" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J520" s="5">
+        <v>1</v>
+      </c>
+      <c r="W520" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A521" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C521" s="5">
+        <v>5</v>
+      </c>
+      <c r="D521" s="5">
+        <v>44</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F521" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G521" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J521" s="5">
+        <v>1</v>
+      </c>
+      <c r="W521" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A522" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C522" s="5">
+        <v>5</v>
+      </c>
+      <c r="D522" s="5">
+        <v>44</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F522" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G522" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J522" s="5">
+        <v>1</v>
+      </c>
+      <c r="W522" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A523" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C523" s="5">
+        <v>5</v>
+      </c>
+      <c r="D523" s="5">
+        <v>44</v>
+      </c>
+      <c r="E523" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F523" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G523" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J523" s="5">
+        <v>1</v>
+      </c>
+      <c r="W523" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A524" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C524" s="5">
+        <v>5</v>
+      </c>
+      <c r="D524" s="5">
+        <v>44</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F524" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G524" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H524" s="5">
+        <v>1</v>
+      </c>
+      <c r="M524" s="5">
+        <v>1</v>
+      </c>
+      <c r="W524" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A525" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C525" s="5">
+        <v>5</v>
+      </c>
+      <c r="D525" s="5">
+        <v>44</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F525" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G525" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H525" s="5">
+        <v>1</v>
+      </c>
+      <c r="K525" s="5">
+        <v>1</v>
+      </c>
+      <c r="L525" s="5">
+        <v>1</v>
+      </c>
+      <c r="M525" s="5">
+        <v>1</v>
+      </c>
+      <c r="W525" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A526" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C526" s="5">
+        <v>5</v>
+      </c>
+      <c r="D526" s="5">
+        <v>44</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F526" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G526" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H526" s="5">
+        <v>1</v>
+      </c>
+      <c r="K526" s="5">
+        <v>1</v>
+      </c>
+      <c r="M526" s="5">
+        <v>1</v>
+      </c>
+      <c r="W526" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A527" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C527" s="5">
+        <v>5</v>
+      </c>
+      <c r="D527" s="5">
+        <v>44</v>
+      </c>
+      <c r="E527" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F527" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H527" s="5">
+        <v>1</v>
+      </c>
+      <c r="L527" s="5">
+        <v>1</v>
+      </c>
+      <c r="M527" s="5">
+        <v>1</v>
+      </c>
+      <c r="O527" s="5">
+        <v>1</v>
+      </c>
+      <c r="W527" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A528" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C528" s="5">
+        <v>5</v>
+      </c>
+      <c r="D528" s="5">
+        <v>44</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F528" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H528" s="5">
+        <v>1</v>
+      </c>
+      <c r="M528" s="5">
+        <v>1</v>
+      </c>
+      <c r="W528" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A529" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C529" s="5">
+        <v>5</v>
+      </c>
+      <c r="D529" s="5">
+        <v>44</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F529" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H529" s="5">
+        <v>1</v>
+      </c>
+      <c r="M529" s="5">
+        <v>1</v>
+      </c>
+      <c r="W529" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A530" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C530" s="5">
+        <v>5</v>
+      </c>
+      <c r="D530" s="5">
+        <v>45</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F530" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I530" s="5">
+        <v>1</v>
+      </c>
+      <c r="S530" s="5">
+        <v>2</v>
+      </c>
+      <c r="W530" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A531" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C531" s="5">
+        <v>5</v>
+      </c>
+      <c r="D531" s="5">
+        <v>45</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F531" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I531" s="5">
+        <v>1</v>
+      </c>
+      <c r="K531" s="5">
+        <v>1</v>
+      </c>
+      <c r="W531" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A532" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C532" s="5">
+        <v>5</v>
+      </c>
+      <c r="D532" s="5">
+        <v>45</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I532" s="5">
+        <v>1</v>
+      </c>
+      <c r="W532" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A533" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C533" s="5">
+        <v>5</v>
+      </c>
+      <c r="D533" s="5">
+        <v>45</v>
+      </c>
+      <c r="E533" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F533" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G533" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I533" s="5">
+        <v>1</v>
+      </c>
+      <c r="W533" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A534" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C534" s="5">
+        <v>5</v>
+      </c>
+      <c r="D534" s="5">
+        <v>45</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F534" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G534" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I534" s="5">
+        <v>1</v>
+      </c>
+      <c r="K534" s="5">
+        <v>1</v>
+      </c>
+      <c r="W534" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A535" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C535" s="5">
+        <v>5</v>
+      </c>
+      <c r="D535" s="5">
+        <v>45</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F535" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G535" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I535" s="5">
+        <v>1</v>
+      </c>
+      <c r="W535" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A536" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C536" s="5">
+        <v>5</v>
+      </c>
+      <c r="D536" s="5">
+        <v>45</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F536" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I536" s="5">
+        <v>1</v>
+      </c>
+      <c r="S536" s="5">
+        <v>2</v>
+      </c>
+      <c r="T536" s="5">
+        <v>1</v>
+      </c>
+      <c r="W536" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A537" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C537" s="5">
+        <v>5</v>
+      </c>
+      <c r="D537" s="5">
+        <v>45</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F537" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G537" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I537" s="5">
+        <v>1</v>
+      </c>
+      <c r="W537" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A538" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C538" s="5">
+        <v>5</v>
+      </c>
+      <c r="D538" s="5">
+        <v>45</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G538" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I538" s="5">
+        <v>1</v>
+      </c>
+      <c r="W538" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A539" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C539" s="5">
+        <v>5</v>
+      </c>
+      <c r="D539" s="5">
+        <v>45</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F539" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G539" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I539" s="5">
+        <v>1</v>
+      </c>
+      <c r="K539" s="5">
+        <v>1</v>
+      </c>
+      <c r="W539" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A540" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C540" s="5">
+        <v>5</v>
+      </c>
+      <c r="D540" s="5">
+        <v>45</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F540" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G540" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I540" s="5">
+        <v>1</v>
+      </c>
+      <c r="L540" s="5">
+        <v>1</v>
+      </c>
+      <c r="W540" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A541" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C541" s="5">
+        <v>5</v>
+      </c>
+      <c r="D541" s="5">
+        <v>45</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G541" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I541" s="5">
+        <v>1</v>
+      </c>
+      <c r="K541" s="5">
+        <v>1</v>
+      </c>
+      <c r="W541" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A542" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C542" s="5">
+        <v>5</v>
+      </c>
+      <c r="D542" s="5">
+        <v>46</v>
+      </c>
+      <c r="E542" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F542" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G542" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I542" s="5">
+        <v>1</v>
+      </c>
+      <c r="M542" s="5">
+        <v>1</v>
+      </c>
+      <c r="W542" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A543" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C543" s="5">
+        <v>5</v>
+      </c>
+      <c r="D543" s="5">
+        <v>46</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F543" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G543" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I543" s="5">
+        <v>1</v>
+      </c>
+      <c r="M543" s="5">
+        <v>1</v>
+      </c>
+      <c r="W543" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A544" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C544" s="5">
+        <v>5</v>
+      </c>
+      <c r="D544" s="5">
+        <v>46</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F544" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G544" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I544" s="5">
+        <v>1</v>
+      </c>
+      <c r="M544" s="5">
+        <v>1</v>
+      </c>
+      <c r="W544" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A545" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C545" s="5">
+        <v>5</v>
+      </c>
+      <c r="D545" s="5">
+        <v>46</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F545" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G545" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I545" s="5">
+        <v>1</v>
+      </c>
+      <c r="M545" s="5">
+        <v>1</v>
+      </c>
+      <c r="P545" s="5">
+        <v>1</v>
+      </c>
+      <c r="W545" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A546" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C546" s="5">
+        <v>5</v>
+      </c>
+      <c r="D546" s="5">
+        <v>46</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F546" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G546" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I546" s="5">
+        <v>1</v>
+      </c>
+      <c r="M546" s="5">
+        <v>1</v>
+      </c>
+      <c r="W546" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A547" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C547" s="5">
+        <v>5</v>
+      </c>
+      <c r="D547" s="5">
+        <v>46</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F547" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G547" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I547" s="5">
+        <v>1</v>
+      </c>
+      <c r="M547" s="5">
+        <v>1</v>
+      </c>
+      <c r="W547" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A548" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C548" s="5">
+        <v>5</v>
+      </c>
+      <c r="D548" s="5">
+        <v>46</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F548" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G548" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I548" s="5">
+        <v>1</v>
+      </c>
+      <c r="M548" s="5">
+        <v>1</v>
+      </c>
+      <c r="T548" s="5">
+        <v>1</v>
+      </c>
+      <c r="W548" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A549" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C549" s="5">
+        <v>5</v>
+      </c>
+      <c r="D549" s="5">
+        <v>46</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F549" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G549" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I549" s="5">
+        <v>1</v>
+      </c>
+      <c r="M549" s="5">
+        <v>1</v>
+      </c>
+      <c r="W549" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A550" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C550" s="5">
+        <v>5</v>
+      </c>
+      <c r="D550" s="5">
+        <v>46</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F550" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G550" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I550" s="5">
+        <v>1</v>
+      </c>
+      <c r="M550" s="5">
+        <v>1</v>
+      </c>
+      <c r="W550" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A551" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C551" s="5">
+        <v>5</v>
+      </c>
+      <c r="D551" s="5">
+        <v>46</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F551" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I551" s="5">
+        <v>1</v>
+      </c>
+      <c r="M551" s="5">
+        <v>1</v>
+      </c>
+      <c r="P551" s="5">
+        <v>1</v>
+      </c>
+      <c r="W551" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A552" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C552" s="5">
+        <v>5</v>
+      </c>
+      <c r="D552" s="5">
+        <v>46</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F552" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G552" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I552" s="5">
+        <v>1</v>
+      </c>
+      <c r="M552" s="5">
+        <v>1</v>
+      </c>
+      <c r="W552" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A553" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C553" s="5">
+        <v>5</v>
+      </c>
+      <c r="D553" s="5">
+        <v>46</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F553" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G553" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I553" s="5">
+        <v>1</v>
+      </c>
+      <c r="M553" s="5">
+        <v>1</v>
+      </c>
+      <c r="W553" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A554" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C554" s="5">
+        <v>5</v>
+      </c>
+      <c r="D554" s="5">
+        <v>47</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F554" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H554" s="5">
+        <v>1</v>
+      </c>
+      <c r="S554" s="5">
+        <v>1</v>
+      </c>
+      <c r="W554" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A555" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C555" s="5">
+        <v>5</v>
+      </c>
+      <c r="D555" s="5">
+        <v>47</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F555" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H555" s="5">
+        <v>1</v>
+      </c>
+      <c r="W555" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A556" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C556" s="5">
+        <v>5</v>
+      </c>
+      <c r="D556" s="5">
+        <v>47</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F556" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H556" s="5">
+        <v>1</v>
+      </c>
+      <c r="K556" s="5">
+        <v>2</v>
+      </c>
+      <c r="W556" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A557" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C557" s="5">
+        <v>5</v>
+      </c>
+      <c r="D557" s="5">
+        <v>47</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F557" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G557" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H557" s="5">
+        <v>1</v>
+      </c>
+      <c r="L557" s="5">
+        <v>2</v>
+      </c>
+      <c r="W557" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A558" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C558" s="5">
+        <v>5</v>
+      </c>
+      <c r="D558" s="5">
+        <v>47</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F558" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G558" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H558" s="5">
+        <v>1</v>
+      </c>
+      <c r="W558" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A559" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C559" s="5">
+        <v>5</v>
+      </c>
+      <c r="D559" s="5">
+        <v>47</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F559" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G559" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H559" s="5">
+        <v>1</v>
+      </c>
+      <c r="K559" s="5">
+        <v>1</v>
+      </c>
+      <c r="W559" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A560" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C560" s="5">
+        <v>5</v>
+      </c>
+      <c r="D560" s="5">
+        <v>47</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F560" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G560" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J560" s="5">
+        <v>1</v>
+      </c>
+      <c r="S560" s="5">
+        <v>3</v>
+      </c>
+      <c r="W560" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A561" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C561" s="5">
+        <v>5</v>
+      </c>
+      <c r="D561" s="5">
+        <v>47</v>
+      </c>
+      <c r="E561" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F561" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G561" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J561" s="5">
+        <v>1</v>
+      </c>
+      <c r="W561" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A562" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C562" s="5">
+        <v>5</v>
+      </c>
+      <c r="D562" s="5">
+        <v>47</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F562" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G562" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J562" s="5">
+        <v>1</v>
+      </c>
+      <c r="V562" s="5">
+        <v>1</v>
+      </c>
+      <c r="W562" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A563" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C563" s="5">
+        <v>5</v>
+      </c>
+      <c r="D563" s="5">
+        <v>47</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F563" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G563" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J563" s="5">
+        <v>1</v>
+      </c>
+      <c r="V563" s="5">
+        <v>1</v>
+      </c>
+      <c r="W563" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A564" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C564" s="5">
+        <v>5</v>
+      </c>
+      <c r="D564" s="5">
+        <v>47</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F564" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G564" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J564" s="5">
+        <v>1</v>
+      </c>
+      <c r="L564" s="5">
+        <v>1</v>
+      </c>
+      <c r="V564" s="5">
+        <v>1</v>
+      </c>
+      <c r="W564" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A565" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C565" s="5">
+        <v>5</v>
+      </c>
+      <c r="D565" s="5">
+        <v>47</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F565" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J565" s="5">
+        <v>1</v>
+      </c>
+      <c r="K565" s="5">
+        <v>1</v>
+      </c>
+      <c r="W565" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A566" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C566" s="5">
+        <v>5</v>
+      </c>
+      <c r="D566" s="5">
+        <v>48</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F566" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G566" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I566" s="5">
+        <v>1</v>
+      </c>
+      <c r="S566" s="5">
+        <v>1</v>
+      </c>
+      <c r="W566" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="567" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A567" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C567" s="5">
+        <v>5</v>
+      </c>
+      <c r="D567" s="5">
+        <v>48</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F567" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G567" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I567" s="5">
+        <v>1</v>
+      </c>
+      <c r="K567" s="5">
+        <v>1</v>
+      </c>
+      <c r="W567" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="568" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A568" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C568" s="5">
+        <v>5</v>
+      </c>
+      <c r="D568" s="5">
+        <v>48</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F568" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G568" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I568" s="5">
+        <v>1</v>
+      </c>
+      <c r="W568" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="569" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A569" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C569" s="5">
+        <v>5</v>
+      </c>
+      <c r="D569" s="5">
+        <v>48</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F569" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G569" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I569" s="5">
+        <v>1</v>
+      </c>
+      <c r="W569" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="570" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A570" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C570" s="5">
+        <v>5</v>
+      </c>
+      <c r="D570" s="5">
+        <v>48</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F570" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G570" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I570" s="5">
+        <v>1</v>
+      </c>
+      <c r="W570" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="571" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A571" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C571" s="5">
+        <v>5</v>
+      </c>
+      <c r="D571" s="5">
+        <v>48</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F571" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G571" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I571" s="5">
+        <v>1</v>
+      </c>
+      <c r="L571" s="5">
+        <v>1</v>
+      </c>
+      <c r="W571" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="572" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A572" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C572" s="5">
+        <v>5</v>
+      </c>
+      <c r="D572" s="5">
+        <v>48</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F572" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G572" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I572" s="5">
+        <v>1</v>
+      </c>
+      <c r="S572" s="5">
+        <v>1</v>
+      </c>
+      <c r="W572" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A573" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C573" s="5">
+        <v>5</v>
+      </c>
+      <c r="D573" s="5">
+        <v>48</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F573" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G573" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I573" s="5">
+        <v>1</v>
+      </c>
+      <c r="K573" s="5">
+        <v>1</v>
+      </c>
+      <c r="W573" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A574" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C574" s="5">
+        <v>5</v>
+      </c>
+      <c r="D574" s="5">
+        <v>48</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F574" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G574" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I574" s="5">
+        <v>1</v>
+      </c>
+      <c r="W574" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A575" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C575" s="5">
+        <v>5</v>
+      </c>
+      <c r="D575" s="5">
+        <v>48</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F575" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G575" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I575" s="5">
+        <v>1</v>
+      </c>
+      <c r="L575" s="5">
+        <v>1</v>
+      </c>
+      <c r="W575" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A576" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C576" s="5">
+        <v>5</v>
+      </c>
+      <c r="D576" s="5">
+        <v>48</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F576" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G576" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I576" s="5">
+        <v>1</v>
+      </c>
+      <c r="W576" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A577" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C577" s="5">
+        <v>5</v>
+      </c>
+      <c r="D577" s="5">
+        <v>48</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F577" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G577" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I577" s="5">
+        <v>1</v>
+      </c>
+      <c r="W577" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="E578" s="3"/>
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="E580" s="3"/>
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="E581" s="3"/>
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="E582" s="3"/>
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="E583" s="3"/>
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="E585" s="3"/>
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="E586" s="3"/>
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="E587" s="3"/>
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="E588" s="3"/>
       <c r="F588" s="3"/>
       <c r="G588" s="3"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="E589" s="3"/>
       <c r="F589" s="3"/>
       <c r="G589" s="3"/>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="E590" s="3"/>
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="E591" s="3"/>
       <c r="F591" s="3"/>
       <c r="G591" s="3"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="E592" s="3"/>
